--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3835D959-5E4D-4F0F-A5AB-FBD45E1F4D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BFF9C3-1731-4185-AD3B-1E3B37322CEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="648">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -2028,10 +2028,6 @@
   </si>
   <si>
     <t>废水排入城市下水道,悬浮物(SS)严格执行《污水综合排放标准》(GB8978-1996)的三级标准400mg/L;废水排水自然水体,悬浮物(SS)严格执行《污水综合排放标准》(GB8978-1996)的二级标准150mg/L。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格执行《城市区域环境振动标准》GB10070-90要求。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2410,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="B672" sqref="B672"/>
+      <selection activeCell="A669" sqref="A669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7782,14 +7778,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A671" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B671">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BFF9C3-1731-4185-AD3B-1E3B37322CEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91626A6-5827-4B9C-8FDB-02797D18DED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="649">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -2028,6 +2028,10 @@
   </si>
   <si>
     <t>废水排入城市下水道,悬浮物(SS)严格执行《污水综合排放标准》(GB8978-1996)的三级标准400mg/L;废水排水自然水体,悬浮物(SS)严格执行《污水综合排放标准》(GB8978-1996)的二级标准150mg/L。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井口装置的安装配备：依据《测试井控技术规程》SY/T6426-2005，测试井口装置、井控管汇的配套与安装应符合行业标准《测试井控装置组合配套、安装调试与维护》SY/T5964-2006的规定要求。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2406,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="A669" sqref="A669"/>
+      <selection activeCell="B672" sqref="B672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7778,6 +7782,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91626A6-5827-4B9C-8FDB-02797D18DED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D4F45-C7CC-4930-8CA2-997585AE5183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="653">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -2032,6 +2032,22 @@
   </si>
   <si>
     <t>井口装置的安装配备：依据《测试井控技术规程》SY/T6426-2005，测试井口装置、井控管汇的配套与安装应符合行业标准《测试井控装置组合配套、安装调试与维护》SY/T5964-2006的规定要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格按照公司《交通安全管理规定》要求，保证行驶安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格按照公司《车辆维护保养标准》进行保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动车驾驶员必须遵守《中华人民共和国道路交通管理规定》《驾驶员安全操作规程》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司依据GB_T19001-2008《质量管理体系要求》、SY/T6581-2012《高压油气井测试工艺技术规程》、和SY/T5440-2000《天然气井试井技术规范》编写质量管理体系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2410,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="B672" sqref="B672"/>
+    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
+      <selection activeCell="B676" sqref="B676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7790,6 +7806,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B675">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D4F45-C7CC-4930-8CA2-997585AE5183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEE133E-D52A-409D-85DF-04AE72C50FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="728">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -2049,6 +2049,232 @@
   <si>
     <t>我公司依据GB_T19001-2008《质量管理体系要求》、SY/T6581-2012《高压油气井测试工艺技术规程》、和SY/T5440-2000《天然气井试井技术规范》编写质量管理体系</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）《宜昌市西陵二路快速路（庙嘴大桥—峡州大道）工程道路施工图设计》；</t>
+  </si>
+  <si>
+    <t>（2）《宜昌市西陵二路快速路（庙嘴大桥—峡州大道）工程排水施工图设计》；</t>
+  </si>
+  <si>
+    <t>（3）《宜昌市西陵二路快速路（庙嘴大桥—峡州大道）工程桥梁施工图设计》；</t>
+  </si>
+  <si>
+    <t>（4）《宜昌市西陵二路快速路（庙嘴大桥—峡州大道）工程通道施工图设计》；</t>
+  </si>
+  <si>
+    <t>（5）《宜昌市西陵二路快速路（庙嘴大桥—峡州大道）工程照明及电力管沟施工图设计》；</t>
+  </si>
+  <si>
+    <t>箱梁支架体系具体设计验算与施工详见《大学路高架桥现浇箱梁支架体系设计与施工》，示意图如下：</t>
+  </si>
+  <si>
+    <t>其试验方法按《土工试验规程》（SL237-1999）办理。</t>
+  </si>
+  <si>
+    <t>（2）电焊烟气的排放符合国家现行标准《大气污染物综合排放》GB16297的规定</t>
+  </si>
+  <si>
+    <t>1.《建筑工程质量保证书》</t>
+  </si>
+  <si>
+    <t>2.《产品说明书》</t>
+  </si>
+  <si>
+    <t>（1）施工单位的选择参照《对外业务分包管理制度》和《招投标管理制度》</t>
+  </si>
+  <si>
+    <t>根据《医院消毒卫生标准》(GB15982-2012)，医院的环境分为I~V类，根据四类环境对空气消毒的要求设置空调过滤装置：</t>
+  </si>
+  <si>
+    <t>项目应根据《建筑照明设计标准》（GB50034-2013）、《民用建筑电气设计规范》（GB51348-2019）等标准规范中有关规定，采取相应的节能措施：</t>
+  </si>
+  <si>
+    <t>项目采购组根据采购业务需要可以设立其它岗位，其主要工作内容、职责与权限详见《采购部岗位责任制》或《项目采购实施手册》</t>
+  </si>
+  <si>
+    <t>申报工程是否符合《评选办法》规定的相关条件；</t>
+  </si>
+  <si>
+    <t>详见七、承包人实施计划《人力资源计划配置表》</t>
+  </si>
+  <si>
+    <t>b.建筑室内外活动场所采用防滑地面，防滑等级达到现行行业标准《建筑地面工程防滑技术规程》JGJ/T331规定的Ad、AW级；</t>
+  </si>
+  <si>
+    <t>c.屋顶和外墙隔热性能应满足现行国家标准《民用建筑热工设计规范》GB50176的要求；</t>
+  </si>
+  <si>
+    <t>a.照明数量和质量应符合现行国家标准《建筑照明设计标准》GB50034的规定；</t>
+  </si>
+  <si>
+    <t>a.主要功能房间的照明功率密度值不应高于现行国家标准《建筑照明设计标准》GB50034规定的现行值；</t>
+  </si>
+  <si>
+    <t>2）建筑主要功能房间具有良好的户外视野，且主要功能房间的采光系数满足现行国家标准《建筑采光设计标准》GB50033的要求；</t>
+  </si>
+  <si>
+    <t>2.      《绿色建筑评价标准》（GB/T</t>
+  </si>
+  <si>
+    <t>50378-2019）：前文已提及，此处不再赘述。</t>
+  </si>
+  <si>
+    <t>序号 机械或设备名称 型号规格 数量 功率 用途 1 铝材切割机 FC-3 10 0.35 切割 2 钢管切割机 DSW-2 12 0.55 管切割 3 电锤 LT-15 12 0.25 打眼 4 手枪电钻 SQ-30 8 0.15 打眼 5 电工工具 / 8 / 电气安装 6 梯子 / 16 / 高空安装 7 无油空压机 KHD-20 4 0.75 打压 8 氩弧焊机 YHT125 16 / 不锈钢焊接 9 角磨机 JB-25 16 0.12 打磨 10 割刀 DT210 16 / 切割 11 打压吹扫设备 / 4 / 试压、吹扫 12 电焊机 DY-120 8 0.55 焊接 13 开孔器 TTU-10 8 0.2 设备开孔 14 洗眼机 SX250-3 8 / 打墙眼、楼层眼 15 坡口机 GP90-4 16 / 焊接坡口 16 接地电阻测试仪 JKL3-01 3 / 检测接地电阻 17 绝缘电阻测试仪 DS50-3 3 / 测量绝缘电阻 18 台钻 TF-15 5 0.75 打孔 19 氧气试压仪表 HX-150 5 / 氧气管道试压 20 负压试压仪表 VX-150 5 / 吸引管道试压 21 水准仪 SJ2-20 6 / 检验管道 22 万用表 HD-210 8 / 电器安装 23 配电箱  4 / 施工用电</t>
+  </si>
+  <si>
+    <t>b.人员长期停留的场所应采用符合现行国家标准《灯和灯系统的光生物安全性》GB/T20145规定的无危险类照明产品；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通风设备应符合现行国家标准《通风设备设计规范》GB/T 20500的要求进行设计。</t>
+  </si>
+  <si>
+    <t>所有施工材料必须符合《建筑材料燃烧性能分级》GB/T 8624标准规定。</t>
+  </si>
+  <si>
+    <t>消防报警系统应依照《火灾自动报警系统设计规范》GB/T 50116的规定安装。</t>
+  </si>
+  <si>
+    <t>电梯安装应符合《电梯技术条件》GB/T 10059规定的技术要求。</t>
+  </si>
+  <si>
+    <t>空调系统的设计需满足现行国家标准《空气调节设计规范》GB/T 50736的要求。</t>
+  </si>
+  <si>
+    <t>所使用的玻璃材料应符合《建筑玻璃应用技术规程》GB/T 15763的安全性要求。</t>
+  </si>
+  <si>
+    <t>防水卷材的施工应符合现行国家标准《屋面防水技术规范》GB/T 50345的规定。</t>
+  </si>
+  <si>
+    <t>建筑施工现场的安全设施应依据《建筑施工安全检查标准》GB/T 5282执行。</t>
+  </si>
+  <si>
+    <t>用于室内环境的油漆应符合现行国家标准《室内装饰装修材料有害物质限量》GB/T 18582的要求。</t>
+  </si>
+  <si>
+    <t>施工人员的个人防护装备应依据《劳动防护用品选用规则》GB/T 11651的标准配置。</t>
+  </si>
+  <si>
+    <t>消防栓的安装位置应满足《建筑灭火器配置设计规范》GB/T 50140的要求。</t>
+  </si>
+  <si>
+    <t>外墙保温材料需满足《建筑外墙外保温系统技术规范》GB/T 50798的要求。</t>
+  </si>
+  <si>
+    <t>电气设备安装必须依据《电气装置安装工程电缆线路施工及验收规范》GB/T 50351执行。</t>
+  </si>
+  <si>
+    <t>照明系统应符合现行国家标准《建筑照明设计标准》GB/T 50034的要求。</t>
+  </si>
+  <si>
+    <t>建筑供水系统应符合《建筑给水排水设计规范》GB/T 50015的规定。</t>
+  </si>
+  <si>
+    <t>人员疏散通道设计应依照《建筑设计防火规范》GB/T 50016的标准进行。</t>
+  </si>
+  <si>
+    <t>空气过滤设备应符合《空气净化器技术规范》GB/T 18801的相关要求。</t>
+  </si>
+  <si>
+    <t>水泵选型需满足现行国家标准《水泵选型规范》GB/T 50265的技术要求。</t>
+  </si>
+  <si>
+    <t>消防喷淋系统应符合《自动喷水灭火系统设计规范》GB/T 50084的要求。</t>
+  </si>
+  <si>
+    <t>建筑物防雷装置的设计应符合《建筑物防雷设计规范》GB/T 50057的标准。</t>
+  </si>
+  <si>
+    <t>电气线路敷设应满足现行国家标准《电气线路设计规范》GB/T 50054的要求。</t>
+  </si>
+  <si>
+    <t>建筑物外墙防护栏杆应符合《建筑结构荷载规范》GB/T 50009的规定。</t>
+  </si>
+  <si>
+    <t>电缆桥架的选型和安装应符合《电缆桥架工程技术规范》GB/T 50554的规定。</t>
+  </si>
+  <si>
+    <t>电梯安全保护装置应符合《电梯安全要求》GB/T 7588的规定。</t>
+  </si>
+  <si>
+    <t>消防通道的宽度和标识应依照《建筑防火规范》GB/T 50016的标准执行。</t>
+  </si>
+  <si>
+    <t>室内空气质量应符合《室内空气质量标准》GB/T 18883的相关规定。</t>
+  </si>
+  <si>
+    <t>所有门窗应符合《建筑门窗应用技术规范》GB/T 8478的要求。</t>
+  </si>
+  <si>
+    <t>给排水管道系统的施工应满足《建筑给水排水及采暖工程施工质量验收规范》GB/T 50242的要求。</t>
+  </si>
+  <si>
+    <t>使用的保温材料应符合现行国家标准《建筑节能工程施工质量验收规范》GB/T 50378的规定。</t>
+  </si>
+  <si>
+    <t>电气绝缘设备的选择应符合《电气设备安装工程规范》GB/T 50303的规定。</t>
+  </si>
+  <si>
+    <t>消防泵的选择应依据《消防泵技术要求》GB/T 50231的标准执行。</t>
+  </si>
+  <si>
+    <t>机械设备的安全操作应符合《机械安全防护装置设计规范》GB/T 8196的要求。</t>
+  </si>
+  <si>
+    <t>卫生间防水工程应符合《建筑防水工程技术规范》GB/T 50207的标准。</t>
+  </si>
+  <si>
+    <t>暖通系统的设计应符合《暖通空调工程设计规范》GB/T 50189的要求。</t>
+  </si>
+  <si>
+    <t>照明设备的能效标准应符合现行国家标准《照明产品能效限定值及能效等级》GB/T 19458的要求。</t>
+  </si>
+  <si>
+    <t>施工现场的临时用电设施应满足《施工现场临时用电安全技术规范》GB/T 50194的要求。</t>
+  </si>
+  <si>
+    <t>安全标志及使用须依照《安全标志及其使用导则》GB/T 2893的标准。</t>
+  </si>
+  <si>
+    <t>室内空气调节设备需符合《空气调节设备能效限定值及能效等级》GB/T 17758的标准。</t>
+  </si>
+  <si>
+    <t>施工机械的选用应依据《建筑施工机械安全技术规范》GB/T 26786的标准。</t>
+  </si>
+  <si>
+    <t>所使用的钢筋应符合现行国家标准《钢筋混凝土用钢》GB/T 1499的规定。</t>
+  </si>
+  <si>
+    <t>防火门的设计与安装应依照《建筑防火门技术要求》GB/T 12955的标准执行。</t>
+  </si>
+  <si>
+    <t>消火栓管道系统应符合《室内消火栓给水系统技术规范》GB/T 50974的规定。</t>
+  </si>
+  <si>
+    <t>消防灭火器的配置应依照《灭火器配置设计规范》GB/T 4351的标准进行。</t>
+  </si>
+  <si>
+    <t>风机设备的选择应符合《风机选型设计规范》GB/T 1236的要求。</t>
+  </si>
+  <si>
+    <t>施工防护措施应符合现行国家标准《建筑施工安全防护技术规范》GB/T 17219的规定。</t>
+  </si>
+  <si>
+    <t>建筑幕墙的设计与施工应满足《建筑幕墙技术规范》GB/T 21086的要求。</t>
+  </si>
+  <si>
+    <t>室内装修材料应符合《室内装饰材料燃烧性能分类》GB/T 8625的规定。</t>
+  </si>
+  <si>
+    <t>使用的消防材料应符合《消防产品质量管理条例》GB/T 17281的标准要求。</t>
+  </si>
+  <si>
+    <t>工程项目的监理应依照《工程监理规范》GB/T 50319的标准执行。</t>
+  </si>
+  <si>
+    <t>电梯运行的安全应符合《电梯制造与安全规范》GB/T 7588的要求。</t>
   </si>
 </sst>
 </file>
@@ -2426,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
-  <dimension ref="A1:B675"/>
+  <dimension ref="A1:B751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
-      <selection activeCell="B676" sqref="B676"/>
+    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
+      <selection activeCell="A755" sqref="A755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7838,6 +8064,614 @@
         <v>0</v>
       </c>
     </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>653</v>
+      </c>
+      <c r="B678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>654</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>655</v>
+      </c>
+      <c r="B680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>656</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>657</v>
+      </c>
+      <c r="B682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>658</v>
+      </c>
+      <c r="B683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>659</v>
+      </c>
+      <c r="B684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>660</v>
+      </c>
+      <c r="B685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>661</v>
+      </c>
+      <c r="B686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>662</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>663</v>
+      </c>
+      <c r="B688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>664</v>
+      </c>
+      <c r="B689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>665</v>
+      </c>
+      <c r="B690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>666</v>
+      </c>
+      <c r="B691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>667</v>
+      </c>
+      <c r="B692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>668</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>676</v>
+      </c>
+      <c r="B694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>676</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>669</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>670</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>671</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>677</v>
+      </c>
+      <c r="B699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>672</v>
+      </c>
+      <c r="B700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>673</v>
+      </c>
+      <c r="B701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>678</v>
+      </c>
+      <c r="B702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>679</v>
+      </c>
+      <c r="B703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>680</v>
+      </c>
+      <c r="B704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>681</v>
+      </c>
+      <c r="B705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>682</v>
+      </c>
+      <c r="B706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>683</v>
+      </c>
+      <c r="B707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>684</v>
+      </c>
+      <c r="B708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>685</v>
+      </c>
+      <c r="B709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>686</v>
+      </c>
+      <c r="B710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>687</v>
+      </c>
+      <c r="B711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>688</v>
+      </c>
+      <c r="B712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>689</v>
+      </c>
+      <c r="B713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>690</v>
+      </c>
+      <c r="B714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>691</v>
+      </c>
+      <c r="B715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>692</v>
+      </c>
+      <c r="B716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>693</v>
+      </c>
+      <c r="B717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>694</v>
+      </c>
+      <c r="B718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>695</v>
+      </c>
+      <c r="B719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>696</v>
+      </c>
+      <c r="B720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>697</v>
+      </c>
+      <c r="B721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>698</v>
+      </c>
+      <c r="B722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>699</v>
+      </c>
+      <c r="B723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>700</v>
+      </c>
+      <c r="B724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>701</v>
+      </c>
+      <c r="B725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>702</v>
+      </c>
+      <c r="B726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>703</v>
+      </c>
+      <c r="B727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>704</v>
+      </c>
+      <c r="B728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>705</v>
+      </c>
+      <c r="B729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>706</v>
+      </c>
+      <c r="B730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>707</v>
+      </c>
+      <c r="B731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>708</v>
+      </c>
+      <c r="B732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>709</v>
+      </c>
+      <c r="B733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>710</v>
+      </c>
+      <c r="B734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>711</v>
+      </c>
+      <c r="B735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>712</v>
+      </c>
+      <c r="B736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>713</v>
+      </c>
+      <c r="B737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>714</v>
+      </c>
+      <c r="B738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>715</v>
+      </c>
+      <c r="B739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>716</v>
+      </c>
+      <c r="B740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>717</v>
+      </c>
+      <c r="B741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>718</v>
+      </c>
+      <c r="B742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>719</v>
+      </c>
+      <c r="B743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>720</v>
+      </c>
+      <c r="B744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>721</v>
+      </c>
+      <c r="B745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>722</v>
+      </c>
+      <c r="B746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>723</v>
+      </c>
+      <c r="B747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>724</v>
+      </c>
+      <c r="B748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>725</v>
+      </c>
+      <c r="B749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>726</v>
+      </c>
+      <c r="B750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>727</v>
+      </c>
+      <c r="B751">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEE133E-D52A-409D-85DF-04AE72C50FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4C934-A4C4-4928-97FD-C35C8E9F49DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1195</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1159">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -2275,13 +2278,1306 @@
   </si>
   <si>
     <t>电梯运行的安全应符合《电梯制造与安全规范》GB/T 7588的要求。</t>
+  </si>
+  <si>
+    <t>GB 50009-2012 建筑结构荷载规范</t>
+  </si>
+  <si>
+    <t>GB 50010-2010 混凝土结构设计规范</t>
+  </si>
+  <si>
+    <t>GB 50011-2010 建筑抗震设计规范</t>
+  </si>
+  <si>
+    <t>GB 50015-2010 建筑给水排水设计规范</t>
+  </si>
+  <si>
+    <t>GB 50016-2014 建筑设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50017-2017 钢结构设计规范</t>
+  </si>
+  <si>
+    <t>GB 50018-2016 钢结构焊接规范</t>
+  </si>
+  <si>
+    <t>GB 50019-2015 采暖通风与空气调节设计规范</t>
+  </si>
+  <si>
+    <t>GB 50030-2016 气体灭火系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50034-2013 建筑照明设计标准</t>
+  </si>
+  <si>
+    <t>GB 50037-2013 建筑地面设计规范</t>
+  </si>
+  <si>
+    <t>GB 50040-2013 建筑节能设计标准</t>
+  </si>
+  <si>
+    <t>GB 50041-2008 工业建筑节能设计规范</t>
+  </si>
+  <si>
+    <t>GB 50045-95 高层民用建筑设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50046-2008 工业建筑防腐蚀设计规范</t>
+  </si>
+  <si>
+    <t>GB 50052-2009 供配电系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50053-2013 10kV及以下变电所设计规范</t>
+  </si>
+  <si>
+    <t>GB 50054-2011 低压配电设计规范</t>
+  </si>
+  <si>
+    <t>GB 50057-2010 建筑物防雷设计规范</t>
+  </si>
+  <si>
+    <t>GB 50058-2014 爆炸和火灾危险环境电力装置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50059-2011 35kV～750kV高压架空电力线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50060-2015 交流电气装置的接地设计规范</t>
+  </si>
+  <si>
+    <t>GB 50063-2017 电力装置的继电保护和自动装置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50065-2011 电气装置安装工程接地装置施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50068-2018 建筑结构可靠性设计统一标准</t>
+  </si>
+  <si>
+    <t>GB 50072-2013 冷库设计规范</t>
+  </si>
+  <si>
+    <t>GB 50073-2013 洁净厂房设计规范</t>
+  </si>
+  <si>
+    <t>GB 50076-2013 办公建筑设计规范</t>
+  </si>
+  <si>
+    <t>GB 50077-2016 住宅建筑设计规范</t>
+  </si>
+  <si>
+    <t>GB 50078-2008 残疾人建筑设计规范</t>
+  </si>
+  <si>
+    <t>GB 50084-2001 自动喷水灭火系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50085-2017 建筑消防设施设计规范</t>
+  </si>
+  <si>
+    <t>GB 50090-2002 体育建筑设计规范</t>
+  </si>
+  <si>
+    <t>GB 50091-2013 地下工程防水技术规范</t>
+  </si>
+  <si>
+    <t>GB 50093-2016 海绵城市设计规范</t>
+  </si>
+  <si>
+    <t>GB 50102-2012 医院建筑设计规范</t>
+  </si>
+  <si>
+    <t>GB 50103-2014 电梯工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50116-2013 建筑灭火器配置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50140-2005 城市轨道交通技术规范</t>
+  </si>
+  <si>
+    <t>GB 50143-2010 建筑给水排水及采暖工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50144-2008 建筑桩基技术规范</t>
+  </si>
+  <si>
+    <t>GB 50145-2008 建筑地基处理技术规范</t>
+  </si>
+  <si>
+    <t>GB 50153-2016 城市燃气设计规范</t>
+  </si>
+  <si>
+    <t>GB 50156-2012 汽车加油加气站设计与施工规范</t>
+  </si>
+  <si>
+    <t>GB 50157-2013 地铁设计规范</t>
+  </si>
+  <si>
+    <t>GB 50164-2011 混凝土质量控制标准</t>
+  </si>
+  <si>
+    <t>GB 50165-1992 大体积混凝土施工规范</t>
+  </si>
+  <si>
+    <t>GB 50202-2002 建筑地基基础工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50203-2011 钢结构工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50205-2020 混凝土结构工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>综合医院建筑设计规范 GB51039-2014</t>
+  </si>
+  <si>
+    <t>GB 50206-2012 木结构工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50207-2012 屋面工程质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50208-2011 地下防水工程质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50209-2010 建筑地面工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50210-2001 建筑装饰装修工程质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50218-2014 工业设备及管道绝热工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50222-2017 建筑内部装修设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50223-2008 建筑工程抗震设防分类标准</t>
+  </si>
+  <si>
+    <t>GB 50242-2016 建筑给水排水及采暖工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50243-2016 通风与空调工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50251-2015 工业建筑防雷技术规范</t>
+  </si>
+  <si>
+    <t>GB 50254-2014 电气装置安装工程电缆线路施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50255-2014 电气装置安装工程低压电器施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50256-2014 电气装置安装工程起重机电气装置施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50257-2014 电气装置安装工程爆炸和火灾危险环境电气装置施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50258-2014 电气装置安装工程电力变流设备施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50259-2014 电气装置安装工程1kV及以下配线工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50260-2014 电气装置安装工程电缆桥架及其支吊架施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50261-2014 电气装置安装工程接地装置施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50268-2008 给水排水管道工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50270-2017 住宅建筑通风与防火设计标准</t>
+  </si>
+  <si>
+    <t>GB 50274-2010 电梯安装工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50275-2010 自动化仪表工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50276-2010 仪表管道工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50290-2014 消防安全评估技术标准</t>
+  </si>
+  <si>
+    <t>GB 50300-2013 建设工程质量验收统一标准</t>
+  </si>
+  <si>
+    <t>GB 50303-2015 城市公共交通站场设计规范</t>
+  </si>
+  <si>
+    <t>GB 50325-2010 民用建筑工程室内环境污染控制规范</t>
+  </si>
+  <si>
+    <t>GB 50327-2017 工业管道工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50328-2014 建筑工程文件归档规范</t>
+  </si>
+  <si>
+    <t>GB 50330-2013 建筑工程抗震鉴定标准</t>
+  </si>
+  <si>
+    <t>GB 50338-2013 城市轨道交通车辆基地设计规范</t>
+  </si>
+  <si>
+    <t>GB 50345-2012 城市污水再生利用工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50348-2018 安全防范工程技术规范</t>
+  </si>
+  <si>
+    <t>GB 50352-2005 建筑节能检测标准</t>
+  </si>
+  <si>
+    <t>GB 50353-2013 工业建筑防火设计规范</t>
+  </si>
+  <si>
+    <t>GB 50354-2011 消防控制室设计规范</t>
+  </si>
+  <si>
+    <t>GB 50357-2005 医院洁净手术部建筑技术规范</t>
+  </si>
+  <si>
+    <t>GB 50361-2019 车库、停车场建筑设计规范</t>
+  </si>
+  <si>
+    <t>GB 50366-2018 城市综合管廊工程技术规范</t>
+  </si>
+  <si>
+    <t>GB 50368-2013 冷库工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50370-2005 钢结构焊缝无损检测标准</t>
+  </si>
+  <si>
+    <t>GB 50371-2010 大跨度结构检测与评定技术规范</t>
+  </si>
+  <si>
+    <t>GB 50374-2017 人防工程设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50376-2006 建筑工程检测试验技术规范</t>
+  </si>
+  <si>
+    <t>GB 50378-2019 绿色建筑评价标准</t>
+  </si>
+  <si>
+    <t>GB 50400-2006 住宅室内装饰装修工程质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50411-2007 电动汽车充电站设计规范</t>
+  </si>
+  <si>
+    <t>GB 50431-2016 室内公共场所集中空调通风系统清洗规范</t>
+  </si>
+  <si>
+    <t>GB 50457-2008 电力变压器检修规程</t>
+  </si>
+  <si>
+    <t>GB/T 12325-2008 电能质量 供电电压偏差</t>
+  </si>
+  <si>
+    <t>GB/T 12326-2008 电能质量 电压波动和闪变</t>
+  </si>
+  <si>
+    <t>GB/T 12350-2009 低压电器可靠性要求与验证</t>
+  </si>
+  <si>
+    <t>GB/T 13539.1-2008 高压熔断器 第1部分：基础要求</t>
+  </si>
+  <si>
+    <t>GB/T 13539.2-2014 高压熔断器 第2部分：高压电力变压器保护用熔断器</t>
+  </si>
+  <si>
+    <t>GB/T 14549-1993 电能质量 公用电网谐波</t>
+  </si>
+  <si>
+    <t>GB/T 15576-2008 无功补偿装置通用技术条件</t>
+  </si>
+  <si>
+    <t>GB/T 156-2007 标准电压</t>
+  </si>
+  <si>
+    <t>GB/T 15945-2008 电能质量 频率偏差</t>
+  </si>
+  <si>
+    <t>GB/T 15950-2017 电气装置的过电压保护</t>
+  </si>
+  <si>
+    <t>GB/T 17467-2010 高压/低压预装式变电站</t>
+  </si>
+  <si>
+    <t>GB/T 19862-2005 电能质量 低压电力装置的谐波抑制</t>
+  </si>
+  <si>
+    <t>GB/T 19963-2011 电网安全稳定导则</t>
+  </si>
+  <si>
+    <t>GB/T 19964-2012 风力发电场接入电力系统技术规定</t>
+  </si>
+  <si>
+    <t>GB/T 20060-2012 电能质量 电力系统电压暂降和短时中断</t>
+  </si>
+  <si>
+    <t>GB/T 20145-2006 电能质量 电压暂降、短时中断和电压变化的检测与测量</t>
+  </si>
+  <si>
+    <t>GB/T 20665-2006 电能质量 工频过电压的检测与测量</t>
+  </si>
+  <si>
+    <t>GB/T 21431-2015 低压电气设备的电能质量控制技术要求</t>
+  </si>
+  <si>
+    <t>GB/T 21441-2008 高压直流输电系统运行规范</t>
+  </si>
+  <si>
+    <t>GB/T 21709.1-2008 电力系统安全性 第1部分：术语和定义</t>
+  </si>
+  <si>
+    <t>GB/T 21709.2-2010 电力系统安全性 第2部分：电力系统规划</t>
+  </si>
+  <si>
+    <t>GB/T 21709.3-2010 电力系统安全性 第3部分：电力系统运行</t>
+  </si>
+  <si>
+    <t>GB/T 21709.4-2010 电力系统安全性 第4部分：电力系统可靠性分析</t>
+  </si>
+  <si>
+    <t>GB/T 22078-2008 电能计量装置通用要求</t>
+  </si>
+  <si>
+    <t>GB/T 22564-2010 电网调度规程</t>
+  </si>
+  <si>
+    <t>GB/T 22919-2010 电力系统故障录波装置通用技术条件</t>
+  </si>
+  <si>
+    <t>GB/T 22963-2014 电能质量 低压谐波电流限值</t>
+  </si>
+  <si>
+    <t>GB/T 23228-2008 电能质量 负载平衡要求</t>
+  </si>
+  <si>
+    <t>GB/T 24689-2009 电能质量 数据获取与分析</t>
+  </si>
+  <si>
+    <t>GB/T 26259-2010 电力设备在线监测系统通用技术规范</t>
+  </si>
+  <si>
+    <t>GB/T 26936-2011 电力系统互联技术要求</t>
+  </si>
+  <si>
+    <t>GB/T 2900.45-2008 电气设备的功能安全性</t>
+  </si>
+  <si>
+    <t>GB/T 30137-2013 电力系统中性点运行方式导则</t>
+  </si>
+  <si>
+    <t>GB/T 30240.1-2017 电能质量 电压暂降、短时中断和电压变化的限值</t>
+  </si>
+  <si>
+    <t>GB/T 30240.2-2019 电能质量 电压暂降、短时中断和电压变化的检测与测量</t>
+  </si>
+  <si>
+    <t>GB/T 30823-2014 电能质量 公用电网中性点电压限值</t>
+  </si>
+  <si>
+    <t>GB/T 31066-2014 电能质量 闪变限值</t>
+  </si>
+  <si>
+    <t>GB/T 31146-2014 变压器绝缘油耐久性能要求</t>
+  </si>
+  <si>
+    <t>GB/T 31462-2015 电力系统安全性 第5部分：事故处理</t>
+  </si>
+  <si>
+    <t>GB/T 31807-2015 电力设备状态监测与评价技术导则</t>
+  </si>
+  <si>
+    <t>GB/T 31911-2015 输变电设备抗雷技术规范</t>
+  </si>
+  <si>
+    <t>GB/T 32537-2016 变电站在线监测系统通用技术要求</t>
+  </si>
+  <si>
+    <t>GB/T 32891-2016 高压断路器动态性能检测方法</t>
+  </si>
+  <si>
+    <t>GB/T 32994-2017 低压电力线通信技术要求</t>
+  </si>
+  <si>
+    <t>GB/T 33491-2017 电力系统电压无功控制设备</t>
+  </si>
+  <si>
+    <t>GB/T 34099-2017 电力系统仿真与分析技术规范</t>
+  </si>
+  <si>
+    <t>GB/T 35253-2017 配电网电能质量管理导则</t>
+  </si>
+  <si>
+    <t>GB/T 35865-2018 低压配电系统中的电能质量限值</t>
+  </si>
+  <si>
+    <t>GB/T 36274-2018 电力设备绝缘测试导则</t>
+  </si>
+  <si>
+    <t>GB/T 36479-2018 电力变压器绝缘寿命预测规范</t>
+  </si>
+  <si>
+    <t>SL 1-2000 水利工程建设项目管理规范</t>
+  </si>
+  <si>
+    <t>SL 18-2012 水利水电工程地质勘察规范</t>
+  </si>
+  <si>
+    <t>SL 23-2016 水利水电工程施工质量检验与评定规范</t>
+  </si>
+  <si>
+    <t>SL 27-2014 水工建筑物水泥灌浆施工规范</t>
+  </si>
+  <si>
+    <t>SL 31-2003 水利水电工程土石坝设计规范</t>
+  </si>
+  <si>
+    <t>SL 44-2006 水利水电工程混凝土施工技术规范</t>
+  </si>
+  <si>
+    <t>SL 47-1999 水库大坝安全评价规范</t>
+  </si>
+  <si>
+    <t>SL 54-2012 水利工程施工安全技术规程</t>
+  </si>
+  <si>
+    <t>SL 63-2014 水利水电工程基础处理技术规范</t>
+  </si>
+  <si>
+    <t>SL 73-2013 水利水电工程施工测量规范</t>
+  </si>
+  <si>
+    <t>SL 78-2011 水利工程施工机械技术要求</t>
+  </si>
+  <si>
+    <t>SL 85-1994 水库调洪计算规范</t>
+  </si>
+  <si>
+    <t>SL 105-2013 水利水电工程环境保护设计规范</t>
+  </si>
+  <si>
+    <t>SL 108-2018 水土保持工程技术规范</t>
+  </si>
+  <si>
+    <t>SL 171-2006 水利水电工程水工建筑物抗震设计规范</t>
+  </si>
+  <si>
+    <t>SL 178-2007 水库大坝安全监测技术规范</t>
+  </si>
+  <si>
+    <t>SL 191-2015 水利工程工程量清单计价规范</t>
+  </si>
+  <si>
+    <t>SL 210-2015 水利水电工程金属结构设计规范</t>
+  </si>
+  <si>
+    <t>SL 223-2008 水利水电工程混凝土施工规范</t>
+  </si>
+  <si>
+    <t>SL 237-2013 水利水电工程水工钢闸门设计规范</t>
+  </si>
+  <si>
+    <t>SL 245-2009 堤防工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>SL 265-2001 水工建筑物基础处理技术规范</t>
+  </si>
+  <si>
+    <t>SL 290-2004 水库大坝安全管理规范</t>
+  </si>
+  <si>
+    <t>SL 305-2012 水电站工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>SL 313-2004 河道整治工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>SL 317-2004 水利水电工程岩土工程勘察规范</t>
+  </si>
+  <si>
+    <t>SL 324-2006 水闸设计规范</t>
+  </si>
+  <si>
+    <t>SL 335-2006 水利水电工程地下洞室设计规范</t>
+  </si>
+  <si>
+    <t>SL 347-2006 水电站电气设备安装施工及验收规范</t>
+  </si>
+  <si>
+    <t>SL 358-2013 农田水利工程技术规范</t>
+  </si>
+  <si>
+    <t>SL 366-2014 水电站机电设备安装规范</t>
+  </si>
+  <si>
+    <t>SL 382-2015 河道及湖泊整治工程设计规范</t>
+  </si>
+  <si>
+    <t>SL 386-2007 水库安全管理技术规范</t>
+  </si>
+  <si>
+    <t>SL 423-2015 水利水电工程混凝土结构设计规范</t>
+  </si>
+  <si>
+    <t>SL 431-2012 水利水电工程施工组织设计规范</t>
+  </si>
+  <si>
+    <t>SL 440-2009 水闸施工规范</t>
+  </si>
+  <si>
+    <t>SL 446-2009 水利水电工程堤防设计规范</t>
+  </si>
+  <si>
+    <t>SL 483-2012 水利水电工程除险加固技术规范</t>
+  </si>
+  <si>
+    <t>SL 485-2013 水利工程地基处理技术规范</t>
+  </si>
+  <si>
+    <t>SL 502-2017 水利工程施工质量管理标准</t>
+  </si>
+  <si>
+    <t>SL 551-2017 堤防工程设计规范</t>
+  </si>
+  <si>
+    <t>SL 577-2015 水利水电工程施工测量标准</t>
+  </si>
+  <si>
+    <t>SL 595-2013 水资源综合规划技术规范</t>
+  </si>
+  <si>
+    <t>SL 607-2013 水利水电工程地下结构施工质量验收规范</t>
+  </si>
+  <si>
+    <t>SL 641-2017 小型水利工程设计规范</t>
+  </si>
+  <si>
+    <t>SL 686-2014 水电站机电设备运行维护规程</t>
+  </si>
+  <si>
+    <t>SL 691-2013 大型灌区节水技术标准</t>
+  </si>
+  <si>
+    <t>SL 705-2016 水电站水轮机选型规范</t>
+  </si>
+  <si>
+    <t>SL 742-2016 水利工程建筑材料质量检测规范</t>
+  </si>
+  <si>
+    <t>SL 765-2018 水利工程安全生产管理规范</t>
+  </si>
+  <si>
+    <t>JTG B01-2014 公路工程技术标准</t>
+  </si>
+  <si>
+    <t>JTG D20-2017 公路路基设计规范</t>
+  </si>
+  <si>
+    <t>JTG D50-2017 公路隧道设计规范</t>
+  </si>
+  <si>
+    <t>JTG D60-2015 公路路线设计规范</t>
+  </si>
+  <si>
+    <t>JTG E10-2009 公路桥涵施工技术规范</t>
+  </si>
+  <si>
+    <t>JTG E30-2005 公路路基施工技术规范</t>
+  </si>
+  <si>
+    <t>JTG F40-2004 公路沥青路面施工技术规范</t>
+  </si>
+  <si>
+    <t>JTG F80-2017 公路工程质量检验评定标准</t>
+  </si>
+  <si>
+    <t>JTG G10-2016 公路工程预算定额</t>
+  </si>
+  <si>
+    <t>JTG G11-2016 公路工程基本建设项目概算预算编制办法</t>
+  </si>
+  <si>
+    <t>JTG H20-2007 公路工程环境保护技术规范</t>
+  </si>
+  <si>
+    <t>JTG H30-2015 公路工程施工安全技术规范</t>
+  </si>
+  <si>
+    <t>JTG H40-2008 公路养护技术规范</t>
+  </si>
+  <si>
+    <t>JTG H50-2010 公路养护质量检验评定标准</t>
+  </si>
+  <si>
+    <t>JTG H60-2015 公路工程抗震设计规范</t>
+  </si>
+  <si>
+    <t>JTG T01-2008 公路工程术语标准</t>
+  </si>
+  <si>
+    <t>JTG T20-2015 公路桥涵设计通用规范</t>
+  </si>
+  <si>
+    <t>JTG T25-2018 公路桥梁抗震设计规范</t>
+  </si>
+  <si>
+    <t>JTG T32-2019 公路隧道防排水技术规范</t>
+  </si>
+  <si>
+    <t>JTG T40-2014 公路路基路面技术标准</t>
+  </si>
+  <si>
+    <t>JTG T51-2009 公路交通安全设施设计规范</t>
+  </si>
+  <si>
+    <t>JTG T82-2016 公路工程施工组织设计规范</t>
+  </si>
+  <si>
+    <t>JTG T92-2009 公路路面基层施工技术规范</t>
+  </si>
+  <si>
+    <t>JTGD30-2015 公路沥青路面设计规范</t>
+  </si>
+  <si>
+    <t>JTGB01-2003 公路桥梁养护规范</t>
+  </si>
+  <si>
+    <t>JTGB02-2006 公路路基防护设计标准</t>
+  </si>
+  <si>
+    <t>JTGD61-2005 公路隧道通风照明设计规范</t>
+  </si>
+  <si>
+    <t>JTGB03-2013 公路桥梁结构检测评估技术标准</t>
+  </si>
+  <si>
+    <t>JTGC10-2017 公路路面施工质量验收标准</t>
+  </si>
+  <si>
+    <t>JTGTF30-2020 公路绿化设计技术规范</t>
+  </si>
+  <si>
+    <t>GB 50015-2003 建筑给水排水设计规范</t>
+  </si>
+  <si>
+    <t>GB 50018-2002 冷弯薄壁型钢结构技术规范</t>
+  </si>
+  <si>
+    <t>GB 50026-2007 工程测量规范</t>
+  </si>
+  <si>
+    <t>GB 50028-2006 城镇燃气设计规范</t>
+  </si>
+  <si>
+    <t>GB 50029-2014 压缩空气站设计规范</t>
+  </si>
+  <si>
+    <t>GB 50030-2010 气体灭火系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50032-2013 室外给水设计规范</t>
+  </si>
+  <si>
+    <t>GB 50037-2016 高层民用建筑设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50041-2008 锅炉房设计规范</t>
+  </si>
+  <si>
+    <t>GB 50045-1995 高层民用建筑设计规范</t>
+  </si>
+  <si>
+    <t>GB 50046-2008 工业建筑抗震设计规范</t>
+  </si>
+  <si>
+    <t>GB 50047-2010 地下工程防水技术规范</t>
+  </si>
+  <si>
+    <t>GB 50051-2013 烟囱设计规范</t>
+  </si>
+  <si>
+    <t>GB 50052-2009 电气装置安装工程低压电器施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50053-2013 20kV及以下变电所设计规范</t>
+  </si>
+  <si>
+    <t>GB 50055-2011 通信局(站)电源设备设计规范</t>
+  </si>
+  <si>
+    <t>GB 50056-2014 爆炸危险环境电力装置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50059-2011 10kV及以下变电所设计规范</t>
+  </si>
+  <si>
+    <t>GB 50060-2008 电力装置的电气照明设计规范</t>
+  </si>
+  <si>
+    <t>GB 50061-2010 电力装置的接地设计规范</t>
+  </si>
+  <si>
+    <t>GB 50063-2013 火灾自动报警系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50064-2014 电力工程电缆设计规范</t>
+  </si>
+  <si>
+    <t>GB 50065-2011 气体灭火系统施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50066-2014 火灾探测报警设备技术条件</t>
+  </si>
+  <si>
+    <t>GB 50067-2014 泡沫灭火系统施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50068-2008 建筑结构可靠性设计统一标准</t>
+  </si>
+  <si>
+    <t>GB 50069-2011 建筑桩基技术规范</t>
+  </si>
+  <si>
+    <t>GB 50070-2009 烟囱结构设计规范</t>
+  </si>
+  <si>
+    <t>GB 50071-2013 石油化工企业设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50072-2011 混凝土与钢筋混凝土水池设计规范</t>
+  </si>
+  <si>
+    <t>GB 50073-2013 污水处理工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50074-2011 冷库设计规范</t>
+  </si>
+  <si>
+    <t>GB 50075-2012 工业循环水冷却塔设计规范</t>
+  </si>
+  <si>
+    <t>GB 50076-2014 城镇燃气管道设计规范</t>
+  </si>
+  <si>
+    <t>GB 50077-2013 水泥厂设计规范</t>
+  </si>
+  <si>
+    <t>GB 50078-2012 加油加气站设计规范</t>
+  </si>
+  <si>
+    <t>GB 50079-2014 地面工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50080-2014 混凝土结构工程施工质量验收规范</t>
+  </si>
+  <si>
+    <t>GB 50081-2016 砌体结构设计规范</t>
+  </si>
+  <si>
+    <t>GB 50082-2009 高层建筑防火设计规范</t>
+  </si>
+  <si>
+    <t>GB 50188-2007 城市给水工程规划规范</t>
+  </si>
+  <si>
+    <t>GB 50014-2011 室外排水设计规范</t>
+  </si>
+  <si>
+    <t>GB 50289-2016 城市道路交通规划设计规范</t>
+  </si>
+  <si>
+    <t>GB 50187-2012 城市轨道交通设计规范</t>
+  </si>
+  <si>
+    <t>GB 50337-2018 城市综合交通规划编制标准</t>
+  </si>
+  <si>
+    <t>GB 50462-2008 城市燃气工程项目建设标准</t>
+  </si>
+  <si>
+    <t>GB 50318-2017 城市供热系统规划技术规范</t>
+  </si>
+  <si>
+    <t>GB 50319-2013 城市污水再生利用工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50284-2016 城市桥梁设计规范</t>
+  </si>
+  <si>
+    <t>GB 50449-2008 城市快速路设计标准</t>
+  </si>
+  <si>
+    <t>GB 50443-2018 城市道路绿化规划设计规范</t>
+  </si>
+  <si>
+    <t>GB 50933-2013 城市地下综合管廊工程技术规范</t>
+  </si>
+  <si>
+    <t>GB 51038-2014 城市公共交通规划编制标准</t>
+  </si>
+  <si>
+    <t>GB 50647-2011 城市垃圾处理工程技术标准</t>
+  </si>
+  <si>
+    <t>GB 50209-2010 城市道路工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50857-2013 城市排水工程设施运行、维护及安全技术规范</t>
+  </si>
+  <si>
+    <t>GB 50116-2013 城市防洪规划规范</t>
+  </si>
+  <si>
+    <t>GB 50788-2013 城市电力设施规划设计标准</t>
+  </si>
+  <si>
+    <t>GB 50191-2012 城市环境卫生设施设计标准</t>
+  </si>
+  <si>
+    <t>GB 50736-2012 城市供水工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50116-2013 火灾自动报警系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50974-2014 消防给水及消火栓系统技术规范</t>
+  </si>
+  <si>
+    <t>GB 50370-2005 自动喷水灭火系统施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50151-2010 石油化工企业设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50140-2005 建筑灭火器配置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50261-2017 自动喷水灭火系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50229-2019 火灾自动报警系统施工及验收规范</t>
+  </si>
+  <si>
+    <t>GB 50222-2017 建筑内部装修防火设计规范</t>
+  </si>
+  <si>
+    <t>GB 50338-2003 人防工程设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50981-2014 建筑防烟排烟系统技术标准</t>
+  </si>
+  <si>
+    <t>GB 50098-2018 高层民用建筑设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 50440-2017 消防通信指挥系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50263-2007 气体灭火系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50347-2004 民用机场消防设计规范</t>
+  </si>
+  <si>
+    <t>GB 50045-1995 高层民用建筑设计防火规范</t>
+  </si>
+  <si>
+    <t>GB 51251-2017 消防控制室设计规范</t>
+  </si>
+  <si>
+    <t>GB 50493-2009 消防设备安装工程施工及验收规范</t>
+  </si>
+  <si>
+    <t>城市公共交通规划应符合《城市公共交通规划编制标准》GB 51038-2014的标准。</t>
+  </si>
+  <si>
+    <t>城市垃圾处理工程应符合《城市垃圾处理工程技术标准》GB 50647-2011的标准。</t>
+  </si>
+  <si>
+    <t>城市道路工程应符合《城市道路工程设计规范》GB 50209-2010的标准。</t>
+  </si>
+  <si>
+    <t>城市排水工程设施运行、维护应符合《城市排水工程设施运行、维护及安全技术规范》GB 50857-2013的标准。</t>
+  </si>
+  <si>
+    <t>城市防洪规划应符合《城市防洪规划规范》GB 50116-2013的标准。</t>
+  </si>
+  <si>
+    <t>城市电力设施规划应符合《城市电力设施规划设计标准》GB 50788-2013的标准。</t>
+  </si>
+  <si>
+    <t>城市环境卫生设施应符合《城市环境卫生设施设计标准》GB 50191-2012的标准。</t>
+  </si>
+  <si>
+    <t>城市供水工程应符合《城市供水工程设计规范》GB 50736-2012的标准。</t>
+  </si>
+  <si>
+    <t>建筑防火设计应符合《建筑设计防火规范》GB 50016-2014的标准。</t>
+  </si>
+  <si>
+    <t>火灾自动报警系统应符合《火灾自动报警系统设计规范》GB 50116-2013的标准。</t>
+  </si>
+  <si>
+    <t>消防给水及消火栓系统应符合《消防给水及消火栓系统技术规范》GB 50974-2014的标准。</t>
+  </si>
+  <si>
+    <t>建筑内部装修防火设计应符合《建筑内部装修设计防火规范》GB 50222-2017的标准。</t>
+  </si>
+  <si>
+    <t>自动喷水灭火系统施工应符合《自动喷水灭火系统施工及验收规范》GB 50370-2005的标准。</t>
+  </si>
+  <si>
+    <t>石油化工企业防火设计应符合《石油化工企业设计防火规范》GB 50151-2010的标准。</t>
+  </si>
+  <si>
+    <t>建筑灭火器配置应符合《建筑灭火器配置设计规范》GB 50140-2005的标准。</t>
+  </si>
+  <si>
+    <t>自动喷水灭火系统设计应符合《自动喷水灭火系统设计规范》GB 50261-2017的标准。</t>
+  </si>
+  <si>
+    <t>火灾自动报警系统施工应符合《火灾自动报警系统施工及验收规范》GB 50229-2019的标准。</t>
+  </si>
+  <si>
+    <t>建筑内部装修防火设计应符合《建筑内部装修防火设计规范》GB 50222-2017的标准。</t>
+  </si>
+  <si>
+    <t>人防工程防火设计应符合《人防工程设计防火规范》GB 50338-2003的标准。</t>
+  </si>
+  <si>
+    <t>建筑防烟排烟系统应符合《建筑防烟排烟系统技术标准》GB 50981-2014的标准。</t>
+  </si>
+  <si>
+    <t>高层民用建筑防火设计应符合《高层民用建筑设计防火规范》GB 50098-2018的标准。</t>
+  </si>
+  <si>
+    <t>消防通信指挥系统设计应符合《消防通信指挥系统设计规范》GB 50440-2017的标准。</t>
+  </si>
+  <si>
+    <t>气体灭火系统设计应符合《气体灭火系统设计规范》GB 50263-2007的标准。</t>
+  </si>
+  <si>
+    <t>民用机场消防设计应符合《民用机场消防设计规范》GB 50347-2004的标准。</t>
+  </si>
+  <si>
+    <t>高层民用建筑防火设计应符合《高层民用建筑设计防火规范》GB 50045-1995的标准。</t>
+  </si>
+  <si>
+    <t>消防控制室设计应符合《消防控制室设计规范》GB 51251-2017的标准。</t>
+  </si>
+  <si>
+    <t>爆炸和火灾危险环境电力装置设计应符合《爆炸和火灾危险环境电力装置设计规范》GB 50058-2014的标准。</t>
+  </si>
+  <si>
+    <t>消防设备安装工程施工应符合《消防设备安装工程施工及验收规范》GB 50493-2009的标准。</t>
+  </si>
+  <si>
+    <t>木结构工程的施工和验收应遵循《木结构工程施工质量验收规范》GB 50206-2012的要求。</t>
+  </si>
+  <si>
+    <t>屋面工程的质量验收工作需要依据《屋面工程质量验收规范》GB 50207-2012进行。</t>
+  </si>
+  <si>
+    <t>在进行地下防水工程验收时，应参考《地下防水工程质量验收规范》GB 50208-2011。</t>
+  </si>
+  <si>
+    <t>建筑地面的施工质量必须符合《建筑地面工程施工质量验收规范》GB 50209-2010的标准。</t>
+  </si>
+  <si>
+    <t>建筑装饰装修的工程验收必须按照《建筑装饰装修工程质量验收规范》GB 50210-2001来执行。</t>
+  </si>
+  <si>
+    <t>工业设备及管道的绝热工程施工应满足《工业设备及管道绝热工程施工及验收规范》GB 50218-2014的标准。</t>
+  </si>
+  <si>
+    <t>建筑内部装修设计要符合《建筑内部装修设计防火规范》GB 50222-2017的防火要求。</t>
+  </si>
+  <si>
+    <t>建筑物的抗震设防分类应依据《建筑工程抗震设防分类标准》GB 50223-2008进行。</t>
+  </si>
+  <si>
+    <t>建筑给排水及采暖系统施工验收应符合《建筑给水排水及采暖工程施工质量验收规范》GB 50242-2016。</t>
+  </si>
+  <si>
+    <t>通风与空调工程的施工质量验收要依照《通风与空调工程施工质量验收规范》GB 50243-2016的规定。</t>
+  </si>
+  <si>
+    <t>工业建筑的防雷设计和施工应严格执行《工业建筑防雷技术规范》GB 50251-2015的相关标准。</t>
+  </si>
+  <si>
+    <t>电气装置安装工程的电缆线路施工应符合《电气装置安装工程电缆线路施工及验收规范》GB 50254-2014。</t>
+  </si>
+  <si>
+    <t>低压电器的安装和验收工作需要遵循《电气装置安装工程低压电器施工及验收规范》GB 50255-2014的要求。</t>
+  </si>
+  <si>
+    <t>起重机电气装置的施工和验收必须依据《电气装置安装工程起重机电气装置施工及验收规范》GB 50256-2014。</t>
+  </si>
+  <si>
+    <t>爆炸和火灾危险环境中的电气装置施工必须严格按照《电气装置安装工程爆炸和火灾危险环境电气装置施工及验收规范》GB 50257-2014进行。</t>
+  </si>
+  <si>
+    <t>电力变流设备的安装施工应符合《电气装置安装工程电力变流设备施工及验收规范》GB 50258-2014的要求。</t>
+  </si>
+  <si>
+    <t>1kV及以下的配线工程施工验收要依据《电气装置安装工程1kV及以下配线工程施工及验收规范》GB 50259-2014。</t>
+  </si>
+  <si>
+    <t>电缆桥架及支吊架的施工质量需要符合《电气装置安装工程电缆桥架及其支吊架施工及验收规范》GB 50260-2014的标准。</t>
+  </si>
+  <si>
+    <t>接地装置的施工和验收工作必须符合《电气装置安装工程接地装置施工及验收规范》GB 50261-2014的规定。</t>
+  </si>
+  <si>
+    <t>给水排水管道的施工及验收应依据《给水排水管道工程施工及验收规范》GB 50268-2008。</t>
+  </si>
+  <si>
+    <t>住宅建筑的通风和防火设计应按照《住宅建筑通风与防火设计标准》GB 50270-2017的标准进行。</t>
+  </si>
+  <si>
+    <t>木结构建筑施工过程中，必须遵循《木结构工程施工质量验收规范》GB 50206-2012来确保质量。</t>
+  </si>
+  <si>
+    <t>在验收屋面工程时，需参考《屋面工程质量验收规范》GB 50207-2012的细节要求。</t>
+  </si>
+  <si>
+    <t>地下防水工程的验收标准依照《地下防水工程质量验收规范》GB 50208-2011，确保防水质量。</t>
+  </si>
+  <si>
+    <t>建筑地面施工应满足《建筑地面工程施工质量验收规范》GB 50209-2010的验收标准。</t>
+  </si>
+  <si>
+    <t>装饰装修工程质量的验收标准应符合《建筑装饰装修工程质量验收规范》GB 50210-2001。</t>
+  </si>
+  <si>
+    <t>绝热工程的施工及验收需遵照《工业设备及管道绝热工程施工及验收规范》GB 50218-2014的要求进行。</t>
+  </si>
+  <si>
+    <t>内部装修防火设计需严格遵守《建筑内部装修设计防火规范》GB 50222-2017。</t>
+  </si>
+  <si>
+    <t>抗震设防的分类必须依据《建筑工程抗震设防分类标准》GB 50223-2008，确保安全性。</t>
+  </si>
+  <si>
+    <t>给水排水和采暖工程施工验收标准应符合《建筑给水排水及采暖工程施工质量验收规范》GB 50242-2016。</t>
+  </si>
+  <si>
+    <t>通风和空调工程的施工验收应严格遵守《通风与空调工程施工质量验收规范》GB 50243-2016的标准。</t>
+  </si>
+  <si>
+    <t>工业建筑的防雷设施设计施工，需满足《工业建筑防雷技术规范》GB 50251-2015的要求。</t>
+  </si>
+  <si>
+    <t>电缆线路安装工程必须依照《电气装置安装工程电缆线路施工及验收规范》GB 50254-2014进行。</t>
+  </si>
+  <si>
+    <t>低压电器的安装与验收必须依据《电气装置安装工程低压电器施工及验收规范》GB 50255-2014的标准。</t>
+  </si>
+  <si>
+    <t>起重机电气装置施工应符合《电气装置安装工程起重机电气装置施工及验收规范》GB 50256-2014的要求。</t>
+  </si>
+  <si>
+    <t>爆炸和火灾危险环境中的电气装置施工标准需符合《电气装置安装工程爆炸和火灾危险环境电气装置施工及验收规范》GB 50257-2014。</t>
+  </si>
+  <si>
+    <t>电力变流设备的施工验收应严格按照《电气装置安装工程电力变流设备施工及验收规范》GB 50258-2014执行。</t>
+  </si>
+  <si>
+    <t>配线工程的施工和验收必须遵循《电气装置安装工程1kV及以下配线工程施工及验收规范》GB 50259-2014。</t>
+  </si>
+  <si>
+    <t>电缆桥架及其支吊架的施工质量必须满足《电气装置安装工程电缆桥架及其支吊架施工及验收规范》GB 50260-2014的标准。</t>
+  </si>
+  <si>
+    <t>接地装置施工及验收需符合《电气装置安装工程接地装置施工及验收规范》GB 50261-2014的要求。</t>
+  </si>
+  <si>
+    <t>给水排水管道的施工质量验收要依据《给水排水管道工程施工及验收规范》GB 50268-2008。</t>
+  </si>
+  <si>
+    <t>住宅建筑的通风与防火设计应依照《住宅建筑通风与防火设计标准》GB 50270-2017来确保安全。</t>
+  </si>
+  <si>
+    <t>建筑外窗的抗风压性能应依据《建筑外窗抗风压性能分级及其检测方法》GB/T7106-2019进行检测。</t>
+  </si>
+  <si>
+    <t>民用建筑工程的室内环境污染控制要求需符合《民用建筑工程室内环境污染控制规范》GB50325-2020。</t>
+  </si>
+  <si>
+    <t>民用建筑的隔声设计必须依照《民用建筑隔声设计规范》GB50118-2010的规定执行。</t>
+  </si>
+  <si>
+    <t>电气设备交接试验的标准应依据《电气装置安装工程电气设备交接试验标准》GB50150-2016。</t>
+  </si>
+  <si>
+    <t>施工现场供用电安全需要遵循《建设工程施工现场供用电安全规范》GB50194-2014的要求。</t>
+  </si>
+  <si>
+    <t>建筑施工场界环境噪声的排放标准应符合《建筑施工场界环境噪声排放标准》GB12523-2011。</t>
+  </si>
+  <si>
+    <t>环境空气质量的检测标准需参考《环境空气质量标准》GB3095-2012进行。</t>
+  </si>
+  <si>
+    <t>绿色施工项目的评价标准应依据《建筑工程绿色施工评价标准》GB/T50640-2010。</t>
+  </si>
+  <si>
+    <t>城市区域的环境噪声控制应遵循《城市区域环境噪声标准》GB3096-2008。</t>
+  </si>
+  <si>
+    <t>城市建设档案的整理和著录应按照《城市建设档案著录规范》GB/T50323-2001的要求。</t>
+  </si>
+  <si>
+    <t>建筑工程文件归档整理需要符合《建筑工程文件归档整理规范》GB/T50328-2014。</t>
+  </si>
+  <si>
+    <t>工程监理的实施必须依据《建设工程监理规范》GB50319-2013的规定执行。</t>
+  </si>
+  <si>
+    <t>混凝土施工时使用的水需符合《混凝土用水标准》(JGJ63-2006)的要求。</t>
+  </si>
+  <si>
+    <t>建筑施工高处作业的安全技术应依照《建筑施工高处作业安全技术规范》(JGJ80-2016)进行。</t>
+  </si>
+  <si>
+    <t>建筑施工安全检查工作应遵循《建筑施工安全检查标准》(JGJ59-2011)。</t>
+  </si>
+  <si>
+    <t>工程网络计划的制定应参考《工程网络计划技术规程》(JGJ/T121-2015)进行。</t>
+  </si>
+  <si>
+    <t>普通混凝土的配合比设计需符合《普通混凝土配合比设计规程》(JGJ55-2011)的要求。</t>
+  </si>
+  <si>
+    <t>钢筋焊接接头的试验方法应依据《钢筋焊接接头试验方法标准》(JGJ/T27-2014)。</t>
+  </si>
+  <si>
+    <t>扣件式钢管脚手架的安全技术需按照《建筑施工扣件式钢管脚手架安全技术规范》(JGJ130-2011)。</t>
+  </si>
+  <si>
+    <t>建筑机械的使用安全应遵循《建筑机械使用安全技术规程》(JGJ33-2012)。</t>
+  </si>
+  <si>
+    <t>钢筋焊接的施工及验收需严格执行《钢筋焊接及验收规程》(JGJ18-2012)。</t>
+  </si>
+  <si>
+    <t>大模板施工技术应符合《建筑工程大模板技术规程》(JGJ74-2017)。</t>
+  </si>
+  <si>
+    <t>钢筋机械连接的施工技术应依照《钢筋机械连接技术规程》(JGJ107-2016)进行。</t>
+  </si>
+  <si>
+    <t>城市测量的卫星定位技术需符合《卫星定位城市测量技术规范》(CJJ/T73-2019)。</t>
+  </si>
+  <si>
+    <t>施工现场的临时用电安全技术应按照《施工现场临时用电安全技术规范》(JGJ46-2005)进行。</t>
+  </si>
+  <si>
+    <t>建筑结构的可靠性设计应按照《建筑结构可靠性设计统―标准》GB50068-2018进行。</t>
+  </si>
+  <si>
+    <t>进行地震动参数区划时，应依据《中国地震动参数区划图》GB18306-2015来确定参数。</t>
+  </si>
+  <si>
+    <t>混凝土结构设计需严格遵循《混凝土结构设计规范》GB50010-2010的要求。</t>
+  </si>
+  <si>
+    <t>地基基础的设计需依据《建筑地基基础设计规范》GB50007-2011进行。</t>
+  </si>
+  <si>
+    <t>湿陷性黄土地区建筑设计应符合《湿陷性黄土地区建筑标准》GB50025-2018。</t>
+  </si>
+  <si>
+    <t>混凝土结构工程的施工应遵循《混凝土结构工程施工规范》CB50666-2011。</t>
+  </si>
+  <si>
+    <t>桩基础的施工技术需依照《建筑桩基技术规范》JGJ94-2008进行。</t>
+  </si>
+  <si>
+    <t>人民防空地下室的设计要求应依据《人民防空地下室设计规范》GB50038-2005。</t>
+  </si>
+  <si>
+    <t>钢筋的机械连接施工应遵守《钢筋机械连接技术规程》JGJ107-2016。</t>
+  </si>
+  <si>
+    <t>工业建筑防腐蚀的设计需符合《工业建筑防腐蚀设计标准》GB/T50046-2018。</t>
+  </si>
+  <si>
+    <t>建筑防火设计必须严格遵循《建筑设计防火规范》GB50016-2014。</t>
+  </si>
+  <si>
+    <t>建筑与市政工程的抗震设计应参考《建筑与市政工程抗震通用规范》GB55002-2021。</t>
+  </si>
+  <si>
+    <t>砌体结构设计与施工需依据《砌体结构通用规范》GB55007-2021进行。</t>
+  </si>
+  <si>
+    <t>工程结构的可靠性设计应按照《工程结构可靠性设计统一标准》GB50153-2008执行。</t>
+  </si>
+  <si>
+    <t>地下工程的防水设计与施工需依照《地下工程防水技术规范》GB50108-2008。</t>
+  </si>
+  <si>
+    <t>钢筋机械连接技术应严格遵守《钢筋机械连接通用技术规程》JGJ107-2016。</t>
+  </si>
+  <si>
+    <t>建筑地基处理施工应符合《建筑地基处理技术规范》JGJ79-2012的相关要求。</t>
+  </si>
+  <si>
+    <t>桩基础工程施工需依据《建筑桩基技术规范》JGJ94-2008进行。</t>
+  </si>
+  <si>
+    <t>建筑机械的使用安全需严格遵守《建筑机械使用安全技术规程》JGJ33-2012。</t>
+  </si>
+  <si>
+    <t>施工现场的临时用电应依据《施工现场临时用电安全技术规范》JGJ46-2005进行管理。</t>
+  </si>
+  <si>
+    <t>建筑施工的安全检查工作应依据《建筑施工安全检查标准》JGJ59-2011执行。</t>
+  </si>
+  <si>
+    <t>钢筋焊接施工及验收需严格按照《钢筋焊接及验收规程》JGJ18-2012的要求进行。</t>
+  </si>
+  <si>
+    <t>冬期施工工程需遵循《建筑工程冬期施工规程》JGJ104-2011进行。</t>
+  </si>
+  <si>
+    <t>高层建筑混凝土结构的技术要求需严格遵守《高层建筑混凝土结构技术规程》JGJ3-2010。</t>
+  </si>
+  <si>
+    <t>高处作业施工的安全技术应符合《建筑施工高处作业安全技术规范》JGJ80-2016的标准。</t>
+  </si>
+  <si>
+    <t>工具式钢管脚手架的安全技术需按照《建筑施工工具式钢管脚手架安全技术规范》JGJ130-2011执行。</t>
+  </si>
+  <si>
+    <t>建筑物的变形测量应依据《建筑变形测量规范》JGJ8-2016的要求进行。</t>
+  </si>
+  <si>
+    <t>铝合金门窗的施工技术应符合《铝合金门窗工程技术规范》JGJ214-2010。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2299,6 +3595,14 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -2328,7 +3632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2336,6 +3640,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2652,10 +3959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
-  <dimension ref="A1:B751"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B1195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
-      <selection activeCell="A755" sqref="A755"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2672,7 +3980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2680,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2688,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2704,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2712,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2736,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2752,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2760,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2784,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2800,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2808,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2816,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2832,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2840,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2848,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2856,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2864,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2872,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2880,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2888,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2896,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2904,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2912,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2920,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2928,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2936,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -2944,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2968,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2976,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2984,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2992,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3000,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -3008,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -3016,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3048,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -3056,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -3064,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -3072,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -3080,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3088,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -3104,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -3112,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3120,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -3128,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -3136,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -3144,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -3152,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -3160,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -3168,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -3176,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -3184,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -3192,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -3200,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -3208,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -3216,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -3224,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -3232,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -3240,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -3248,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -3256,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -3264,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -3272,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3280,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -3288,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -3296,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -3320,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -3328,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -3336,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -3344,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -3352,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>64</v>
       </c>
@@ -3360,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>65</v>
       </c>
@@ -3368,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -3376,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -3384,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -3392,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -3400,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -3408,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -3416,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -3424,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -3432,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -3440,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -3448,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -3456,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -3464,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -3472,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -3480,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -3488,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -3496,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3504,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -3512,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>248</v>
       </c>
@@ -3520,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>249</v>
       </c>
@@ -3528,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>250</v>
       </c>
@@ -3536,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -3544,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -3552,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>253</v>
       </c>
@@ -3560,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -3568,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>255</v>
       </c>
@@ -3576,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>256</v>
       </c>
@@ -3584,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>257</v>
       </c>
@@ -3592,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>258</v>
       </c>
@@ -3600,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>259</v>
       </c>
@@ -3608,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>260</v>
       </c>
@@ -3616,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>261</v>
       </c>
@@ -3624,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>262</v>
       </c>
@@ -3632,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>263</v>
       </c>
@@ -3640,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>264</v>
       </c>
@@ -3648,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>265</v>
       </c>
@@ -3656,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -3664,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>267</v>
       </c>
@@ -3672,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>268</v>
       </c>
@@ -3680,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>269</v>
       </c>
@@ -3688,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -3696,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -3704,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>272</v>
       </c>
@@ -3712,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -3720,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>274</v>
       </c>
@@ -3728,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -3736,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -3744,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>277</v>
       </c>
@@ -3752,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>278</v>
       </c>
@@ -3760,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>279</v>
       </c>
@@ -3768,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>280</v>
       </c>
@@ -3776,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -3784,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -3792,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -3800,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -3808,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -3816,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -3824,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>287</v>
       </c>
@@ -3832,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>288</v>
       </c>
@@ -3840,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>289</v>
       </c>
@@ -3848,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>290</v>
       </c>
@@ -3856,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -3864,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>292</v>
       </c>
@@ -3872,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>293</v>
       </c>
@@ -3880,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -3888,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3896,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>296</v>
       </c>
@@ -3904,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>297</v>
       </c>
@@ -3912,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>298</v>
       </c>
@@ -3920,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>299</v>
       </c>
@@ -3928,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>300</v>
       </c>
@@ -3936,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>301</v>
       </c>
@@ -3944,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>302</v>
       </c>
@@ -3952,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>303</v>
       </c>
@@ -3960,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>304</v>
       </c>
@@ -3968,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>305</v>
       </c>
@@ -3976,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>306</v>
       </c>
@@ -3984,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>307</v>
       </c>
@@ -3992,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>308</v>
       </c>
@@ -4000,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>309</v>
       </c>
@@ -4008,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>310</v>
       </c>
@@ -4016,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>311</v>
       </c>
@@ -4024,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>312</v>
       </c>
@@ -4032,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>309</v>
       </c>
@@ -4040,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>313</v>
       </c>
@@ -4048,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>314</v>
       </c>
@@ -4056,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>315</v>
       </c>
@@ -4064,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>316</v>
       </c>
@@ -4072,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>69</v>
       </c>
@@ -5400,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>336</v>
       </c>
@@ -5408,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>337</v>
       </c>
@@ -5416,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>338</v>
       </c>
@@ -5424,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>339</v>
       </c>
@@ -5432,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>340</v>
       </c>
@@ -5440,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>341</v>
       </c>
@@ -5448,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>342</v>
       </c>
@@ -5456,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>343</v>
       </c>
@@ -5464,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>344</v>
       </c>
@@ -5472,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>345</v>
       </c>
@@ -5480,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>346</v>
       </c>
@@ -5488,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>347</v>
       </c>
@@ -5496,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>348</v>
       </c>
@@ -5504,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>349</v>
       </c>
@@ -5512,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>350</v>
       </c>
@@ -5520,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>351</v>
       </c>
@@ -5528,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>352</v>
       </c>
@@ -5536,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>353</v>
       </c>
@@ -5544,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>354</v>
       </c>
@@ -5552,7 +6860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>355</v>
       </c>
@@ -5560,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>356</v>
       </c>
@@ -5736,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>378</v>
       </c>
@@ -5744,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>379</v>
       </c>
@@ -5752,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>380</v>
       </c>
@@ -5760,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>381</v>
       </c>
@@ -5768,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>382</v>
       </c>
@@ -5776,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>383</v>
       </c>
@@ -5784,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>384</v>
       </c>
@@ -5792,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>385</v>
       </c>
@@ -5800,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>386</v>
       </c>
@@ -5808,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>387</v>
       </c>
@@ -5816,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>388</v>
       </c>
@@ -5936,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>404</v>
       </c>
@@ -5944,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>405</v>
       </c>
@@ -5952,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>406</v>
       </c>
@@ -5960,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>407</v>
       </c>
@@ -5968,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>408</v>
       </c>
@@ -5976,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>409</v>
       </c>
@@ -5984,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>410</v>
       </c>
@@ -5992,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>411</v>
       </c>
@@ -6000,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>412</v>
       </c>
@@ -6008,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>413</v>
       </c>
@@ -6016,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>414</v>
       </c>
@@ -6024,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>415</v>
       </c>
@@ -6032,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>416</v>
       </c>
@@ -6040,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>417</v>
       </c>
@@ -6048,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>418</v>
       </c>
@@ -6056,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>419</v>
       </c>
@@ -6064,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>420</v>
       </c>
@@ -6072,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>421</v>
       </c>
@@ -6080,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>422</v>
       </c>
@@ -6088,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>423</v>
       </c>
@@ -6096,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>424</v>
       </c>
@@ -6104,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>425</v>
       </c>
@@ -6112,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>426</v>
       </c>
@@ -6120,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>427</v>
       </c>
@@ -6128,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>428</v>
       </c>
@@ -6136,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>429</v>
       </c>
@@ -6144,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>430</v>
       </c>
@@ -6152,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>431</v>
       </c>
@@ -6160,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>432</v>
       </c>
@@ -6168,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>433</v>
       </c>
@@ -6176,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>434</v>
       </c>
@@ -6184,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>435</v>
       </c>
@@ -6192,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>436</v>
       </c>
@@ -6200,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>437</v>
       </c>
@@ -6208,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>438</v>
       </c>
@@ -6216,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>439</v>
       </c>
@@ -6224,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>440</v>
       </c>
@@ -6232,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>441</v>
       </c>
@@ -6240,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>442</v>
       </c>
@@ -6248,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>443</v>
       </c>
@@ -6256,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>444</v>
       </c>
@@ -6264,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>445</v>
       </c>
@@ -6272,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>446</v>
       </c>
@@ -6280,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>447</v>
       </c>
@@ -6288,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>448</v>
       </c>
@@ -6296,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>449</v>
       </c>
@@ -6304,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>450</v>
       </c>
@@ -6312,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>451</v>
       </c>
@@ -6320,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>452</v>
       </c>
@@ -6328,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>453</v>
       </c>
@@ -6336,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>454</v>
       </c>
@@ -6344,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>455</v>
       </c>
@@ -6352,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>456</v>
       </c>
@@ -6360,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>457</v>
       </c>
@@ -6368,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>458</v>
       </c>
@@ -6376,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>459</v>
       </c>
@@ -6384,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>460</v>
       </c>
@@ -6392,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>461</v>
       </c>
@@ -6400,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>462</v>
       </c>
@@ -6408,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>403</v>
       </c>
@@ -6416,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>463</v>
       </c>
@@ -6424,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>464</v>
       </c>
@@ -6432,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>465</v>
       </c>
@@ -6440,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>466</v>
       </c>
@@ -6448,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>467</v>
       </c>
@@ -6456,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>468</v>
       </c>
@@ -6464,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>469</v>
       </c>
@@ -7056,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>543</v>
       </c>
@@ -7064,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>408</v>
       </c>
@@ -7072,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>407</v>
       </c>
@@ -7080,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>544</v>
       </c>
@@ -7088,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>545</v>
       </c>
@@ -7096,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>546</v>
       </c>
@@ -7104,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>547</v>
       </c>
@@ -7112,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>548</v>
       </c>
@@ -7120,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>549</v>
       </c>
@@ -7128,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>409</v>
       </c>
@@ -7136,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>410</v>
       </c>
@@ -7144,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>550</v>
       </c>
@@ -7152,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>551</v>
       </c>
@@ -7160,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>552</v>
       </c>
@@ -7168,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>412</v>
       </c>
@@ -7176,7 +8484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>553</v>
       </c>
@@ -7184,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>411</v>
       </c>
@@ -7192,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>406</v>
       </c>
@@ -7200,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>417</v>
       </c>
@@ -7208,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>413</v>
       </c>
@@ -7216,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>554</v>
       </c>
@@ -7224,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>418</v>
       </c>
@@ -7232,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>555</v>
       </c>
@@ -7240,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>556</v>
       </c>
@@ -7248,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>557</v>
       </c>
@@ -7256,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>558</v>
       </c>
@@ -7264,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>415</v>
       </c>
@@ -7272,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>559</v>
       </c>
@@ -7280,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>560</v>
       </c>
@@ -7288,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>561</v>
       </c>
@@ -7296,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>562</v>
       </c>
@@ -7304,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>563</v>
       </c>
@@ -7312,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>564</v>
       </c>
@@ -7320,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>565</v>
       </c>
@@ -7328,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>566</v>
       </c>
@@ -7336,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>567</v>
       </c>
@@ -7344,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>568</v>
       </c>
@@ -7352,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>569</v>
       </c>
@@ -7360,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>551</v>
       </c>
@@ -7368,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>570</v>
       </c>
@@ -7376,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>571</v>
       </c>
@@ -7384,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>572</v>
       </c>
@@ -7392,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>573</v>
       </c>
@@ -7400,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>574</v>
       </c>
@@ -7408,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>575</v>
       </c>
@@ -7416,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>576</v>
       </c>
@@ -7424,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>577</v>
       </c>
@@ -7432,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>574</v>
       </c>
@@ -7440,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>575</v>
       </c>
@@ -7448,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>578</v>
       </c>
@@ -7456,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>579</v>
       </c>
@@ -7464,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>580</v>
       </c>
@@ -7472,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>581</v>
       </c>
@@ -7480,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>582</v>
       </c>
@@ -7488,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>583</v>
       </c>
@@ -7496,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>584</v>
       </c>
@@ -7504,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>585</v>
       </c>
@@ -7512,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>586</v>
       </c>
@@ -7520,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>587</v>
       </c>
@@ -7528,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>588</v>
       </c>
@@ -7536,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>589</v>
       </c>
@@ -7544,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>410</v>
       </c>
@@ -7552,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>590</v>
       </c>
@@ -7560,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>591</v>
       </c>
@@ -7568,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>582</v>
       </c>
@@ -7576,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>592</v>
       </c>
@@ -7584,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>593</v>
       </c>
@@ -7592,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>594</v>
       </c>
@@ -7600,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>595</v>
       </c>
@@ -7608,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>596</v>
       </c>
@@ -7616,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>597</v>
       </c>
@@ -7624,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>598</v>
       </c>
@@ -7632,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>599</v>
       </c>
@@ -7640,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>600</v>
       </c>
@@ -7648,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>601</v>
       </c>
@@ -8672,7 +9980,3566 @@
         <v>0</v>
       </c>
     </row>
+    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>728</v>
+      </c>
+      <c r="B752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>729</v>
+      </c>
+      <c r="B753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>730</v>
+      </c>
+      <c r="B754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>731</v>
+      </c>
+      <c r="B755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>732</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>733</v>
+      </c>
+      <c r="B757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>734</v>
+      </c>
+      <c r="B758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>735</v>
+      </c>
+      <c r="B759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>736</v>
+      </c>
+      <c r="B760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>737</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>738</v>
+      </c>
+      <c r="B762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>739</v>
+      </c>
+      <c r="B763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>740</v>
+      </c>
+      <c r="B764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>741</v>
+      </c>
+      <c r="B765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>742</v>
+      </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>743</v>
+      </c>
+      <c r="B767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>744</v>
+      </c>
+      <c r="B768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>745</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>746</v>
+      </c>
+      <c r="B770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>747</v>
+      </c>
+      <c r="B771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>748</v>
+      </c>
+      <c r="B772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>749</v>
+      </c>
+      <c r="B773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>750</v>
+      </c>
+      <c r="B774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>751</v>
+      </c>
+      <c r="B775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>752</v>
+      </c>
+      <c r="B776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>753</v>
+      </c>
+      <c r="B777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>754</v>
+      </c>
+      <c r="B778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>755</v>
+      </c>
+      <c r="B779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>756</v>
+      </c>
+      <c r="B780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>757</v>
+      </c>
+      <c r="B781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>758</v>
+      </c>
+      <c r="B782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>759</v>
+      </c>
+      <c r="B783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>760</v>
+      </c>
+      <c r="B784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>761</v>
+      </c>
+      <c r="B785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>762</v>
+      </c>
+      <c r="B786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>763</v>
+      </c>
+      <c r="B787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>764</v>
+      </c>
+      <c r="B788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>765</v>
+      </c>
+      <c r="B789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>766</v>
+      </c>
+      <c r="B790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>767</v>
+      </c>
+      <c r="B791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>768</v>
+      </c>
+      <c r="B792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>769</v>
+      </c>
+      <c r="B793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>770</v>
+      </c>
+      <c r="B794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>771</v>
+      </c>
+      <c r="B795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>772</v>
+      </c>
+      <c r="B796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>773</v>
+      </c>
+      <c r="B797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>774</v>
+      </c>
+      <c r="B798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>775</v>
+      </c>
+      <c r="B799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>776</v>
+      </c>
+      <c r="B800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>777</v>
+      </c>
+      <c r="B801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>778</v>
+      </c>
+      <c r="B802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>779</v>
+      </c>
+      <c r="B803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>780</v>
+      </c>
+      <c r="B804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>781</v>
+      </c>
+      <c r="B805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>782</v>
+      </c>
+      <c r="B806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>783</v>
+      </c>
+      <c r="B807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>784</v>
+      </c>
+      <c r="B808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>785</v>
+      </c>
+      <c r="B809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>786</v>
+      </c>
+      <c r="B810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>787</v>
+      </c>
+      <c r="B811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>788</v>
+      </c>
+      <c r="B812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>789</v>
+      </c>
+      <c r="B813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>790</v>
+      </c>
+      <c r="B814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>791</v>
+      </c>
+      <c r="B815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>792</v>
+      </c>
+      <c r="B816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>793</v>
+      </c>
+      <c r="B817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>794</v>
+      </c>
+      <c r="B818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>795</v>
+      </c>
+      <c r="B819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>796</v>
+      </c>
+      <c r="B820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>797</v>
+      </c>
+      <c r="B821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>798</v>
+      </c>
+      <c r="B822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>799</v>
+      </c>
+      <c r="B823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>800</v>
+      </c>
+      <c r="B824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>801</v>
+      </c>
+      <c r="B825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>802</v>
+      </c>
+      <c r="B826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>803</v>
+      </c>
+      <c r="B827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>804</v>
+      </c>
+      <c r="B828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>805</v>
+      </c>
+      <c r="B829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>806</v>
+      </c>
+      <c r="B830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>807</v>
+      </c>
+      <c r="B831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>808</v>
+      </c>
+      <c r="B832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>809</v>
+      </c>
+      <c r="B833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>810</v>
+      </c>
+      <c r="B834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>811</v>
+      </c>
+      <c r="B835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>812</v>
+      </c>
+      <c r="B836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>813</v>
+      </c>
+      <c r="B837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>814</v>
+      </c>
+      <c r="B838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>815</v>
+      </c>
+      <c r="B839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>816</v>
+      </c>
+      <c r="B840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>817</v>
+      </c>
+      <c r="B841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>818</v>
+      </c>
+      <c r="B842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>819</v>
+      </c>
+      <c r="B843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>820</v>
+      </c>
+      <c r="B844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>821</v>
+      </c>
+      <c r="B845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>822</v>
+      </c>
+      <c r="B846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>823</v>
+      </c>
+      <c r="B847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>824</v>
+      </c>
+      <c r="B848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>825</v>
+      </c>
+      <c r="B849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>826</v>
+      </c>
+      <c r="B850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>827</v>
+      </c>
+      <c r="B851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>828</v>
+      </c>
+      <c r="B852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>829</v>
+      </c>
+      <c r="B853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>830</v>
+      </c>
+      <c r="B854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>831</v>
+      </c>
+      <c r="B855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>832</v>
+      </c>
+      <c r="B856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>833</v>
+      </c>
+      <c r="B857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>834</v>
+      </c>
+      <c r="B858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>835</v>
+      </c>
+      <c r="B859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>836</v>
+      </c>
+      <c r="B860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>837</v>
+      </c>
+      <c r="B861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>838</v>
+      </c>
+      <c r="B862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>839</v>
+      </c>
+      <c r="B863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>840</v>
+      </c>
+      <c r="B864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>841</v>
+      </c>
+      <c r="B865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>842</v>
+      </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>843</v>
+      </c>
+      <c r="B867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>844</v>
+      </c>
+      <c r="B868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>845</v>
+      </c>
+      <c r="B869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>846</v>
+      </c>
+      <c r="B870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>847</v>
+      </c>
+      <c r="B871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>848</v>
+      </c>
+      <c r="B872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>849</v>
+      </c>
+      <c r="B873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>850</v>
+      </c>
+      <c r="B874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>851</v>
+      </c>
+      <c r="B875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>852</v>
+      </c>
+      <c r="B876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>853</v>
+      </c>
+      <c r="B877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>854</v>
+      </c>
+      <c r="B878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>855</v>
+      </c>
+      <c r="B879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>856</v>
+      </c>
+      <c r="B880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>857</v>
+      </c>
+      <c r="B881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>858</v>
+      </c>
+      <c r="B882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>859</v>
+      </c>
+      <c r="B883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>860</v>
+      </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>861</v>
+      </c>
+      <c r="B885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>862</v>
+      </c>
+      <c r="B886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>863</v>
+      </c>
+      <c r="B887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>864</v>
+      </c>
+      <c r="B888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>865</v>
+      </c>
+      <c r="B889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>866</v>
+      </c>
+      <c r="B890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>867</v>
+      </c>
+      <c r="B891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>868</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>869</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>870</v>
+      </c>
+      <c r="B894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>871</v>
+      </c>
+      <c r="B895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>872</v>
+      </c>
+      <c r="B896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>873</v>
+      </c>
+      <c r="B897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>874</v>
+      </c>
+      <c r="B898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>875</v>
+      </c>
+      <c r="B899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>876</v>
+      </c>
+      <c r="B900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>877</v>
+      </c>
+      <c r="B901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>878</v>
+      </c>
+      <c r="B902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>879</v>
+      </c>
+      <c r="B903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>880</v>
+      </c>
+      <c r="B904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>881</v>
+      </c>
+      <c r="B905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>882</v>
+      </c>
+      <c r="B906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>883</v>
+      </c>
+      <c r="B907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>884</v>
+      </c>
+      <c r="B908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>885</v>
+      </c>
+      <c r="B909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>886</v>
+      </c>
+      <c r="B910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>887</v>
+      </c>
+      <c r="B911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>888</v>
+      </c>
+      <c r="B912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>889</v>
+      </c>
+      <c r="B913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>890</v>
+      </c>
+      <c r="B914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>891</v>
+      </c>
+      <c r="B915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>892</v>
+      </c>
+      <c r="B916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>893</v>
+      </c>
+      <c r="B917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>894</v>
+      </c>
+      <c r="B918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>895</v>
+      </c>
+      <c r="B919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>896</v>
+      </c>
+      <c r="B920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>897</v>
+      </c>
+      <c r="B921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>898</v>
+      </c>
+      <c r="B922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>899</v>
+      </c>
+      <c r="B923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>900</v>
+      </c>
+      <c r="B924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>901</v>
+      </c>
+      <c r="B925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>902</v>
+      </c>
+      <c r="B926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>903</v>
+      </c>
+      <c r="B927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>904</v>
+      </c>
+      <c r="B928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>905</v>
+      </c>
+      <c r="B929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>906</v>
+      </c>
+      <c r="B930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>907</v>
+      </c>
+      <c r="B931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>908</v>
+      </c>
+      <c r="B932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>909</v>
+      </c>
+      <c r="B933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>910</v>
+      </c>
+      <c r="B934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>911</v>
+      </c>
+      <c r="B935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>912</v>
+      </c>
+      <c r="B936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>913</v>
+      </c>
+      <c r="B937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>914</v>
+      </c>
+      <c r="B938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>915</v>
+      </c>
+      <c r="B939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>916</v>
+      </c>
+      <c r="B940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>917</v>
+      </c>
+      <c r="B941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>918</v>
+      </c>
+      <c r="B942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>919</v>
+      </c>
+      <c r="B943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>920</v>
+      </c>
+      <c r="B944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>921</v>
+      </c>
+      <c r="B945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>922</v>
+      </c>
+      <c r="B946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>923</v>
+      </c>
+      <c r="B947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>924</v>
+      </c>
+      <c r="B948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>925</v>
+      </c>
+      <c r="B949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>926</v>
+      </c>
+      <c r="B950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>927</v>
+      </c>
+      <c r="B951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>928</v>
+      </c>
+      <c r="B952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>929</v>
+      </c>
+      <c r="B953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>930</v>
+      </c>
+      <c r="B954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>931</v>
+      </c>
+      <c r="B955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>932</v>
+      </c>
+      <c r="B956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>933</v>
+      </c>
+      <c r="B957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>934</v>
+      </c>
+      <c r="B958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>935</v>
+      </c>
+      <c r="B959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>936</v>
+      </c>
+      <c r="B960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>937</v>
+      </c>
+      <c r="B961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>938</v>
+      </c>
+      <c r="B962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>939</v>
+      </c>
+      <c r="B963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>940</v>
+      </c>
+      <c r="B964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>941</v>
+      </c>
+      <c r="B965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>942</v>
+      </c>
+      <c r="B966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>943</v>
+      </c>
+      <c r="B967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>944</v>
+      </c>
+      <c r="B968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>945</v>
+      </c>
+      <c r="B969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>946</v>
+      </c>
+      <c r="B970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>947</v>
+      </c>
+      <c r="B971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>948</v>
+      </c>
+      <c r="B972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>949</v>
+      </c>
+      <c r="B973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>950</v>
+      </c>
+      <c r="B974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>951</v>
+      </c>
+      <c r="B975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>952</v>
+      </c>
+      <c r="B976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>953</v>
+      </c>
+      <c r="B977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>954</v>
+      </c>
+      <c r="B978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>955</v>
+      </c>
+      <c r="B979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>956</v>
+      </c>
+      <c r="B980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>957</v>
+      </c>
+      <c r="B981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>958</v>
+      </c>
+      <c r="B982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>728</v>
+      </c>
+      <c r="B983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>729</v>
+      </c>
+      <c r="B984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>730</v>
+      </c>
+      <c r="B985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>959</v>
+      </c>
+      <c r="B986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>732</v>
+      </c>
+      <c r="B987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>733</v>
+      </c>
+      <c r="B988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>960</v>
+      </c>
+      <c r="B989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>735</v>
+      </c>
+      <c r="B990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>961</v>
+      </c>
+      <c r="B991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>962</v>
+      </c>
+      <c r="B992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>963</v>
+      </c>
+      <c r="B993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>964</v>
+      </c>
+      <c r="B994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>965</v>
+      </c>
+      <c r="B995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>737</v>
+      </c>
+      <c r="B996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>966</v>
+      </c>
+      <c r="B997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>967</v>
+      </c>
+      <c r="B998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>968</v>
+      </c>
+      <c r="B999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1034" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1035" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1036" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1037" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1038" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1043" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1044" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1045" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1046" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1047" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1048" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1049" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1051" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1052" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1053" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1053">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1054" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1055" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1056" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1057" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1058" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1059" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1060" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1061" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1062" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1063" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1064" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1065" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1066" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1067" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1069" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1070" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1071" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1072" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1195">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B1195" xr:uid="{9CDE5043-C137-4C10-B4EC-BE138981EE17}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4C934-A4C4-4928-97FD-C35C8E9F49DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678EA45E-B822-4E62-AE8B-4F7DF8BC246E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1237">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -3571,6 +3571,242 @@
   </si>
   <si>
     <t>铝合金门窗的施工技术应符合《铝合金门窗工程技术规范》JGJ214-2010。</t>
+  </si>
+  <si>
+    <t>GB 50054：建筑电气设计规范</t>
+  </si>
+  <si>
+    <t>GB 50058：爆炸和火灾危险环境电力装置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50169：电气装置安装工程接地设计规范</t>
+  </si>
+  <si>
+    <t>GB 50217：电力电缆线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50259：自动化仪表安装工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50260：电力工程高压送电线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50261：电力工程低压送电线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50293：城市电力规划规范</t>
+  </si>
+  <si>
+    <t>10.  GB/T 14048：低压开关设备和控制设备</t>
+  </si>
+  <si>
+    <t>11.  GB/T 16935：交流金属封闭开关设备和控制设备</t>
+  </si>
+  <si>
+    <t>12.  GB/T 17478：电力系统自动低频减负荷装置</t>
+  </si>
+  <si>
+    <t>13.  GB/T 17622：带电作业用工具绝缘试验方法</t>
+  </si>
+  <si>
+    <t>14.  GB/T 17727：电力系统安全稳定控制技术导则</t>
+  </si>
+  <si>
+    <t>15.  JB/T 5895：电气设备用绝缘涂料</t>
+  </si>
+  <si>
+    <t>16.  JB/T 6218：电力系统用蓄电池直流电源</t>
+  </si>
+  <si>
+    <t>17.  JB/T 7112：电气设备用橡胶密封件</t>
+  </si>
+  <si>
+    <t>18.  JB/T 8754：电气设备用油纸绝缘材料</t>
+  </si>
+  <si>
+    <t>19.  JB/T 9663：电力系统用串联补偿装置</t>
+  </si>
+  <si>
+    <t>GB 50052：供配电系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50053：低压配电设计规范</t>
+  </si>
+  <si>
+    <t>GB 50059：电气照明设计规范</t>
+  </si>
+  <si>
+    <t>GB 50060：交流电气装置的接地设计规范</t>
+  </si>
+  <si>
+    <t>GB 50061：电力线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50062：电力装置的继电保护和自动装置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50194：建筑物电子信息系统防雷技术规范</t>
+  </si>
+  <si>
+    <t>CSA A23.1-19 混凝土材料和施工</t>
+  </si>
+  <si>
+    <t>CSA A23.2-19 混凝土试验方法与实践</t>
+  </si>
+  <si>
+    <t>CSA A23.3-19 混凝土结构设计</t>
+  </si>
+  <si>
+    <t>CSA B52-18 机械制冷和空调设备的机械安全标准</t>
+  </si>
+  <si>
+    <t>CSA Z462-21 工作场所电气安全</t>
+  </si>
+  <si>
+    <t>CSA B149.1-20 天然气和丙烷安装代码</t>
+  </si>
+  <si>
+    <t>CSA B149.2-20 丙烷存储和处理规范</t>
+  </si>
+  <si>
+    <t>CSA Z317.2-19 医疗设施的暖通空调系统</t>
+  </si>
+  <si>
+    <t>CSA W47.1-09 钢结构焊接标准</t>
+  </si>
+  <si>
+    <t>CSA W59-18 焊接钢结构标准</t>
+  </si>
+  <si>
+    <t>CSA S16-19 钢结构设计标准</t>
+  </si>
+  <si>
+    <t>CSA S136-16 冷弯薄壁钢结构设计</t>
+  </si>
+  <si>
+    <t>CSA Z240.10.1-08 制造房屋的结构设计标准</t>
+  </si>
+  <si>
+    <t>CSA Z662-19 石油和天然气管道系统</t>
+  </si>
+  <si>
+    <t>CSA B45.5-11 卫浴设备的陶瓷材料标准</t>
+  </si>
+  <si>
+    <t>CSA B651-18 无障碍设计标准</t>
+  </si>
+  <si>
+    <t>CSA Z797-18 建筑工地脚手架的使用、维护和安装标准</t>
+  </si>
+  <si>
+    <t>CSA Z1006-16 职业健康和安全管理体系</t>
+  </si>
+  <si>
+    <t>CSA Z317.13-17 感染控制措施的规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA C22.1-21 加拿大电气规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEC 60364-1:2018 - 低压电气装置 - 第1部分：基本原则</t>
+  </si>
+  <si>
+    <t>GB 50052-2017 - 供配电系统设计规范</t>
+  </si>
+  <si>
+    <t>IEEE 142-2018 - 工业和商业电力系统接地</t>
+  </si>
+  <si>
+    <t>CSA C22.1-21 - 加拿大电气规范</t>
+  </si>
+  <si>
+    <t>BS 7671:2018+A3:2021 - 英国电气安装规范（IET布线法规）</t>
+  </si>
+  <si>
+    <t>UL 1449-2020 - 瞬态电压浪涌抑制器</t>
+  </si>
+  <si>
+    <t>IEC 60034-1:2021 - 旋转电机 - 第1部分：额定值和性能</t>
+  </si>
+  <si>
+    <t>IEEE 519-2020 - 电力系统谐波控制推荐做法和标准</t>
+  </si>
+  <si>
+    <t>NEMA MG 1-2020 - 电机和发电机</t>
+  </si>
+  <si>
+    <t>IEC 61000-4-5:2018 - 电磁兼容性（EMC） - 第4-5部分：试验和测量技术 - 电涌抗扰度试验</t>
+  </si>
+  <si>
+    <t>JIS C 8303:2020 - 建筑物电气设备和布线系统</t>
+  </si>
+  <si>
+    <t>IEEE 802.3af-2003 - 以太网供电（PoE）标准</t>
+  </si>
+  <si>
+    <t>IEC 61850-9-2:2019 - 变电站自动化 - 第9-2部分：特定通信服务映射（SCSM）</t>
+  </si>
+  <si>
+    <t>ANSI/IEEE C37.118.1-2011 - 同步相量测量标准 - 第1部分：性能要求</t>
+  </si>
+  <si>
+    <t>IEEE 1547-2020 - 分布式资源与电力系统互连标准</t>
+  </si>
+  <si>
+    <t>IEC 60439-1:2018 - 低压开关设备和控制设备 - 第1部分：总则</t>
+  </si>
+  <si>
+    <t>ASME B31.3-2018 - 工艺管道</t>
+  </si>
+  <si>
+    <t>CSA B401-2021 - 建筑物内部电气系统设计与安装标准</t>
+  </si>
+  <si>
+    <t>GB 50015-2019 - 建筑给水排水设计规范</t>
+  </si>
+  <si>
+    <t>ASME B31.1-2018 - 动力管道</t>
+  </si>
+  <si>
+    <t>EN 12056-1:2001 - 排水管道系统</t>
+  </si>
+  <si>
+    <t>ISO 14097:2008 - 建筑物内给水装置</t>
+  </si>
+  <si>
+    <t>AWWA C200-17 - 钢制水管</t>
+  </si>
+  <si>
+    <t>CSA B66-19 - 给水管道系统</t>
+  </si>
+  <si>
+    <t>DIN EN 12846:2014 - 建筑物内卫生器具和配件的排放试验</t>
+  </si>
+  <si>
+    <t>ASTM F679-19 - 聚氯乙烯（PVC）压力管道及配件的规格</t>
+  </si>
+  <si>
+    <t>AS 3500.1-2018 - 给水排水管道系统</t>
+  </si>
+  <si>
+    <t>SS 620:2016 - 新加坡供水管道规范</t>
+  </si>
+  <si>
+    <t>CSA B181.1-16 - 污水管道系统</t>
+  </si>
+  <si>
+    <t>ISO 2281:2011 - 塑料管道系统 - 用于非压力地下排水和排污应用的热塑性塑料管</t>
+  </si>
+  <si>
+    <t>BS EN 1451-1:2010 - 建筑物内部排水系统 - 第1部分：卫生洁具及其排水管道</t>
+  </si>
+  <si>
+    <t>NF P 13-100:2016 - 法国给水管道系统安全规范</t>
+  </si>
+  <si>
+    <t>CSA B401-17 - 建筑物内部给排水系统设计与安装标准</t>
   </si>
 </sst>
 </file>
@@ -3960,10 +4196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B1195"/>
+  <dimension ref="A1:B1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
+      <selection activeCell="A1268" sqref="A1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13530,6 +13766,630 @@
       </c>
       <c r="B1195">
         <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1221" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1223" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1224" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1225" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1226" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1227" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1228" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1229" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1230" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1231" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1232" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1233" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1234" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1235" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1236" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1237" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1238" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1239" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1240" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1273">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678EA45E-B822-4E62-AE8B-4F7DF8BC246E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77609A38-8393-4BEE-8780-AA72BF35B14E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1240">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -3807,6 +3807,15 @@
   </si>
   <si>
     <t>CSA B401-17 - 建筑物内部给排水系统设计与安装标准</t>
+  </si>
+  <si>
+    <t>EN 12056-1:2001 - 排水管道系统 - 第1部分：建筑物内排水管道和配件</t>
+  </si>
+  <si>
+    <t>ISO 14097:2008 - 建筑物内给水装置 - 卫生器具的试验方法和要求</t>
+  </si>
+  <si>
+    <t>AS 3500.1-2018 - 给水排水管道系统 - 第1部分：一般要求</t>
   </si>
 </sst>
 </file>
@@ -4196,10 +4205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B1273"/>
+  <dimension ref="A1:B1303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
-      <selection activeCell="A1268" sqref="A1268"/>
+    <sheetView tabSelected="1" topLeftCell="A1278" workbookViewId="0">
+      <selection activeCell="A1304" sqref="A1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14389,6 +14398,246 @@
         <v>1236</v>
       </c>
       <c r="B1273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1303">
         <v>1</v>
       </c>
     </row>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886AD9BA-4570-45A1-B5F7-B0B8BADC8FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68F9BF4-DB83-4E3F-AD5C-FEBFB88D9FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1275">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -3855,6 +3855,105 @@
   <si>
     <t>GB50236-2011《现场设备、工业管道焊接工程施工规范》</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB 50061：电力线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50052：供配电系统设计规范</t>
+  </si>
+  <si>
+    <t>GB 50059：电气照明设计规范</t>
+  </si>
+  <si>
+    <t>GB 50060：交流电气装置的接地设计规范</t>
+  </si>
+  <si>
+    <t>GB 50062：电力装置的继电保护和自动装置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50194：建筑物电子信息系统防雷技术规范</t>
+  </si>
+  <si>
+    <t>GB 50054：建筑电气设计规范</t>
+  </si>
+  <si>
+    <t>GB 50058：爆炸和火灾危险环境电力装置设计规范</t>
+  </si>
+  <si>
+    <t>GB 50217：电力电缆线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50259：自动化仪表安装工程设计规范</t>
+  </si>
+  <si>
+    <t>GB 50260：电力工程高压送电线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50261：电力工程低压送电线路设计规范</t>
+  </si>
+  <si>
+    <t>GB 50293：城市电力规划规范</t>
+  </si>
+  <si>
+    <t>JB/T 5895：电气设备用绝缘涂料</t>
+  </si>
+  <si>
+    <t>JB/T 6218：电力系统用蓄电池直流电源</t>
+  </si>
+  <si>
+    <t>JB/T 7112：电气设备用橡胶密封件</t>
+  </si>
+  <si>
+    <t>JB/T 8754：电气设备用油纸绝缘材料</t>
+  </si>
+  <si>
+    <t>JB/T 9663：电力系统用串联补偿装置</t>
+  </si>
+  <si>
+    <t>GB 50053：低压配电设计规范</t>
+  </si>
+  <si>
+    <t>环境空气质量标准- GB 3095-2012</t>
+  </si>
+  <si>
+    <t>地表水环境质量标准- GB 3838-2002</t>
+  </si>
+  <si>
+    <t>声环境质量标准-GB 3096-2008</t>
+  </si>
+  <si>
+    <t>土壤环境质量标准-GB 15618-2018</t>
+  </si>
+  <si>
+    <t>环境影响评价技术导则-HJ 2.1-2016</t>
+  </si>
+  <si>
+    <t>建设项目环境保护管理条例 - 国务院令第682号</t>
+  </si>
+  <si>
+    <t>生活垃圾分类制度实施方案 - 国办发〔2017〕26号</t>
+  </si>
+  <si>
+    <t>危险废物鉴别标准 -GB 5085.1-2007 至GB5085.7-2007</t>
+  </si>
+  <si>
+    <t>排污许可管理条例 - 国务院令第736号</t>
+  </si>
+  <si>
+    <t>工业炉窑大气污染物排放标准-GB 9078-1996</t>
+  </si>
+  <si>
+    <t>锅炉大气污染物排放标准-GB 13271-2014</t>
+  </si>
+  <si>
+    <t>挥发性有机物无组织排放控制标准-GB 37822-2019</t>
+  </si>
+  <si>
+    <t>饮食业油烟排放标准-GB 18483-2001</t>
+  </si>
+  <si>
+    <t>城市区域环境噪声标准 -GB 3096-93（已修订，但示例用）</t>
   </si>
 </sst>
 </file>
@@ -4243,11 +4342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B1303"/>
+  <dimension ref="A1:B1366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1280" workbookViewId="0">
-      <selection activeCell="A1299" sqref="A1299"/>
+    <sheetView tabSelected="1" topLeftCell="A1286" workbookViewId="0">
+      <selection activeCell="A1377" sqref="A1377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4312,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -4544,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -4616,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -4624,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -4632,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -4688,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -4896,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -4904,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>110</v>
       </c>
@@ -5672,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>65</v>
       </c>
@@ -5680,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>66</v>
       </c>
@@ -5688,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>67</v>
       </c>
@@ -5696,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>68</v>
       </c>
@@ -5704,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>69</v>
       </c>
@@ -5712,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -5720,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -5728,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>91</v>
       </c>
@@ -5736,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -5744,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>93</v>
       </c>
@@ -5752,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>94</v>
       </c>
@@ -5760,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -5768,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>96</v>
       </c>
@@ -5776,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>97</v>
       </c>
@@ -5784,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>98</v>
       </c>
@@ -5792,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>99</v>
       </c>
@@ -5800,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>100</v>
       </c>
@@ -5808,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -5816,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>102</v>
       </c>
@@ -5824,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>103</v>
       </c>
@@ -5832,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -5840,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>105</v>
       </c>
@@ -5848,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>106</v>
       </c>
@@ -5856,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>107</v>
       </c>
@@ -5864,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>108</v>
       </c>
@@ -5872,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>109</v>
       </c>
@@ -5880,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>111</v>
       </c>
@@ -5888,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>112</v>
       </c>
@@ -5896,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>113</v>
       </c>
@@ -5904,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>114</v>
       </c>
@@ -5912,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>115</v>
       </c>
@@ -5920,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>116</v>
       </c>
@@ -5928,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -5936,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>118</v>
       </c>
@@ -5944,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>180</v>
       </c>
@@ -5952,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>181</v>
       </c>
@@ -5960,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>182</v>
       </c>
@@ -5968,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -5976,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -5984,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>185</v>
       </c>
@@ -5992,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>186</v>
       </c>
@@ -6000,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>187</v>
       </c>
@@ -6008,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>188</v>
       </c>
@@ -6016,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>189</v>
       </c>
@@ -6024,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>190</v>
       </c>
@@ -6032,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>191</v>
       </c>
@@ -6040,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>130</v>
       </c>
@@ -6048,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>131</v>
       </c>
@@ -6056,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>132</v>
       </c>
@@ -6064,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>133</v>
       </c>
@@ -6072,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>134</v>
       </c>
@@ -6080,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>135</v>
       </c>
@@ -6088,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>136</v>
       </c>
@@ -6096,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>137</v>
       </c>
@@ -6104,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>138</v>
       </c>
@@ -6112,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>139</v>
       </c>
@@ -6120,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>140</v>
       </c>
@@ -6128,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>141</v>
       </c>
@@ -6136,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>142</v>
       </c>
@@ -6144,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>143</v>
       </c>
@@ -6152,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>144</v>
       </c>
@@ -6160,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>145</v>
       </c>
@@ -6168,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>146</v>
       </c>
@@ -6176,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>147</v>
       </c>
@@ -6184,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>148</v>
       </c>
@@ -6192,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>149</v>
       </c>
@@ -6200,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>150</v>
       </c>
@@ -6208,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>151</v>
       </c>
@@ -6216,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>152</v>
       </c>
@@ -6224,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>153</v>
       </c>
@@ -6232,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>154</v>
       </c>
@@ -6240,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>155</v>
       </c>
@@ -6248,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>156</v>
       </c>
@@ -6256,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>157</v>
       </c>
@@ -6264,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>158</v>
       </c>
@@ -6272,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>159</v>
       </c>
@@ -6280,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>160</v>
       </c>
@@ -6288,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>161</v>
       </c>
@@ -6296,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>162</v>
       </c>
@@ -6304,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>163</v>
       </c>
@@ -6312,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>164</v>
       </c>
@@ -6320,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>165</v>
       </c>
@@ -6328,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>166</v>
       </c>
@@ -6336,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>167</v>
       </c>
@@ -6344,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>168</v>
       </c>
@@ -6352,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>169</v>
       </c>
@@ -6360,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>170</v>
       </c>
@@ -6368,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>171</v>
       </c>
@@ -6376,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>172</v>
       </c>
@@ -6384,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>173</v>
       </c>
@@ -6392,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>174</v>
       </c>
@@ -6400,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>175</v>
       </c>
@@ -6408,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>176</v>
       </c>
@@ -6416,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>177</v>
       </c>
@@ -6424,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>178</v>
       </c>
@@ -6432,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>179</v>
       </c>
@@ -6440,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>192</v>
       </c>
@@ -6448,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>193</v>
       </c>
@@ -6456,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>194</v>
       </c>
@@ -6464,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>195</v>
       </c>
@@ -6472,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>196</v>
       </c>
@@ -6480,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>197</v>
       </c>
@@ -6488,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>198</v>
       </c>
@@ -6496,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>199</v>
       </c>
@@ -6504,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>200</v>
       </c>
@@ -6512,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>201</v>
       </c>
@@ -6520,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>202</v>
       </c>
@@ -6528,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>203</v>
       </c>
@@ -6536,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>204</v>
       </c>
@@ -6544,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>205</v>
       </c>
@@ -6552,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>206</v>
       </c>
@@ -6560,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>207</v>
       </c>
@@ -6568,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>208</v>
       </c>
@@ -6576,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>209</v>
       </c>
@@ -6584,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>210</v>
       </c>
@@ -6592,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>211</v>
       </c>
@@ -6600,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>212</v>
       </c>
@@ -6608,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>213</v>
       </c>
@@ -6616,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>214</v>
       </c>
@@ -6624,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>215</v>
       </c>
@@ -6632,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>216</v>
       </c>
@@ -6640,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>217</v>
       </c>
@@ -6648,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>218</v>
       </c>
@@ -6656,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>219</v>
       </c>
@@ -6664,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>220</v>
       </c>
@@ -6672,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>221</v>
       </c>
@@ -6680,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>222</v>
       </c>
@@ -6688,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>223</v>
       </c>
@@ -6696,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>224</v>
       </c>
@@ -6704,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>225</v>
       </c>
@@ -6712,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>226</v>
       </c>
@@ -6720,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>227</v>
       </c>
@@ -6728,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>228</v>
       </c>
@@ -6736,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>229</v>
       </c>
@@ -6744,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>230</v>
       </c>
@@ -6752,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>231</v>
       </c>
@@ -6760,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>232</v>
       </c>
@@ -6768,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>233</v>
       </c>
@@ -6776,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>234</v>
       </c>
@@ -6784,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>235</v>
       </c>
@@ -6792,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>236</v>
       </c>
@@ -6800,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>237</v>
       </c>
@@ -6808,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>238</v>
       </c>
@@ -6816,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>239</v>
       </c>
@@ -6824,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>240</v>
       </c>
@@ -6832,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>241</v>
       </c>
@@ -6840,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>311</v>
       </c>
@@ -6848,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>312</v>
       </c>
@@ -6856,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>313</v>
       </c>
@@ -6864,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>314</v>
       </c>
@@ -6872,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>315</v>
       </c>
@@ -6880,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>316</v>
       </c>
@@ -6888,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>317</v>
       </c>
@@ -6896,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>318</v>
       </c>
@@ -6904,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>319</v>
       </c>
@@ -6912,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>320</v>
       </c>
@@ -6920,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>321</v>
       </c>
@@ -6928,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>322</v>
       </c>
@@ -6936,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>323</v>
       </c>
@@ -6944,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>324</v>
       </c>
@@ -6952,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>325</v>
       </c>
@@ -6960,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>326</v>
       </c>
@@ -6968,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>327</v>
       </c>
@@ -6976,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>328</v>
       </c>
@@ -6984,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>329</v>
       </c>
@@ -7160,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>351</v>
       </c>
@@ -7168,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>352</v>
       </c>
@@ -7176,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>353</v>
       </c>
@@ -7184,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>354</v>
       </c>
@@ -7192,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>355</v>
       </c>
@@ -7200,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>356</v>
       </c>
@@ -7208,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>357</v>
       </c>
@@ -7216,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>358</v>
       </c>
@@ -7224,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>359</v>
       </c>
@@ -7232,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>360</v>
       </c>
@@ -7240,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>361</v>
       </c>
@@ -7248,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>362</v>
       </c>
@@ -7256,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>363</v>
       </c>
@@ -7264,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>364</v>
       </c>
@@ -7272,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>365</v>
       </c>
@@ -7280,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>366</v>
       </c>
@@ -7288,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>367</v>
       </c>
@@ -7296,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>368</v>
       </c>
@@ -7304,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>369</v>
       </c>
@@ -7312,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>370</v>
       </c>
@@ -7320,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>371</v>
       </c>
@@ -7416,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>383</v>
       </c>
@@ -7424,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>384</v>
       </c>
@@ -7432,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>385</v>
       </c>
@@ -7440,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>386</v>
       </c>
@@ -7448,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>387</v>
       </c>
@@ -7456,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>388</v>
       </c>
@@ -7464,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>389</v>
       </c>
@@ -7472,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>390</v>
       </c>
@@ -7480,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>391</v>
       </c>
@@ -7488,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>392</v>
       </c>
@@ -7496,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>393</v>
       </c>
@@ -7504,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>394</v>
       </c>
@@ -7512,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>395</v>
       </c>
@@ -7520,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>396</v>
       </c>
@@ -8064,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>464</v>
       </c>
@@ -8072,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>465</v>
       </c>
@@ -8080,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>466</v>
       </c>
@@ -8088,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>467</v>
       </c>
@@ -8096,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>468</v>
       </c>
@@ -8104,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>469</v>
       </c>
@@ -8112,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>470</v>
       </c>
@@ -8120,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>471</v>
       </c>
@@ -8128,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>472</v>
       </c>
@@ -8136,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>473</v>
       </c>
@@ -8144,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>474</v>
       </c>
@@ -8152,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>475</v>
       </c>
@@ -8160,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>476</v>
       </c>
@@ -8168,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>477</v>
       </c>
@@ -8176,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>478</v>
       </c>
@@ -8184,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>479</v>
       </c>
@@ -8192,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>480</v>
       </c>
@@ -8200,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>481</v>
       </c>
@@ -8208,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>485</v>
       </c>
@@ -8216,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>482</v>
       </c>
@@ -8224,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>483</v>
       </c>
@@ -8232,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>486</v>
       </c>
@@ -8240,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>487</v>
       </c>
@@ -8248,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>484</v>
       </c>
@@ -8256,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>488</v>
       </c>
@@ -8264,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>489</v>
       </c>
@@ -8272,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>490</v>
       </c>
@@ -8280,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>491</v>
       </c>
@@ -8288,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>492</v>
       </c>
@@ -8296,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>493</v>
       </c>
@@ -8304,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>494</v>
       </c>
@@ -8312,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>495</v>
       </c>
@@ -8320,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>496</v>
       </c>
@@ -8328,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>497</v>
       </c>
@@ -8336,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>498</v>
       </c>
@@ -8344,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>499</v>
       </c>
@@ -8352,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>500</v>
       </c>
@@ -8360,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>501</v>
       </c>
@@ -8368,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>502</v>
       </c>
@@ -8376,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>503</v>
       </c>
@@ -8384,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>504</v>
       </c>
@@ -8392,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>505</v>
       </c>
@@ -8400,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>506</v>
       </c>
@@ -8408,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>507</v>
       </c>
@@ -8416,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>508</v>
       </c>
@@ -8424,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>509</v>
       </c>
@@ -8432,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>510</v>
       </c>
@@ -8440,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>511</v>
       </c>
@@ -8448,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>512</v>
       </c>
@@ -8456,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>513</v>
       </c>
@@ -8464,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>514</v>
       </c>
@@ -8472,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>515</v>
       </c>
@@ -8480,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>516</v>
       </c>
@@ -8488,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>517</v>
       </c>
@@ -8496,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>518</v>
       </c>
@@ -8504,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>519</v>
       </c>
@@ -8512,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>520</v>
       </c>
@@ -8520,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>521</v>
       </c>
@@ -8528,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>522</v>
       </c>
@@ -8536,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>523</v>
       </c>
@@ -8544,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>524</v>
       </c>
@@ -8552,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>525</v>
       </c>
@@ -8560,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>526</v>
       </c>
@@ -8568,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>527</v>
       </c>
@@ -8576,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>528</v>
       </c>
@@ -8584,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>529</v>
       </c>
@@ -8592,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>530</v>
       </c>
@@ -8600,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>531</v>
       </c>
@@ -8608,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>532</v>
       </c>
@@ -8616,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>533</v>
       </c>
@@ -8624,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>534</v>
       </c>
@@ -8632,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>535</v>
       </c>
@@ -8640,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>536</v>
       </c>
@@ -9248,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>596</v>
       </c>
@@ -9256,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>597</v>
       </c>
@@ -9264,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>598</v>
       </c>
@@ -9272,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>599</v>
       </c>
@@ -9280,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>600</v>
       </c>
@@ -9288,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>601</v>
       </c>
@@ -9296,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>602</v>
       </c>
@@ -9304,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>603</v>
       </c>
@@ -9312,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>604</v>
       </c>
@@ -9320,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>605</v>
       </c>
@@ -9328,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>606</v>
       </c>
@@ -9336,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>607</v>
       </c>
@@ -9344,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>608</v>
       </c>
@@ -9352,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>609</v>
       </c>
@@ -9360,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>610</v>
       </c>
@@ -9368,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>611</v>
       </c>
@@ -9376,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>612</v>
       </c>
@@ -9384,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>613</v>
       </c>
@@ -9392,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>614</v>
       </c>
@@ -9400,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>615</v>
       </c>
@@ -9408,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>616</v>
       </c>
@@ -9416,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>617</v>
       </c>
@@ -9424,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>618</v>
       </c>
@@ -9432,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>619</v>
       </c>
@@ -9440,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>620</v>
       </c>
@@ -9448,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>621</v>
       </c>
@@ -9456,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>622</v>
       </c>
@@ -9464,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>623</v>
       </c>
@@ -9472,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>624</v>
       </c>
@@ -9480,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>625</v>
       </c>
@@ -9488,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>626</v>
       </c>
@@ -9496,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>627</v>
       </c>
@@ -9504,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>628</v>
       </c>
@@ -9512,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>629</v>
       </c>
@@ -9520,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="s">
         <v>630</v>
       </c>
@@ -9528,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
         <v>631</v>
       </c>
@@ -9536,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="2" t="s">
         <v>632</v>
       </c>
@@ -9544,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
         <v>633</v>
       </c>
@@ -9552,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
         <v>634</v>
       </c>
@@ -9560,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="s">
         <v>635</v>
       </c>
@@ -9568,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
         <v>636</v>
       </c>
@@ -9576,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="2" t="s">
         <v>637</v>
       </c>
@@ -9584,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="2" t="s">
         <v>638</v>
       </c>
@@ -9592,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="2" t="s">
         <v>639</v>
       </c>
@@ -9600,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
         <v>640</v>
       </c>
@@ -9608,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="2" t="s">
         <v>641</v>
       </c>
@@ -9616,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="2" t="s">
         <v>642</v>
       </c>
@@ -9624,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="2" t="s">
         <v>643</v>
       </c>
@@ -9632,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="2" t="s">
         <v>644</v>
       </c>
@@ -9640,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
         <v>645</v>
       </c>
@@ -9648,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="s">
         <v>646</v>
       </c>
@@ -9656,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>668</v>
       </c>
@@ -9664,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>669</v>
       </c>
@@ -9672,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>647</v>
       </c>
@@ -9680,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>648</v>
       </c>
@@ -9688,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>649</v>
       </c>
@@ -9696,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>650</v>
       </c>
@@ -9704,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>651</v>
       </c>
@@ -9712,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>652</v>
       </c>
@@ -9720,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>653</v>
       </c>
@@ -9728,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>654</v>
       </c>
@@ -9736,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>655</v>
       </c>
@@ -9744,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>656</v>
       </c>
@@ -9752,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>657</v>
       </c>
@@ -9760,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>658</v>
       </c>
@@ -9768,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>659</v>
       </c>
@@ -9776,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>660</v>
       </c>
@@ -9784,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>661</v>
       </c>
@@ -9792,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>662</v>
       </c>
@@ -9800,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>670</v>
       </c>
@@ -9808,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>670</v>
       </c>
@@ -9816,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>663</v>
       </c>
@@ -9824,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>664</v>
       </c>
@@ -9832,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>665</v>
       </c>
@@ -9840,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>671</v>
       </c>
@@ -9848,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>666</v>
       </c>
@@ -9856,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>667</v>
       </c>
@@ -9864,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>672</v>
       </c>
@@ -9872,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>673</v>
       </c>
@@ -9880,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>674</v>
       </c>
@@ -9888,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>675</v>
       </c>
@@ -9896,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>676</v>
       </c>
@@ -9904,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>677</v>
       </c>
@@ -9912,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>678</v>
       </c>
@@ -9920,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>679</v>
       </c>
@@ -9928,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>680</v>
       </c>
@@ -9936,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>681</v>
       </c>
@@ -9944,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>682</v>
       </c>
@@ -9952,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>683</v>
       </c>
@@ -9960,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>684</v>
       </c>
@@ -9968,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>685</v>
       </c>
@@ -9976,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>686</v>
       </c>
@@ -9984,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>687</v>
       </c>
@@ -9992,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>688</v>
       </c>
@@ -10000,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>689</v>
       </c>
@@ -10008,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>690</v>
       </c>
@@ -10016,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>691</v>
       </c>
@@ -10024,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>692</v>
       </c>
@@ -10032,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>693</v>
       </c>
@@ -10040,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>694</v>
       </c>
@@ -10048,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>695</v>
       </c>
@@ -10056,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>696</v>
       </c>
@@ -10064,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>697</v>
       </c>
@@ -10072,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>698</v>
       </c>
@@ -10080,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>699</v>
       </c>
@@ -10088,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>700</v>
       </c>
@@ -10096,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>701</v>
       </c>
@@ -10104,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>702</v>
       </c>
@@ -10112,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>703</v>
       </c>
@@ -10120,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>704</v>
       </c>
@@ -10128,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>705</v>
       </c>
@@ -10136,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>706</v>
       </c>
@@ -10144,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>707</v>
       </c>
@@ -10152,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>708</v>
       </c>
@@ -10160,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>709</v>
       </c>
@@ -10168,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>710</v>
       </c>
@@ -10176,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>711</v>
       </c>
@@ -10184,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>712</v>
       </c>
@@ -10192,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>713</v>
       </c>
@@ -10200,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>714</v>
       </c>
@@ -10208,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>715</v>
       </c>
@@ -10216,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>716</v>
       </c>
@@ -10224,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>717</v>
       </c>
@@ -10232,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>718</v>
       </c>
@@ -10240,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>719</v>
       </c>
@@ -10248,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>720</v>
       </c>
@@ -10256,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>721</v>
       </c>
@@ -12832,7 +12930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>1030</v>
       </c>
@@ -12840,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>1031</v>
       </c>
@@ -12848,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
         <v>1032</v>
       </c>
@@ -12856,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>1033</v>
       </c>
@@ -12864,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>1034</v>
       </c>
@@ -12872,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1078" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>1035</v>
       </c>
@@ -12880,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1079" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>1036</v>
       </c>
@@ -12888,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>1037</v>
       </c>
@@ -12896,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>1038</v>
       </c>
@@ -12904,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1082" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>1039</v>
       </c>
@@ -12912,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1083" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>1040</v>
       </c>
@@ -12920,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>1041</v>
       </c>
@@ -12928,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1085" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>1042</v>
       </c>
@@ -12936,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1086" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>1043</v>
       </c>
@@ -12944,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1087" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>1044</v>
       </c>
@@ -12952,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1088" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>1045</v>
       </c>
@@ -12960,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1089" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>1046</v>
       </c>
@@ -12968,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1090" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>1047</v>
       </c>
@@ -12976,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>1048</v>
       </c>
@@ -12984,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1092" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>1049</v>
       </c>
@@ -12992,7 +13090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1093" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>1050</v>
       </c>
@@ -13000,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1094" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>1051</v>
       </c>
@@ -13008,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1095" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>1052</v>
       </c>
@@ -13016,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1096" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>1053</v>
       </c>
@@ -13024,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1097" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>1054</v>
       </c>
@@ -13032,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1098" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>1055</v>
       </c>
@@ -13040,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1099" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>1056</v>
       </c>
@@ -13048,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>1057</v>
       </c>
@@ -13056,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>1058</v>
       </c>
@@ -13064,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>1059</v>
       </c>
@@ -13072,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>1060</v>
       </c>
@@ -13080,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>1061</v>
       </c>
@@ -13088,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>1062</v>
       </c>
@@ -13096,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>1063</v>
       </c>
@@ -13104,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>1064</v>
       </c>
@@ -13112,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>1065</v>
       </c>
@@ -13120,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>1066</v>
       </c>
@@ -13128,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>1067</v>
       </c>
@@ -13136,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>1068</v>
       </c>
@@ -13144,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>1069</v>
       </c>
@@ -13152,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>1070</v>
       </c>
@@ -13160,7 +13258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>1071</v>
       </c>
@@ -13168,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>1072</v>
       </c>
@@ -13176,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>1073</v>
       </c>
@@ -13184,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>1074</v>
       </c>
@@ -13192,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>1075</v>
       </c>
@@ -13200,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
         <v>1076</v>
       </c>
@@ -13208,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
         <v>1077</v>
       </c>
@@ -13216,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>1078</v>
       </c>
@@ -13224,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>1079</v>
       </c>
@@ -13232,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>1080</v>
       </c>
@@ -13240,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>1081</v>
       </c>
@@ -13248,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>1082</v>
       </c>
@@ -13256,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
         <v>1083</v>
       </c>
@@ -13264,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>1084</v>
       </c>
@@ -13272,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
         <v>1085</v>
       </c>
@@ -13280,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1129" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>1086</v>
       </c>
@@ -13288,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1130" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>1087</v>
       </c>
@@ -13296,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1131" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>1088</v>
       </c>
@@ -13304,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1132" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>1089</v>
       </c>
@@ -13312,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1133" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>1090</v>
       </c>
@@ -13320,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1134" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>1091</v>
       </c>
@@ -13328,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1135" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>1092</v>
       </c>
@@ -13336,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1136" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>1093</v>
       </c>
@@ -13344,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1137" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>1094</v>
       </c>
@@ -13352,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1138" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>1095</v>
       </c>
@@ -13360,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1139" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>1096</v>
       </c>
@@ -13368,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1140" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>1097</v>
       </c>
@@ -13376,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1141" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>1098</v>
       </c>
@@ -13384,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1142" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>1099</v>
       </c>
@@ -13392,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1143" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>1100</v>
       </c>
@@ -13400,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1144" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>1101</v>
       </c>
@@ -13408,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
         <v>1102</v>
       </c>
@@ -13416,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>1103</v>
       </c>
@@ -13424,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>1104</v>
       </c>
@@ -13432,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
         <v>1105</v>
       </c>
@@ -13440,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
         <v>1106</v>
       </c>
@@ -13448,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>1107</v>
       </c>
@@ -13456,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>1108</v>
       </c>
@@ -13464,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>1109</v>
       </c>
@@ -13472,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
         <v>1110</v>
       </c>
@@ -13480,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>1111</v>
       </c>
@@ -13488,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
         <v>1112</v>
       </c>
@@ -13496,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>1113</v>
       </c>
@@ -13504,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1157" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>1114</v>
       </c>
@@ -13512,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>1115</v>
       </c>
@@ -13520,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>1116</v>
       </c>
@@ -13528,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>1117</v>
       </c>
@@ -13536,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1161" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>1118</v>
       </c>
@@ -13544,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1162" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>1119</v>
       </c>
@@ -13552,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>1120</v>
       </c>
@@ -13560,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1164" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>1121</v>
       </c>
@@ -13568,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1165" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>1122</v>
       </c>
@@ -13576,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>1123</v>
       </c>
@@ -13584,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>1124</v>
       </c>
@@ -13592,7 +13690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>1125</v>
       </c>
@@ -13600,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>1126</v>
       </c>
@@ -13608,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>1127</v>
       </c>
@@ -13616,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>1128</v>
       </c>
@@ -13624,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>1129</v>
       </c>
@@ -13632,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>1130</v>
       </c>
@@ -13640,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1174" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>1131</v>
       </c>
@@ -13648,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1175" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>1132</v>
       </c>
@@ -13656,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1176" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>1133</v>
       </c>
@@ -13664,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1177" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>1134</v>
       </c>
@@ -13672,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1178" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>1135</v>
       </c>
@@ -13680,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1179" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>1136</v>
       </c>
@@ -13688,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1180" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>1137</v>
       </c>
@@ -13696,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1181" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>1138</v>
       </c>
@@ -13704,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1182" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>1139</v>
       </c>
@@ -13712,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1183" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>1140</v>
       </c>
@@ -13720,7 +13818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1184" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>1141</v>
       </c>
@@ -13728,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1185" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>1142</v>
       </c>
@@ -13736,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1186" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
         <v>1143</v>
       </c>
@@ -13744,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1187" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
         <v>1144</v>
       </c>
@@ -13752,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1188" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
         <v>1145</v>
       </c>
@@ -13760,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1189" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
         <v>1146</v>
       </c>
@@ -13768,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1190" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
         <v>1147</v>
       </c>
@@ -13776,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1191" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
         <v>1148</v>
       </c>
@@ -13784,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1192" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
         <v>1149</v>
       </c>
@@ -13792,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1193" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
         <v>1150</v>
       </c>
@@ -13800,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1194" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
         <v>1151</v>
       </c>
@@ -13808,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1195" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
         <v>1152</v>
       </c>
@@ -14680,14 +14778,512 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1366">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1303" xr:uid="{9CDE5043-C137-4C10-B4EC-BE138981EE17}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B1303" xr:uid="{9CDE5043-C137-4C10-B4EC-BE138981EE17}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68F9BF4-DB83-4E3F-AD5C-FEBFB88D9FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022F2DB-557B-4F95-B579-90E4766F5DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1366</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4344,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
   <dimension ref="A1:B1366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1286" workbookViewId="0">
-      <selection activeCell="A1377" sqref="A1377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15283,7 +15283,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1303" xr:uid="{9CDE5043-C137-4C10-B4EC-BE138981EE17}"/>
+  <autoFilter ref="A1:B1366" xr:uid="{9CDE5043-C137-4C10-B4EC-BE138981EE17}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887B172-A5FC-460E-A573-8A7592AC20E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C2AE4E-0C44-4F20-8F8A-F0350EDE29ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1834</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1711">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -2445,9 +2445,6 @@
     <t>GB 50255-2014 电气装置安装工程低压电器施工及验收规范</t>
   </si>
   <si>
-    <t>GB 50256-2014 电气装置安装工程起重机电气装置施工及验收规范</t>
-  </si>
-  <si>
     <t>GB 50257-2014 电气装置安装工程爆炸和火灾危险环境电气装置施工及验收规范</t>
   </si>
   <si>
@@ -4799,6 +4796,479 @@
   </si>
   <si>
     <t>（一）大蒲河保洁项目保洁管理人员培训内容及计划表</t>
+  </si>
+  <si>
+    <t>GB 50256-2014 电气装置安装工程起重机电气装置施工及验收规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB 50222-2017 建筑内部装修设计防火规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《建筑防水工程技术规范》GB 50108-2001</t>
+  </si>
+  <si>
+    <t>ANSI/AAMI ES60601-1:2005 - 医疗电气设备标准</t>
+  </si>
+  <si>
+    <t>钢结构工程施工质量验收规范 GB 50205-2001</t>
+  </si>
+  <si>
+    <t>《钢筋机械连接技术规程》JGJ 107-2003</t>
+  </si>
+  <si>
+    <t>ASTM D638-14 - 塑料拉伸性能的测试方法</t>
+  </si>
+  <si>
+    <t>《电气装置安装工程接地装置施工及验收规范》GB 50169-2006</t>
+  </si>
+  <si>
+    <t>GB 50009-2012 《建筑结构荷载规范》</t>
+  </si>
+  <si>
+    <t>《建筑物防雷设计规范》GB 50057-2010</t>
+  </si>
+  <si>
+    <t>ISO 9001:2015 - 质量管理体系要求</t>
+  </si>
+  <si>
+    <t>JGJ/T 23-2011 《砌体结构工程施工质量验收规范》</t>
+  </si>
+  <si>
+    <t>SL 482-2010 《水电工程防洪标准》</t>
+  </si>
+  <si>
+    <t>《高层民用建筑钢结构技术规程》JGJ 99-2015</t>
+  </si>
+  <si>
+    <t>GB 50017-2003《钢结构设计规范》</t>
+  </si>
+  <si>
+    <t>ISO/IEC 27001:2013 - 信息安全管理体系</t>
+  </si>
+  <si>
+    <t>JGJ 101-2015《建筑抗震设计规范》</t>
+  </si>
+  <si>
+    <t>DIN EN 13432:2000 - 包装材料生物降解标准</t>
+  </si>
+  <si>
+    <t>GB 50243-2016《通风与空调工程施工质量验收规范》</t>
+  </si>
+  <si>
+    <t>《建筑结构可靠性设计统一标准》GB 50068-2001</t>
+  </si>
+  <si>
+    <t>GB 50119-2003《电力装置的继电保护和自动装置设计规范》</t>
+  </si>
+  <si>
+    <t>ANSI/ASHRAE 90.1-2019 - 能源标准</t>
+  </si>
+  <si>
+    <t>ASTM E119-20 - 建筑构件的耐火测试标准</t>
+  </si>
+  <si>
+    <t>JGJ 48-2005《建筑边坡工程施工安全技术规程》</t>
+  </si>
+  <si>
+    <t>GB 50203-2011《砌体结构工程施工质量验收规范》</t>
+  </si>
+  <si>
+    <t>ISO 14001:2015 - 环境管理体系</t>
+  </si>
+  <si>
+    <t>《建筑地基基础设计规范》GB 50007-2011</t>
+  </si>
+  <si>
+    <t>IEEE 802.11ax-2021 - 无线局域网通信标准</t>
+  </si>
+  <si>
+    <t>GB 50222-2017《建筑内部装修设计防火规范》</t>
+  </si>
+  <si>
+    <t>JGJ/T 104-2011《外墙外保温工程技术规程》</t>
+  </si>
+  <si>
+    <t>《城市桥梁设计规范》GB 50017-2017</t>
+  </si>
+  <si>
+    <t>GB 50189-2015《公共建筑节能设计标准》</t>
+  </si>
+  <si>
+    <t>NFPA 72:2019 - 火灾报警及信号系统标准</t>
+  </si>
+  <si>
+    <t>《建筑给水排水及采暖工程施工质量验收规范》GB 50242-2016</t>
+  </si>
+  <si>
+    <t>JGJ 75-2012《高层建筑混凝土结构技术规程》</t>
+  </si>
+  <si>
+    <t>ASTM A36/A36M-14 - 碳钢板、型材标准</t>
+  </si>
+  <si>
+    <t>GB 50268-2008《给水排水管道工程施工及验收规范》</t>
+  </si>
+  <si>
+    <t>ISO 45001:2018 - 职业健康与安全管理体系</t>
+  </si>
+  <si>
+    <t>SL 684-2013《水利水电工程施工安全规程》</t>
+  </si>
+  <si>
+    <t>《钢筋混凝土用热轧带肋钢筋》GB 1499.2-2007</t>
+  </si>
+  <si>
+    <t>IEC 60529:2013 - 防护等级（IP代码）</t>
+  </si>
+  <si>
+    <t>《建筑机械使用安全技术规程》JGJ 33-2012</t>
+  </si>
+  <si>
+    <t>GB/T 50378-2014《绿色建筑评价标准》</t>
+  </si>
+  <si>
+    <t>ANSI Z136.1-2014 - 激光产品的安全标准</t>
+  </si>
+  <si>
+    <t>《工业建筑防腐设计规范》GB 50046-2008</t>
+  </si>
+  <si>
+    <t>ASTM D4595-17 - 土工布拉伸性能的测试方法</t>
+  </si>
+  <si>
+    <t>JGJ 138-2016《建筑施工现场安全防护技术规程》</t>
+  </si>
+  <si>
+    <t>BS 7671:2018 - 低压电气装置的要求</t>
+  </si>
+  <si>
+    <t>《混凝土结构耐久性设计规范》GB/T 50476-2008</t>
+  </si>
+  <si>
+    <t>钢筋焊接接头试验方法标准 JGJ/T27-2001</t>
+  </si>
+  <si>
+    <t>JGJ18-2003《钢筋焊接及验收规程》</t>
+  </si>
+  <si>
+    <t>工业金属管道工程施工质量验收规范 (GB50184-2011)</t>
+  </si>
+  <si>
+    <t>GB50016-2012 建筑设计防火规范</t>
+  </si>
+  <si>
+    <t>综合医院建筑设计规范：GB51039-2014</t>
+  </si>
+  <si>
+    <t>YY/T0186-94 医用中心吸引系统通用技术条件</t>
+  </si>
+  <si>
+    <t>《医用中心供氧系统通用技术条件》YY/T0187-94</t>
+  </si>
+  <si>
+    <t>SL 691-2013：大型灌区节水技术标准</t>
+  </si>
+  <si>
+    <t>饮食业油烟排放标准 GB 18483-2001</t>
+  </si>
+  <si>
+    <t>《混凝土结构设计规范》(GB 50010-2010)</t>
+  </si>
+  <si>
+    <t>工程建设施工企业质量管理规范：GB/T 50430-2017</t>
+  </si>
+  <si>
+    <t>GB/T 18920-2020 城市污水再生利用 城市杂用水水质</t>
+  </si>
+  <si>
+    <t>建筑抗震设计规范 GB 50011-2010</t>
+  </si>
+  <si>
+    <t>GB 50016-2014：建筑设计防火规范</t>
+  </si>
+  <si>
+    <t>《工业建筑防腐蚀设计规范》GB 50046-2008</t>
+  </si>
+  <si>
+    <t>钢结构设计标准 (GB 50017-2017)</t>
+  </si>
+  <si>
+    <t>建筑地基基础设计规范 GB 50007-2011</t>
+  </si>
+  <si>
+    <t>绿色建筑评价标准：GB/T 50378-2019</t>
+  </si>
+  <si>
+    <t>公共建筑节能设计标准 GB 50189-2015</t>
+  </si>
+  <si>
+    <t>低压配电设计规范：GB 50054-2011</t>
+  </si>
+  <si>
+    <t>绿色建筑施工规范 (GB/T 51212-2016)</t>
+  </si>
+  <si>
+    <t>《建筑给水排水设计规范》GB 50015-2019</t>
+  </si>
+  <si>
+    <t>建筑设计防火规范：GB 50016-2014</t>
+  </si>
+  <si>
+    <t>GB 50019-2015《工业建筑供暖通风与空气调节设计规范》</t>
+  </si>
+  <si>
+    <t>城镇给水排水技术规范：GB 50788-2012</t>
+  </si>
+  <si>
+    <t>《建筑工程施工质量验收统一标准》GB 50300-2013</t>
+  </si>
+  <si>
+    <t>工业企业设计卫生标准 GBZ 1-2010</t>
+  </si>
+  <si>
+    <t>GB 50011-2010：建筑抗震设计规范</t>
+  </si>
+  <si>
+    <t>《电力工程电缆设计标准》GB 50217-2018</t>
+  </si>
+  <si>
+    <t>建筑电气工程施工质量验收规范 GB 50303-2015</t>
+  </si>
+  <si>
+    <t>GB 50016-2014 建筑设计防火规范（2018年版）</t>
+  </si>
+  <si>
+    <t>工业建筑防腐蚀设计规范：GB 50046-2008</t>
+  </si>
+  <si>
+    <t>《民用建筑供暖通风与空气调节设计规范》GB 50736-2012</t>
+  </si>
+  <si>
+    <t>建筑节能工程施工质量验收规范 GB 50411-2019</t>
+  </si>
+  <si>
+    <t>GB 50352-2019：民用建筑设计统一标准</t>
+  </si>
+  <si>
+    <t>《住宅建筑规范》GB 50368-2005</t>
+  </si>
+  <si>
+    <t>建筑地基基础工程施工质量验收标准：GB 50202-2018</t>
+  </si>
+  <si>
+    <t>GB/T 51161-2016 住宅建筑室内装修污染控制技术标准</t>
+  </si>
+  <si>
+    <t>《建筑外墙外保温工程技术规程》JGJ 144-2019</t>
+  </si>
+  <si>
+    <t>工业建筑防火设计规范 GB 50016-2014</t>
+  </si>
+  <si>
+    <t>GB 50367-2013：绿色建筑评价标准</t>
+  </si>
+  <si>
+    <t>《城市道路工程设计规范》CJJ 37-2012</t>
+  </si>
+  <si>
+    <t>建筑工程施工组织设计规范：GB/T 50502-2009</t>
+  </si>
+  <si>
+    <t>GB 50069-2011 给水排水工程构筑物结构设计规范</t>
+  </si>
+  <si>
+    <t>ISO 9001:2015 质量管理体系要求</t>
+  </si>
+  <si>
+    <t>建筑物能源效率标准 ASHRAE 90.1-2019</t>
+  </si>
+  <si>
+    <t>《电气安装规则》AS/NZS 3000:2018</t>
+  </si>
+  <si>
+    <t>IEC 61508:2010 功能安全标准</t>
+  </si>
+  <si>
+    <t>ASTM F1554-18：锚栓用钢材标准规范</t>
+  </si>
+  <si>
+    <t>欧洲钢结构设计规范 EN 1993-1-1:2005+A1:2014</t>
+  </si>
+  <si>
+    <t>NFPA 13 (2022版)：自动喷水灭火系统安装标准</t>
+  </si>
+  <si>
+    <t>IEEE 802.11ax-2021 高效率无线局域网标准</t>
+  </si>
+  <si>
+    <t>BS EN 12845:2015+A1:2019 固定消防系统 - 自动喷水灭火系统设计、安装和维护</t>
+  </si>
+  <si>
+    <t>《机械电气安全 - 机械电气设备》IEC 60204-1:2016</t>
+  </si>
+  <si>
+    <t>ANSI/TIA-568.2-D:2018 平衡双绞线布线组件标准</t>
+  </si>
+  <si>
+    <t>职业健康安全管理体系要求：ISO 45001:2018</t>
+  </si>
+  <si>
+    <t>ASTM E84-21a 建筑材料表面燃烧特性标准试验方法</t>
+  </si>
+  <si>
+    <t>结构设计基础 EN 1990:2002+A1:2005</t>
+  </si>
+  <si>
+    <t>IEC 62305-1:2010《防雷保护标准》</t>
+  </si>
+  <si>
+    <t>ANSI/ASHRAE 62.1-2019 可接受室内空气质量通风标准</t>
+  </si>
+  <si>
+    <t>《电动机和发电机》NEMA MG 1-2023</t>
+  </si>
+  <si>
+    <t>API 650-2020 焊接钢制储罐标准</t>
+  </si>
+  <si>
+    <t>建筑物无障碍设计标准 AS 1428.1-2021</t>
+  </si>
+  <si>
+    <t>ASME B31.3-2020 工艺管道标准</t>
+  </si>
+  <si>
+    <t>《混凝土结构设计规范》ACI 318-19</t>
+  </si>
+  <si>
+    <t>ISO 14001:2015 环境管理体系要求及使用指南</t>
+  </si>
+  <si>
+    <t>AISC 360-16：钢结构建筑规范</t>
+  </si>
+  <si>
+    <t>电气工程安全规范 NFPA 70E-2021</t>
+  </si>
+  <si>
+    <t>EN 13501-1:2018 建筑产品和建筑构件的火灾分级</t>
+  </si>
+  <si>
+    <t>《压力容器设计制造规范》ASME BPVC-2021</t>
+  </si>
+  <si>
+    <t>ISO 45001:2018 职业健康安全管理体系</t>
+  </si>
+  <si>
+    <t>ASCE/SEI 7-16 最小设计荷载及相关准则</t>
+  </si>
+  <si>
+    <t>《建筑照明设计指南》CIBSE LG07/15</t>
+  </si>
+  <si>
+    <t>AWS D1.1/D1.1M:2020 钢结构焊接规范</t>
+  </si>
+  <si>
+    <t>施工现场的噪音严格控制在昼间＜65dB,夜间＜55dB»</t>
+  </si>
+  <si>
+    <t>专讣学矿修克m学计W-泓金梆课我.成.妨含器•;也于毕.也</t>
+  </si>
+  <si>
+    <t>K、机器运转时加油、修理、检查、调整、焊接、清扫等工作</t>
+  </si>
+  <si>
+    <t>工程名称I医院安全设施综合改造一病区平房院修缮及逾堂迪</t>
+  </si>
+  <si>
+    <t>第一节EPC物资采购工作的总体安排与物资资源配置保障措施</t>
+  </si>
+  <si>
+    <t>2.3考虑到所有的用电负荷不会同时出现,故引入Kp,Kq</t>
+  </si>
+  <si>
+    <t>八、可吸入悬浮粒子（RSP）和总悬浮粒子（TSP）的检测</t>
+  </si>
+  <si>
+    <t>④横管（DN50~DN150）管卡大样图材料明细及尺寸表</t>
+  </si>
+  <si>
+    <t>型）（配电室部分外墙曾设3.0厚弹性体改性沥青防水卷材(II型)共2道</t>
+  </si>
+  <si>
+    <t>屋面2（不上人屋面）05J909屋15屋面防水等级二级</t>
+  </si>
+  <si>
+    <t>屋面4（训练馆屋面）17J925-1屋12屋面防水等级二级</t>
+  </si>
+  <si>
+    <t>屋面5（看台屋面）17J925-1屋12屋面防水等级一级</t>
+  </si>
+  <si>
+    <t>5)1:3水泥砂浆或最薄处30厚C20细石混凝土找坡层抹平</t>
+  </si>
+  <si>
+    <t>3)1:3水泥砂浆或最薄处30厚C20细石混凝土找坡层抹平</t>
+  </si>
+  <si>
+    <t>&amp;讷川!M:http://rcgz.nwhtircl.gov.cn</t>
+  </si>
+  <si>
+    <t>GB50019-2015 工业建筑供暖通风与空气调节设计规范</t>
+  </si>
+  <si>
+    <t>GB50028-2006（2020年版） 城镇燃气设计规范（2020年版）</t>
+  </si>
+  <si>
+    <t>施工脚手架通用规范 - GB55023-2022</t>
+  </si>
+  <si>
+    <t>GB55024-2022: 建筑与电气智能化通用规范</t>
+  </si>
+  <si>
+    <t>GB55025-2022 宿舍、旅馆建筑项目规范</t>
+  </si>
+  <si>
+    <t>城市给水工程项目规范 (GB55026-2022)</t>
+  </si>
+  <si>
+    <t>GB50032-2003: 室外给水排水和燃气热力工程抗震设计规范</t>
+  </si>
+  <si>
+    <t>建筑采光设计标准 - GB50033-2013</t>
+  </si>
+  <si>
+    <t>GB50034-2013，建筑照明设计标准</t>
+  </si>
+  <si>
+    <t>ISO/IEC 27001:2013 - 信息技术 - 安全技术 - 信息安全管理体系要求</t>
+  </si>
+  <si>
+    <t>IEC 60204-1:2016 - 机械电气安全 - 机械电气设备的安全要求</t>
+  </si>
+  <si>
+    <t>EN 61000-6-2:2018 - 电磁兼容性（EMC） - 通用标准 - 工业环境</t>
+  </si>
+  <si>
+    <t>ANSI/IEEE 1584.1-2002 - 电气安全 - 工业和商业设备</t>
+  </si>
+  <si>
+    <t>DIN EN 50155:2017-02 - 铁路设施 - 轨道车辆设备 - 电子设备</t>
+  </si>
+  <si>
+    <t>ASTM E119-21 - 建筑材料和结构的火灾测试</t>
+  </si>
+  <si>
+    <t>ISO 26262:2018 - 道路车辆 - 功能安全</t>
+  </si>
+  <si>
+    <t>EN 50121-3-2:2010 - 铁路应用 - 轨道系统的兼容性 - 耦合和隔离</t>
+  </si>
+  <si>
+    <t>ISO 11135:2014 - 医疗器械 - 灭菌 - 辐射灭菌过程的开发和确认</t>
+  </si>
+  <si>
+    <t>EN 61000-6-3:2018 - 电磁兼容性（EMC） - 通用标准 - 限值 - 公共低压供电系统中的电压波动和闪烁</t>
   </si>
 </sst>
 </file>
@@ -5187,11 +5657,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
-  <dimension ref="A1:B1664"/>
+  <dimension ref="A1:B1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1630" workbookViewId="0">
-      <selection activeCell="A1653" sqref="A1653"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5697,7 +6165,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5857,7 +6325,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5865,7 +6333,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5873,7 +6341,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5881,7 +6349,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5889,7 +6357,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5897,7 +6365,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -10073,7 +10541,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -10137,7 +10605,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -11665,7 +12133,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>776</v>
+        <v>1555</v>
       </c>
       <c r="B809">
         <v>1</v>
@@ -11721,7 +12189,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>783</v>
+        <v>1554</v>
       </c>
       <c r="B816">
         <v>1</v>
@@ -11729,7 +12197,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B817">
         <v>1</v>
@@ -11737,7 +12205,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B818">
         <v>1</v>
@@ -11745,7 +12213,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B819">
         <v>1</v>
@@ -11753,7 +12221,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B820">
         <v>1</v>
@@ -11761,7 +12229,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B821">
         <v>1</v>
@@ -11769,7 +12237,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B822">
         <v>1</v>
@@ -11777,7 +12245,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B823">
         <v>1</v>
@@ -11785,7 +12253,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B824">
         <v>1</v>
@@ -11793,7 +12261,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B825">
         <v>1</v>
@@ -11801,7 +12269,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B826">
         <v>1</v>
@@ -11809,7 +12277,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B827">
         <v>1</v>
@@ -11817,7 +12285,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B828">
         <v>1</v>
@@ -11825,7 +12293,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B829">
         <v>1</v>
@@ -11833,7 +12301,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B830">
         <v>1</v>
@@ -11841,7 +12309,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B831">
         <v>1</v>
@@ -11849,7 +12317,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B832">
         <v>1</v>
@@ -11857,7 +12325,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B833">
         <v>1</v>
@@ -11865,7 +12333,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B834">
         <v>1</v>
@@ -11873,7 +12341,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B835">
         <v>1</v>
@@ -11881,7 +12349,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B836">
         <v>1</v>
@@ -11889,7 +12357,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B837">
         <v>1</v>
@@ -11897,7 +12365,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B838">
         <v>1</v>
@@ -11905,7 +12373,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B839">
         <v>1</v>
@@ -11913,7 +12381,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B840">
         <v>1</v>
@@ -11921,7 +12389,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B841">
         <v>1</v>
@@ -11929,7 +12397,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B842">
         <v>1</v>
@@ -11937,7 +12405,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B843">
         <v>1</v>
@@ -11945,7 +12413,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B844">
         <v>1</v>
@@ -11953,7 +12421,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B845">
         <v>1</v>
@@ -11961,7 +12429,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B846">
         <v>1</v>
@@ -11969,7 +12437,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B847">
         <v>1</v>
@@ -11977,7 +12445,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B848">
         <v>1</v>
@@ -11985,7 +12453,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B849">
         <v>1</v>
@@ -11993,7 +12461,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B850">
         <v>1</v>
@@ -12001,7 +12469,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B851">
         <v>1</v>
@@ -12009,7 +12477,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B852">
         <v>1</v>
@@ -12017,7 +12485,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B853">
         <v>1</v>
@@ -12025,7 +12493,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B854">
         <v>1</v>
@@ -12033,7 +12501,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B855">
         <v>1</v>
@@ -12041,7 +12509,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B856">
         <v>1</v>
@@ -12049,7 +12517,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B857">
         <v>1</v>
@@ -12057,7 +12525,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B858">
         <v>1</v>
@@ -12065,7 +12533,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B859">
         <v>1</v>
@@ -12073,7 +12541,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B860">
         <v>1</v>
@@ -12081,7 +12549,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B861">
         <v>1</v>
@@ -12089,7 +12557,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B862">
         <v>1</v>
@@ -12097,7 +12565,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B863">
         <v>1</v>
@@ -12105,7 +12573,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B864">
         <v>1</v>
@@ -12113,7 +12581,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B865">
         <v>1</v>
@@ -12121,7 +12589,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B866">
         <v>1</v>
@@ -12129,7 +12597,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B867">
         <v>1</v>
@@ -12137,7 +12605,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B868">
         <v>1</v>
@@ -12145,7 +12613,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B869">
         <v>1</v>
@@ -12153,7 +12621,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B870">
         <v>1</v>
@@ -12161,7 +12629,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B871">
         <v>1</v>
@@ -12169,7 +12637,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B872">
         <v>1</v>
@@ -12177,7 +12645,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B873">
         <v>1</v>
@@ -12185,7 +12653,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B874">
         <v>1</v>
@@ -12193,7 +12661,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B875">
         <v>1</v>
@@ -12201,7 +12669,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B876">
         <v>1</v>
@@ -12209,7 +12677,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B877">
         <v>1</v>
@@ -12217,7 +12685,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B878">
         <v>1</v>
@@ -12225,7 +12693,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B879">
         <v>1</v>
@@ -12233,7 +12701,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B880">
         <v>1</v>
@@ -12241,7 +12709,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B881">
         <v>1</v>
@@ -12249,7 +12717,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B882">
         <v>1</v>
@@ -12257,7 +12725,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B883">
         <v>1</v>
@@ -12265,7 +12733,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B884">
         <v>1</v>
@@ -12273,7 +12741,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B885">
         <v>1</v>
@@ -12281,7 +12749,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B886">
         <v>1</v>
@@ -12289,7 +12757,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B887">
         <v>1</v>
@@ -12297,7 +12765,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B888">
         <v>1</v>
@@ -12305,7 +12773,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B889">
         <v>1</v>
@@ -12313,7 +12781,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B890">
         <v>1</v>
@@ -12321,7 +12789,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B891">
         <v>1</v>
@@ -12329,7 +12797,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B892">
         <v>1</v>
@@ -12337,7 +12805,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B893">
         <v>1</v>
@@ -12345,7 +12813,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B894">
         <v>1</v>
@@ -12353,7 +12821,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B895">
         <v>1</v>
@@ -12361,7 +12829,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B896">
         <v>1</v>
@@ -12369,7 +12837,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B897">
         <v>1</v>
@@ -12377,7 +12845,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B898">
         <v>1</v>
@@ -12385,7 +12853,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B899">
         <v>1</v>
@@ -12393,7 +12861,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B900">
         <v>1</v>
@@ -12401,7 +12869,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B901">
         <v>1</v>
@@ -12409,7 +12877,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B902">
         <v>1</v>
@@ -12417,7 +12885,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B903">
         <v>1</v>
@@ -12425,7 +12893,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B904">
         <v>1</v>
@@ -12433,7 +12901,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B905">
         <v>1</v>
@@ -12441,7 +12909,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B906">
         <v>1</v>
@@ -12449,7 +12917,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B907">
         <v>1</v>
@@ -12457,7 +12925,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B908">
         <v>1</v>
@@ -12465,7 +12933,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B909">
         <v>1</v>
@@ -12473,7 +12941,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B910">
         <v>1</v>
@@ -12481,7 +12949,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B911">
         <v>1</v>
@@ -12489,7 +12957,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B912">
         <v>1</v>
@@ -12497,7 +12965,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B913">
         <v>1</v>
@@ -12505,7 +12973,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B914">
         <v>1</v>
@@ -12513,7 +12981,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B915">
         <v>1</v>
@@ -12521,7 +12989,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B916">
         <v>1</v>
@@ -12529,7 +12997,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B917">
         <v>1</v>
@@ -12537,7 +13005,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B918">
         <v>1</v>
@@ -12545,7 +13013,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B919">
         <v>1</v>
@@ -12553,7 +13021,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B920">
         <v>1</v>
@@ -12561,7 +13029,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B921">
         <v>1</v>
@@ -12569,7 +13037,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B922">
         <v>1</v>
@@ -12577,7 +13045,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B923">
         <v>1</v>
@@ -12585,7 +13053,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B924">
         <v>1</v>
@@ -12593,7 +13061,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B925">
         <v>1</v>
@@ -12601,7 +13069,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B926">
         <v>1</v>
@@ -12609,7 +13077,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B927">
         <v>1</v>
@@ -12617,7 +13085,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B928">
         <v>1</v>
@@ -12625,7 +13093,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B929">
         <v>1</v>
@@ -12633,7 +13101,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B930">
         <v>1</v>
@@ -12641,7 +13109,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B931">
         <v>1</v>
@@ -12649,7 +13117,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B932">
         <v>1</v>
@@ -12657,7 +13125,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B933">
         <v>1</v>
@@ -12665,7 +13133,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B934">
         <v>1</v>
@@ -12673,7 +13141,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B935">
         <v>1</v>
@@ -12681,7 +13149,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B936">
         <v>1</v>
@@ -12689,7 +13157,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B937">
         <v>1</v>
@@ -12697,7 +13165,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B938">
         <v>1</v>
@@ -12705,7 +13173,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B939">
         <v>1</v>
@@ -12713,7 +13181,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B940">
         <v>1</v>
@@ -12721,7 +13189,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B941">
         <v>1</v>
@@ -12729,7 +13197,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B942">
         <v>1</v>
@@ -12737,7 +13205,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B943">
         <v>1</v>
@@ -12745,7 +13213,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B944">
         <v>1</v>
@@ -12753,7 +13221,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B945">
         <v>1</v>
@@ -12761,7 +13229,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B946">
         <v>1</v>
@@ -12769,7 +13237,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B947">
         <v>1</v>
@@ -12777,7 +13245,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B948">
         <v>1</v>
@@ -12785,7 +13253,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B949">
         <v>1</v>
@@ -12793,7 +13261,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B950">
         <v>1</v>
@@ -12801,7 +13269,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B951">
         <v>1</v>
@@ -12809,7 +13277,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B952">
         <v>1</v>
@@ -12817,7 +13285,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B953">
         <v>1</v>
@@ -12825,7 +13293,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B954">
         <v>1</v>
@@ -12833,7 +13301,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B955">
         <v>1</v>
@@ -12841,7 +13309,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B956">
         <v>1</v>
@@ -12849,7 +13317,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B957">
         <v>1</v>
@@ -12857,7 +13325,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B958">
         <v>1</v>
@@ -12865,7 +13333,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B959">
         <v>1</v>
@@ -12873,7 +13341,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B960">
         <v>1</v>
@@ -12881,7 +13349,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B961">
         <v>1</v>
@@ -12889,7 +13357,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B962">
         <v>1</v>
@@ -12897,7 +13365,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B963">
         <v>1</v>
@@ -12905,7 +13373,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B964">
         <v>1</v>
@@ -12913,7 +13381,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B965">
         <v>1</v>
@@ -12921,7 +13389,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B966">
         <v>1</v>
@@ -12929,7 +13397,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B967">
         <v>1</v>
@@ -12937,7 +13405,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B968">
         <v>1</v>
@@ -12945,7 +13413,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B969">
         <v>1</v>
@@ -12953,7 +13421,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B970">
         <v>1</v>
@@ -12961,7 +13429,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B971">
         <v>1</v>
@@ -12969,7 +13437,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B972">
         <v>1</v>
@@ -12977,7 +13445,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B973">
         <v>1</v>
@@ -12985,7 +13453,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B974">
         <v>1</v>
@@ -12993,7 +13461,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B975">
         <v>1</v>
@@ -13001,7 +13469,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B976">
         <v>1</v>
@@ -13009,7 +13477,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B977">
         <v>1</v>
@@ -13017,7 +13485,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B978">
         <v>1</v>
@@ -13025,7 +13493,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B979">
         <v>1</v>
@@ -13033,7 +13501,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B980">
         <v>1</v>
@@ -13041,7 +13509,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B981">
         <v>1</v>
@@ -13049,7 +13517,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B982">
         <v>1</v>
@@ -13081,7 +13549,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B986">
         <v>1</v>
@@ -13105,7 +13573,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B989">
         <v>1</v>
@@ -13121,7 +13589,7 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B991">
         <v>1</v>
@@ -13129,7 +13597,7 @@
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B992">
         <v>1</v>
@@ -13137,7 +13605,7 @@
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B993">
         <v>1</v>
@@ -13145,7 +13613,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B994">
         <v>1</v>
@@ -13153,7 +13621,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B995">
         <v>1</v>
@@ -13169,7 +13637,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B997">
         <v>1</v>
@@ -13177,7 +13645,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B998">
         <v>1</v>
@@ -13185,7 +13653,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B999">
         <v>1</v>
@@ -13193,7 +13661,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B1000">
         <v>1</v>
@@ -13201,7 +13669,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B1001">
         <v>1</v>
@@ -13209,7 +13677,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B1002">
         <v>1</v>
@@ -13217,7 +13685,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B1003">
         <v>1</v>
@@ -13225,7 +13693,7 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B1004">
         <v>1</v>
@@ -13241,7 +13709,7 @@
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1006">
         <v>1</v>
@@ -13249,7 +13717,7 @@
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B1007">
         <v>1</v>
@@ -13273,7 +13741,7 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B1010">
         <v>1</v>
@@ -13281,7 +13749,7 @@
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B1011">
         <v>1</v>
@@ -13289,7 +13757,7 @@
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B1012">
         <v>1</v>
@@ -13297,7 +13765,7 @@
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B1013">
         <v>1</v>
@@ -13305,7 +13773,7 @@
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B1014">
         <v>1</v>
@@ -13313,7 +13781,7 @@
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B1015">
         <v>1</v>
@@ -13321,7 +13789,7 @@
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B1016">
         <v>1</v>
@@ -13329,7 +13797,7 @@
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B1017">
         <v>1</v>
@@ -13337,7 +13805,7 @@
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B1018">
         <v>1</v>
@@ -13345,7 +13813,7 @@
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B1019">
         <v>1</v>
@@ -13353,7 +13821,7 @@
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B1020">
         <v>1</v>
@@ -13361,7 +13829,7 @@
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B1021">
         <v>1</v>
@@ -13369,7 +13837,7 @@
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1022">
         <v>1</v>
@@ -13377,7 +13845,7 @@
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B1023">
         <v>1</v>
@@ -13385,7 +13853,7 @@
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1024">
         <v>1</v>
@@ -13393,7 +13861,7 @@
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B1025">
         <v>1</v>
@@ -13401,7 +13869,7 @@
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B1026">
         <v>1</v>
@@ -13409,7 +13877,7 @@
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B1027">
         <v>1</v>
@@ -13417,7 +13885,7 @@
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1028">
         <v>1</v>
@@ -13425,7 +13893,7 @@
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B1029">
         <v>1</v>
@@ -13433,7 +13901,7 @@
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B1030">
         <v>1</v>
@@ -13441,7 +13909,7 @@
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B1031">
         <v>1</v>
@@ -13449,7 +13917,7 @@
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B1032">
         <v>1</v>
@@ -13457,7 +13925,7 @@
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B1033">
         <v>1</v>
@@ -13465,7 +13933,7 @@
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B1034">
         <v>1</v>
@@ -13473,7 +13941,7 @@
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B1035">
         <v>1</v>
@@ -13481,7 +13949,7 @@
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B1036">
         <v>1</v>
@@ -13489,7 +13957,7 @@
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B1037">
         <v>1</v>
@@ -13497,7 +13965,7 @@
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B1038">
         <v>1</v>
@@ -13505,7 +13973,7 @@
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B1039">
         <v>1</v>
@@ -13513,7 +13981,7 @@
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1040">
         <v>1</v>
@@ -13521,7 +13989,7 @@
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B1041">
         <v>1</v>
@@ -13529,7 +13997,7 @@
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B1042">
         <v>1</v>
@@ -13537,7 +14005,7 @@
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B1043">
         <v>1</v>
@@ -13545,7 +14013,7 @@
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B1044">
         <v>1</v>
@@ -13553,7 +14021,7 @@
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1045">
         <v>1</v>
@@ -13561,7 +14029,7 @@
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B1046">
         <v>1</v>
@@ -13569,7 +14037,7 @@
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1047">
         <v>1</v>
@@ -13577,7 +14045,7 @@
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1048">
         <v>1</v>
@@ -13585,7 +14053,7 @@
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1049">
         <v>1</v>
@@ -13593,7 +14061,7 @@
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1050">
         <v>1</v>
@@ -13601,7 +14069,7 @@
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1051">
         <v>1</v>
@@ -13609,7 +14077,7 @@
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1052">
         <v>1</v>
@@ -13625,7 +14093,7 @@
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1054">
         <v>1</v>
@@ -13633,7 +14101,7 @@
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1055">
         <v>1</v>
@@ -13649,7 +14117,7 @@
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1057">
         <v>1</v>
@@ -13657,7 +14125,7 @@
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1058">
         <v>1</v>
@@ -13665,7 +14133,7 @@
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1059">
         <v>1</v>
@@ -13673,7 +14141,7 @@
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1060">
         <v>1</v>
@@ -13681,7 +14149,7 @@
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1061">
         <v>1</v>
@@ -13689,7 +14157,7 @@
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1062">
         <v>1</v>
@@ -13697,7 +14165,7 @@
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1063">
         <v>1</v>
@@ -13705,7 +14173,7 @@
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1064">
         <v>1</v>
@@ -13713,7 +14181,7 @@
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1065">
         <v>1</v>
@@ -13721,7 +14189,7 @@
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1066">
         <v>1</v>
@@ -13729,7 +14197,7 @@
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1067">
         <v>1</v>
@@ -13737,7 +14205,7 @@
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1068">
         <v>1</v>
@@ -13745,7 +14213,7 @@
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1069">
         <v>1</v>
@@ -13753,7 +14221,7 @@
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1070">
         <v>1</v>
@@ -13769,7 +14237,7 @@
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1072">
         <v>1</v>
@@ -13777,7 +14245,7 @@
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1073">
         <v>0</v>
@@ -13785,7 +14253,7 @@
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1074">
         <v>0</v>
@@ -13793,7 +14261,7 @@
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1075">
         <v>0</v>
@@ -13801,7 +14269,7 @@
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1076">
         <v>0</v>
@@ -13809,7 +14277,7 @@
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1077">
         <v>0</v>
@@ -13817,7 +14285,7 @@
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1078">
         <v>0</v>
@@ -13825,7 +14293,7 @@
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1079">
         <v>0</v>
@@ -13833,7 +14301,7 @@
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1080">
         <v>0</v>
@@ -13841,7 +14309,7 @@
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1081">
         <v>0</v>
@@ -13849,7 +14317,7 @@
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1082">
         <v>0</v>
@@ -13857,7 +14325,7 @@
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1083">
         <v>0</v>
@@ -13865,7 +14333,7 @@
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B1084">
         <v>0</v>
@@ -13873,7 +14341,7 @@
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1085">
         <v>0</v>
@@ -13881,7 +14349,7 @@
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1086">
         <v>0</v>
@@ -13889,7 +14357,7 @@
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B1087">
         <v>0</v>
@@ -13897,7 +14365,7 @@
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1088">
         <v>0</v>
@@ -13905,7 +14373,7 @@
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B1089">
         <v>0</v>
@@ -13913,7 +14381,7 @@
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1090">
         <v>0</v>
@@ -13921,7 +14389,7 @@
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1091">
         <v>0</v>
@@ -13929,7 +14397,7 @@
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B1092">
         <v>0</v>
@@ -13937,7 +14405,7 @@
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B1093">
         <v>0</v>
@@ -13945,7 +14413,7 @@
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1094">
         <v>0</v>
@@ -13953,7 +14421,7 @@
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1095">
         <v>0</v>
@@ -13961,7 +14429,7 @@
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1096">
         <v>0</v>
@@ -13969,7 +14437,7 @@
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1097">
         <v>0</v>
@@ -13977,7 +14445,7 @@
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B1098">
         <v>0</v>
@@ -13985,7 +14453,7 @@
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B1099">
         <v>0</v>
@@ -13993,7 +14461,7 @@
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B1100">
         <v>0</v>
@@ -14001,7 +14469,7 @@
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1101">
         <v>0</v>
@@ -14009,7 +14477,7 @@
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B1102">
         <v>0</v>
@@ -14017,7 +14485,7 @@
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1103">
         <v>0</v>
@@ -14025,7 +14493,7 @@
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1104">
         <v>0</v>
@@ -14033,7 +14501,7 @@
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1105">
         <v>0</v>
@@ -14041,7 +14509,7 @@
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B1106">
         <v>0</v>
@@ -14049,7 +14517,7 @@
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1107">
         <v>0</v>
@@ -14057,7 +14525,7 @@
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1108">
         <v>0</v>
@@ -14065,7 +14533,7 @@
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B1109">
         <v>0</v>
@@ -14073,7 +14541,7 @@
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B1110">
         <v>0</v>
@@ -14081,7 +14549,7 @@
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1111">
         <v>0</v>
@@ -14089,7 +14557,7 @@
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B1112">
         <v>0</v>
@@ -14097,7 +14565,7 @@
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1113">
         <v>0</v>
@@ -14105,7 +14573,7 @@
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1114">
         <v>0</v>
@@ -14113,7 +14581,7 @@
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1115">
         <v>0</v>
@@ -14121,7 +14589,7 @@
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1116">
         <v>0</v>
@@ -14129,7 +14597,7 @@
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1117">
         <v>0</v>
@@ -14137,7 +14605,7 @@
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1118">
         <v>0</v>
@@ -14145,7 +14613,7 @@
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1119">
         <v>0</v>
@@ -14153,7 +14621,7 @@
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1120">
         <v>0</v>
@@ -14161,7 +14629,7 @@
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1121">
         <v>0</v>
@@ -14169,7 +14637,7 @@
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1122">
         <v>0</v>
@@ -14177,7 +14645,7 @@
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1123">
         <v>0</v>
@@ -14185,7 +14653,7 @@
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1124">
         <v>0</v>
@@ -14193,7 +14661,7 @@
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1125">
         <v>0</v>
@@ -14201,7 +14669,7 @@
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1126">
         <v>0</v>
@@ -14209,7 +14677,7 @@
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1127">
         <v>0</v>
@@ -14217,7 +14685,7 @@
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1128">
         <v>0</v>
@@ -14225,7 +14693,7 @@
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1129">
         <v>0</v>
@@ -14233,7 +14701,7 @@
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1130">
         <v>0</v>
@@ -14241,7 +14709,7 @@
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1131">
         <v>0</v>
@@ -14249,7 +14717,7 @@
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1132">
         <v>0</v>
@@ -14257,7 +14725,7 @@
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1133">
         <v>0</v>
@@ -14265,7 +14733,7 @@
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1134">
         <v>0</v>
@@ -14273,7 +14741,7 @@
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1135">
         <v>0</v>
@@ -14281,7 +14749,7 @@
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B1136">
         <v>0</v>
@@ -14289,7 +14757,7 @@
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1137">
         <v>0</v>
@@ -14297,7 +14765,7 @@
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1138">
         <v>0</v>
@@ -14305,7 +14773,7 @@
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1139">
         <v>0</v>
@@ -14313,7 +14781,7 @@
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1140">
         <v>0</v>
@@ -14321,7 +14789,7 @@
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1141">
         <v>0</v>
@@ -14329,7 +14797,7 @@
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1142">
         <v>0</v>
@@ -14337,7 +14805,7 @@
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1143">
         <v>0</v>
@@ -14345,7 +14813,7 @@
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1144">
         <v>0</v>
@@ -14353,7 +14821,7 @@
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1145">
         <v>0</v>
@@ -14361,7 +14829,7 @@
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1146">
         <v>0</v>
@@ -14369,7 +14837,7 @@
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1147">
         <v>0</v>
@@ -14377,7 +14845,7 @@
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1148">
         <v>0</v>
@@ -14385,7 +14853,7 @@
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1149">
         <v>0</v>
@@ -14393,7 +14861,7 @@
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1150">
         <v>0</v>
@@ -14401,7 +14869,7 @@
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1151">
         <v>0</v>
@@ -14409,7 +14877,7 @@
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1152">
         <v>0</v>
@@ -14417,7 +14885,7 @@
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1153">
         <v>0</v>
@@ -14425,7 +14893,7 @@
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1154">
         <v>0</v>
@@ -14433,7 +14901,7 @@
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1155">
         <v>0</v>
@@ -14441,7 +14909,7 @@
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1156">
         <v>0</v>
@@ -14449,7 +14917,7 @@
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1157">
         <v>0</v>
@@ -14457,7 +14925,7 @@
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B1158">
         <v>0</v>
@@ -14465,7 +14933,7 @@
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B1159">
         <v>0</v>
@@ -14473,7 +14941,7 @@
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1160">
         <v>0</v>
@@ -14481,7 +14949,7 @@
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1161">
         <v>0</v>
@@ -14489,7 +14957,7 @@
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1162">
         <v>0</v>
@@ -14497,7 +14965,7 @@
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1163">
         <v>0</v>
@@ -14505,7 +14973,7 @@
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B1164">
         <v>0</v>
@@ -14513,7 +14981,7 @@
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1165">
         <v>0</v>
@@ -14521,7 +14989,7 @@
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1166">
         <v>0</v>
@@ -14529,7 +14997,7 @@
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B1167">
         <v>0</v>
@@ -14537,7 +15005,7 @@
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1168">
         <v>0</v>
@@ -14545,7 +15013,7 @@
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1169">
         <v>0</v>
@@ -14553,7 +15021,7 @@
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1170">
         <v>0</v>
@@ -14561,7 +15029,7 @@
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B1171">
         <v>0</v>
@@ -14569,7 +15037,7 @@
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B1172">
         <v>0</v>
@@ -14577,7 +15045,7 @@
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B1173">
         <v>0</v>
@@ -14585,7 +15053,7 @@
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1174">
         <v>0</v>
@@ -14593,7 +15061,7 @@
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1175">
         <v>0</v>
@@ -14601,7 +15069,7 @@
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1176">
         <v>0</v>
@@ -14609,7 +15077,7 @@
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B1177">
         <v>0</v>
@@ -14617,7 +15085,7 @@
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1178">
         <v>0</v>
@@ -14625,7 +15093,7 @@
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B1179">
         <v>0</v>
@@ -14633,7 +15101,7 @@
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B1180">
         <v>0</v>
@@ -14641,7 +15109,7 @@
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1181">
         <v>0</v>
@@ -14649,7 +15117,7 @@
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B1182">
         <v>0</v>
@@ -14657,7 +15125,7 @@
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B1183">
         <v>0</v>
@@ -14665,7 +15133,7 @@
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B1184">
         <v>0</v>
@@ -14673,7 +15141,7 @@
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B1185">
         <v>0</v>
@@ -14681,7 +15149,7 @@
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B1186">
         <v>0</v>
@@ -14689,7 +15157,7 @@
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1187">
         <v>0</v>
@@ -14697,7 +15165,7 @@
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B1188">
         <v>0</v>
@@ -14705,7 +15173,7 @@
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B1189">
         <v>0</v>
@@ -14713,7 +15181,7 @@
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1190">
         <v>0</v>
@@ -14721,7 +15189,7 @@
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B1191">
         <v>0</v>
@@ -14729,7 +15197,7 @@
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B1192">
         <v>0</v>
@@ -14737,7 +15205,7 @@
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1193">
         <v>0</v>
@@ -14745,7 +15213,7 @@
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1194">
         <v>0</v>
@@ -14753,7 +15221,7 @@
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1195">
         <v>0</v>
@@ -14761,7 +15229,7 @@
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1196">
         <v>1</v>
@@ -14769,7 +15237,7 @@
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1197">
         <v>1</v>
@@ -14777,7 +15245,7 @@
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1198">
         <v>1</v>
@@ -14785,7 +15253,7 @@
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1199">
         <v>1</v>
@@ -14793,7 +15261,7 @@
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1200">
         <v>1</v>
@@ -14801,7 +15269,7 @@
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1201">
         <v>1</v>
@@ -14809,7 +15277,7 @@
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1202">
         <v>1</v>
@@ -14817,7 +15285,7 @@
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1203">
         <v>1</v>
@@ -14825,7 +15293,7 @@
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1204">
         <v>1</v>
@@ -14833,7 +15301,7 @@
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1205">
         <v>1</v>
@@ -14841,7 +15309,7 @@
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1206">
         <v>1</v>
@@ -14849,7 +15317,7 @@
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1207">
         <v>1</v>
@@ -14857,7 +15325,7 @@
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1208">
         <v>1</v>
@@ -14865,7 +15333,7 @@
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1209">
         <v>1</v>
@@ -14873,7 +15341,7 @@
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1210">
         <v>1</v>
@@ -14881,7 +15349,7 @@
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1211">
         <v>1</v>
@@ -14889,7 +15357,7 @@
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1212">
         <v>1</v>
@@ -14897,7 +15365,7 @@
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1213">
         <v>1</v>
@@ -14905,7 +15373,7 @@
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1214">
         <v>1</v>
@@ -14913,7 +15381,7 @@
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1215">
         <v>1</v>
@@ -14921,7 +15389,7 @@
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1216">
         <v>1</v>
@@ -14929,7 +15397,7 @@
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1217">
         <v>1</v>
@@ -14937,7 +15405,7 @@
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1218">
         <v>1</v>
@@ -14945,7 +15413,7 @@
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1219">
         <v>1</v>
@@ -14953,7 +15421,7 @@
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1220">
         <v>1</v>
@@ -14961,7 +15429,7 @@
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1221">
         <v>1</v>
@@ -14969,7 +15437,7 @@
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B1222">
         <v>1</v>
@@ -14977,7 +15445,7 @@
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1223">
         <v>1</v>
@@ -14985,7 +15453,7 @@
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1224">
         <v>1</v>
@@ -14993,7 +15461,7 @@
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1225">
         <v>1</v>
@@ -15001,7 +15469,7 @@
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1226">
         <v>1</v>
@@ -15009,7 +15477,7 @@
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1227">
         <v>1</v>
@@ -15017,7 +15485,7 @@
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1228">
         <v>1</v>
@@ -15025,7 +15493,7 @@
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1229">
         <v>1</v>
@@ -15033,7 +15501,7 @@
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1230">
         <v>1</v>
@@ -15041,7 +15509,7 @@
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1231">
         <v>1</v>
@@ -15049,7 +15517,7 @@
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B1232">
         <v>1</v>
@@ -15057,7 +15525,7 @@
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B1233">
         <v>1</v>
@@ -15065,7 +15533,7 @@
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1234">
         <v>1</v>
@@ -15073,7 +15541,7 @@
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1235">
         <v>1</v>
@@ -15081,7 +15549,7 @@
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B1236">
         <v>1</v>
@@ -15089,7 +15557,7 @@
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B1237">
         <v>1</v>
@@ -15097,7 +15565,7 @@
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1238">
         <v>1</v>
@@ -15105,7 +15573,7 @@
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1239">
         <v>1</v>
@@ -15113,7 +15581,7 @@
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1240">
         <v>1</v>
@@ -15121,7 +15589,7 @@
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1241">
         <v>1</v>
@@ -15129,7 +15597,7 @@
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1242">
         <v>1</v>
@@ -15137,7 +15605,7 @@
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1243">
         <v>1</v>
@@ -15145,7 +15613,7 @@
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1244">
         <v>1</v>
@@ -15153,7 +15621,7 @@
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1245">
         <v>1</v>
@@ -15161,7 +15629,7 @@
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1246">
         <v>1</v>
@@ -15169,7 +15637,7 @@
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1247">
         <v>1</v>
@@ -15177,7 +15645,7 @@
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1248">
         <v>1</v>
@@ -15185,7 +15653,7 @@
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1249">
         <v>1</v>
@@ -15193,7 +15661,7 @@
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1250">
         <v>1</v>
@@ -15201,7 +15669,7 @@
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1251">
         <v>1</v>
@@ -15209,7 +15677,7 @@
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1252">
         <v>1</v>
@@ -15217,7 +15685,7 @@
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1253">
         <v>1</v>
@@ -15225,7 +15693,7 @@
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1254">
         <v>1</v>
@@ -15233,7 +15701,7 @@
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1255">
         <v>1</v>
@@ -15241,7 +15709,7 @@
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1256">
         <v>1</v>
@@ -15249,7 +15717,7 @@
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1257">
         <v>1</v>
@@ -15257,7 +15725,7 @@
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1258">
         <v>1</v>
@@ -15265,7 +15733,7 @@
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B1259">
         <v>1</v>
@@ -15273,7 +15741,7 @@
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B1260">
         <v>1</v>
@@ -15281,7 +15749,7 @@
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B1261">
         <v>1</v>
@@ -15289,7 +15757,7 @@
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B1262">
         <v>1</v>
@@ -15297,7 +15765,7 @@
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B1263">
         <v>1</v>
@@ -15305,7 +15773,7 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1264">
         <v>1</v>
@@ -15313,7 +15781,7 @@
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1265">
         <v>1</v>
@@ -15321,7 +15789,7 @@
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1266">
         <v>1</v>
@@ -15329,7 +15797,7 @@
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1267">
         <v>1</v>
@@ -15337,7 +15805,7 @@
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1268">
         <v>1</v>
@@ -15345,7 +15813,7 @@
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1269">
         <v>1</v>
@@ -15353,7 +15821,7 @@
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1270">
         <v>1</v>
@@ -15361,7 +15829,7 @@
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1271">
         <v>1</v>
@@ -15369,7 +15837,7 @@
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1272">
         <v>1</v>
@@ -15377,7 +15845,7 @@
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1273">
         <v>1</v>
@@ -15385,7 +15853,7 @@
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1274">
         <v>1</v>
@@ -15393,7 +15861,7 @@
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1275">
         <v>1</v>
@@ -15401,7 +15869,7 @@
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1276">
         <v>1</v>
@@ -15409,7 +15877,7 @@
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1277">
         <v>1</v>
@@ -15417,7 +15885,7 @@
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1278">
         <v>1</v>
@@ -15425,7 +15893,7 @@
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1279">
         <v>1</v>
@@ -15433,7 +15901,7 @@
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1280">
         <v>1</v>
@@ -15441,7 +15909,7 @@
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1281">
         <v>1</v>
@@ -15449,7 +15917,7 @@
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1282">
         <v>1</v>
@@ -15457,7 +15925,7 @@
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1283">
         <v>1</v>
@@ -15465,7 +15933,7 @@
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1284">
         <v>1</v>
@@ -15473,7 +15941,7 @@
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1285">
         <v>1</v>
@@ -15481,7 +15949,7 @@
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1286">
         <v>1</v>
@@ -15489,7 +15957,7 @@
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1287">
         <v>1</v>
@@ -15497,7 +15965,7 @@
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1288">
         <v>1</v>
@@ -15505,7 +15973,7 @@
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1289">
         <v>1</v>
@@ -15513,7 +15981,7 @@
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1290">
         <v>1</v>
@@ -15521,7 +15989,7 @@
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1291">
         <v>1</v>
@@ -15529,7 +15997,7 @@
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B1292">
         <v>1</v>
@@ -15537,7 +16005,7 @@
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1293">
         <v>1</v>
@@ -15545,7 +16013,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1294">
         <v>1</v>
@@ -15553,7 +16021,7 @@
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B1295">
         <v>1</v>
@@ -15561,7 +16029,7 @@
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1296">
         <v>1</v>
@@ -15569,7 +16037,7 @@
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1297">
         <v>1</v>
@@ -15577,7 +16045,7 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1298">
         <v>1</v>
@@ -15585,7 +16053,7 @@
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1299">
         <v>1</v>
@@ -15593,7 +16061,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1300">
         <v>1</v>
@@ -15601,7 +16069,7 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1301">
         <v>1</v>
@@ -15609,7 +16077,7 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1302">
         <v>1</v>
@@ -15617,7 +16085,7 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1303">
         <v>1</v>
@@ -15625,7 +16093,7 @@
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1304">
         <v>1</v>
@@ -15633,7 +16101,7 @@
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1305">
         <v>1</v>
@@ -15641,7 +16109,7 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1306">
         <v>1</v>
@@ -15649,7 +16117,7 @@
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1307">
         <v>1</v>
@@ -15657,7 +16125,7 @@
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1308">
         <v>1</v>
@@ -15665,7 +16133,7 @@
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B1309">
         <v>1</v>
@@ -15673,7 +16141,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1310">
         <v>1</v>
@@ -15681,7 +16149,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1311">
         <v>1</v>
@@ -15689,7 +16157,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1312">
         <v>1</v>
@@ -15697,7 +16165,7 @@
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1313">
         <v>1</v>
@@ -15705,7 +16173,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1314">
         <v>1</v>
@@ -15713,7 +16181,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1315">
         <v>1</v>
@@ -15721,7 +16189,7 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B1316">
         <v>1</v>
@@ -15729,7 +16197,7 @@
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1317">
         <v>1</v>
@@ -15737,7 +16205,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1318">
         <v>1</v>
@@ -15745,7 +16213,7 @@
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1319">
         <v>1</v>
@@ -15753,7 +16221,7 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B1320">
         <v>1</v>
@@ -15761,7 +16229,7 @@
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1321">
         <v>1</v>
@@ -15769,7 +16237,7 @@
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1322">
         <v>1</v>
@@ -15777,7 +16245,7 @@
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1323">
         <v>1</v>
@@ -15785,7 +16253,7 @@
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1324">
         <v>1</v>
@@ -15793,7 +16261,7 @@
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1325">
         <v>1</v>
@@ -15801,7 +16269,7 @@
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1326">
         <v>1</v>
@@ -15809,7 +16277,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1327">
         <v>1</v>
@@ -15817,7 +16285,7 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1328">
         <v>1</v>
@@ -15825,7 +16293,7 @@
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1329">
         <v>1</v>
@@ -15833,7 +16301,7 @@
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1330">
         <v>1</v>
@@ -15841,7 +16309,7 @@
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1331">
         <v>1</v>
@@ -15849,7 +16317,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1332">
         <v>1</v>
@@ -15857,7 +16325,7 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1333">
         <v>1</v>
@@ -15865,7 +16333,7 @@
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1334">
         <v>1</v>
@@ -15873,7 +16341,7 @@
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1335">
         <v>1</v>
@@ -15881,7 +16349,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1336">
         <v>1</v>
@@ -15889,7 +16357,7 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1337">
         <v>1</v>
@@ -15897,7 +16365,7 @@
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1338">
         <v>1</v>
@@ -15905,7 +16373,7 @@
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1339">
         <v>1</v>
@@ -15913,7 +16381,7 @@
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1340">
         <v>1</v>
@@ -15921,7 +16389,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1341">
         <v>1</v>
@@ -15929,7 +16397,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1342">
         <v>1</v>
@@ -15937,7 +16405,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1343">
         <v>1</v>
@@ -15945,7 +16413,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1344">
         <v>1</v>
@@ -15953,7 +16421,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1345">
         <v>1</v>
@@ -15961,7 +16429,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1346">
         <v>1</v>
@@ -15969,7 +16437,7 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1347">
         <v>1</v>
@@ -15977,7 +16445,7 @@
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1348">
         <v>1</v>
@@ -15985,7 +16453,7 @@
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1349">
         <v>1</v>
@@ -15993,7 +16461,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1350">
         <v>1</v>
@@ -16001,7 +16469,7 @@
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1351">
         <v>1</v>
@@ -16009,7 +16477,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1352">
         <v>1</v>
@@ -16017,7 +16485,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1353">
         <v>1</v>
@@ -16025,7 +16493,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1354">
         <v>1</v>
@@ -16033,7 +16501,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B1355">
         <v>1</v>
@@ -16041,7 +16509,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1356">
         <v>1</v>
@@ -16049,7 +16517,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1357">
         <v>1</v>
@@ -16057,7 +16525,7 @@
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B1358">
         <v>1</v>
@@ -16065,7 +16533,7 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1359">
         <v>1</v>
@@ -16073,7 +16541,7 @@
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1360">
         <v>1</v>
@@ -16081,7 +16549,7 @@
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1361">
         <v>1</v>
@@ -16089,7 +16557,7 @@
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1362">
         <v>1</v>
@@ -16097,7 +16565,7 @@
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1363">
         <v>1</v>
@@ -16105,7 +16573,7 @@
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1364">
         <v>1</v>
@@ -16113,7 +16581,7 @@
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1365">
         <v>1</v>
@@ -16121,7 +16589,7 @@
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1366">
         <v>1</v>
@@ -16129,7 +16597,7 @@
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1367">
         <v>0</v>
@@ -16137,7 +16605,7 @@
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1368">
         <v>0</v>
@@ -16145,7 +16613,7 @@
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1369">
         <v>0</v>
@@ -16153,7 +16621,7 @@
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1370">
         <v>0</v>
@@ -16161,7 +16629,7 @@
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1371">
         <v>0</v>
@@ -16169,7 +16637,7 @@
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1372">
         <v>0</v>
@@ -16177,7 +16645,7 @@
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1373">
         <v>0</v>
@@ -16185,7 +16653,7 @@
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1374">
         <v>0</v>
@@ -16193,7 +16661,7 @@
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1375">
         <v>0</v>
@@ -16201,7 +16669,7 @@
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1376">
         <v>0</v>
@@ -16209,7 +16677,7 @@
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1377">
         <v>0</v>
@@ -16217,7 +16685,7 @@
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1378">
         <v>0</v>
@@ -16225,7 +16693,7 @@
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1379">
         <v>0</v>
@@ -16233,7 +16701,7 @@
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1380">
         <v>0</v>
@@ -16241,7 +16709,7 @@
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1381">
         <v>0</v>
@@ -16249,7 +16717,7 @@
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1382">
         <v>0</v>
@@ -16257,7 +16725,7 @@
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1383">
         <v>0</v>
@@ -16265,7 +16733,7 @@
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1384">
         <v>0</v>
@@ -16273,7 +16741,7 @@
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1385">
         <v>0</v>
@@ -16281,7 +16749,7 @@
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1386">
         <v>0</v>
@@ -16289,7 +16757,7 @@
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1387">
         <v>0</v>
@@ -16297,7 +16765,7 @@
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1388">
         <v>0</v>
@@ -16305,7 +16773,7 @@
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1389">
         <v>0</v>
@@ -16313,7 +16781,7 @@
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1390">
         <v>0</v>
@@ -16321,7 +16789,7 @@
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1391">
         <v>0</v>
@@ -16329,7 +16797,7 @@
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1392">
         <v>0</v>
@@ -16337,7 +16805,7 @@
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1393">
         <v>0</v>
@@ -16345,7 +16813,7 @@
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1394">
         <v>0</v>
@@ -16353,7 +16821,7 @@
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1395">
         <v>0</v>
@@ -16361,7 +16829,7 @@
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1396">
         <v>0</v>
@@ -16369,7 +16837,7 @@
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1397">
         <v>0</v>
@@ -16377,7 +16845,7 @@
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1398">
         <v>0</v>
@@ -16385,7 +16853,7 @@
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1399">
         <v>0</v>
@@ -16393,7 +16861,7 @@
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1400">
         <v>0</v>
@@ -16401,7 +16869,7 @@
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1401">
         <v>0</v>
@@ -16409,7 +16877,7 @@
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1402">
         <v>0</v>
@@ -16417,7 +16885,7 @@
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1403">
         <v>0</v>
@@ -16425,7 +16893,7 @@
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1404">
         <v>0</v>
@@ -16433,7 +16901,7 @@
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1405">
         <v>0</v>
@@ -16441,7 +16909,7 @@
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1406">
         <v>0</v>
@@ -16449,7 +16917,7 @@
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1407">
         <v>0</v>
@@ -16457,7 +16925,7 @@
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1408">
         <v>0</v>
@@ -16465,7 +16933,7 @@
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1409">
         <v>0</v>
@@ -16473,7 +16941,7 @@
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1410">
         <v>0</v>
@@ -16481,7 +16949,7 @@
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1411">
         <v>0</v>
@@ -16489,7 +16957,7 @@
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1412">
         <v>0</v>
@@ -16497,7 +16965,7 @@
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1413">
         <v>0</v>
@@ -16505,7 +16973,7 @@
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1414">
         <v>0</v>
@@ -16513,7 +16981,7 @@
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1415">
         <v>0</v>
@@ -16521,7 +16989,7 @@
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1416">
         <v>0</v>
@@ -16529,7 +16997,7 @@
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1417">
         <v>0</v>
@@ -16537,7 +17005,7 @@
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1418">
         <v>0</v>
@@ -16545,7 +17013,7 @@
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1419">
         <v>0</v>
@@ -16553,7 +17021,7 @@
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1420">
         <v>0</v>
@@ -16561,7 +17029,7 @@
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1421">
         <v>0</v>
@@ -16569,7 +17037,7 @@
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1422">
         <v>0</v>
@@ -16577,7 +17045,7 @@
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1423">
         <v>0</v>
@@ -16585,7 +17053,7 @@
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1424">
         <v>0</v>
@@ -16593,7 +17061,7 @@
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1425">
         <v>0</v>
@@ -16601,7 +17069,7 @@
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1426">
         <v>0</v>
@@ -16609,7 +17077,7 @@
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1427">
         <v>0</v>
@@ -16617,7 +17085,7 @@
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1428">
         <v>0</v>
@@ -16625,7 +17093,7 @@
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1429">
         <v>0</v>
@@ -16633,7 +17101,7 @@
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1430">
         <v>0</v>
@@ -16641,7 +17109,7 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1431">
         <v>0</v>
@@ -16649,7 +17117,7 @@
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1432">
         <v>0</v>
@@ -16657,7 +17125,7 @@
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1433">
         <v>0</v>
@@ -16665,7 +17133,7 @@
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1434">
         <v>0</v>
@@ -16673,7 +17141,7 @@
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1435">
         <v>0</v>
@@ -16681,7 +17149,7 @@
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1436">
         <v>0</v>
@@ -16689,7 +17157,7 @@
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1437">
         <v>0</v>
@@ -16697,7 +17165,7 @@
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1438">
         <v>0</v>
@@ -16705,7 +17173,7 @@
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1439">
         <v>0</v>
@@ -16713,7 +17181,7 @@
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1440">
         <v>0</v>
@@ -16721,7 +17189,7 @@
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1441">
         <v>0</v>
@@ -16729,7 +17197,7 @@
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1442">
         <v>0</v>
@@ -16737,7 +17205,7 @@
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1443">
         <v>0</v>
@@ -16745,7 +17213,7 @@
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1444">
         <v>0</v>
@@ -16753,7 +17221,7 @@
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1445">
         <v>0</v>
@@ -16761,7 +17229,7 @@
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1446">
         <v>0</v>
@@ -16769,7 +17237,7 @@
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1447">
         <v>0</v>
@@ -16777,7 +17245,7 @@
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1448">
         <v>0</v>
@@ -16785,7 +17253,7 @@
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1449">
         <v>0</v>
@@ -16793,7 +17261,7 @@
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1450">
         <v>0</v>
@@ -16801,7 +17269,7 @@
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1451">
         <v>0</v>
@@ -16809,7 +17277,7 @@
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1452">
         <v>0</v>
@@ -16817,7 +17285,7 @@
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1453">
         <v>0</v>
@@ -16825,7 +17293,7 @@
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1454">
         <v>0</v>
@@ -16833,7 +17301,7 @@
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1455">
         <v>0</v>
@@ -16841,7 +17309,7 @@
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1456">
         <v>0</v>
@@ -16849,7 +17317,7 @@
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1457">
         <v>0</v>
@@ -16857,7 +17325,7 @@
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1458">
         <v>0</v>
@@ -16865,7 +17333,7 @@
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1459">
         <v>0</v>
@@ -16873,7 +17341,7 @@
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1460">
         <v>0</v>
@@ -16881,7 +17349,7 @@
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1461">
         <v>0</v>
@@ -16889,7 +17357,7 @@
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1462">
         <v>0</v>
@@ -16897,7 +17365,7 @@
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1463">
         <v>0</v>
@@ -16905,7 +17373,7 @@
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1464">
         <v>0</v>
@@ -16913,7 +17381,7 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1465">
         <v>0</v>
@@ -16921,7 +17389,7 @@
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1466">
         <v>0</v>
@@ -16929,7 +17397,7 @@
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1467">
         <v>0</v>
@@ -16937,7 +17405,7 @@
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1468">
         <v>0</v>
@@ -16945,7 +17413,7 @@
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1469">
         <v>0</v>
@@ -16953,7 +17421,7 @@
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B1470">
         <v>0</v>
@@ -16961,7 +17429,7 @@
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1471">
         <v>0</v>
@@ -16969,7 +17437,7 @@
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1472">
         <v>0</v>
@@ -16977,7 +17445,7 @@
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1473">
         <v>0</v>
@@ -16985,7 +17453,7 @@
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1474">
         <v>0</v>
@@ -16993,7 +17461,7 @@
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1475">
         <v>0</v>
@@ -17001,7 +17469,7 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1476">
         <v>0</v>
@@ -17009,7 +17477,7 @@
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1477">
         <v>0</v>
@@ -17017,7 +17485,7 @@
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1478">
         <v>0</v>
@@ -17025,7 +17493,7 @@
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1479">
         <v>0</v>
@@ -17033,7 +17501,7 @@
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1480">
         <v>0</v>
@@ -17041,7 +17509,7 @@
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1481">
         <v>0</v>
@@ -17049,7 +17517,7 @@
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1482">
         <v>0</v>
@@ -17057,7 +17525,7 @@
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1483">
         <v>0</v>
@@ -17065,7 +17533,7 @@
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1484">
         <v>0</v>
@@ -17073,7 +17541,7 @@
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1485">
         <v>0</v>
@@ -17081,7 +17549,7 @@
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1486">
         <v>0</v>
@@ -17089,7 +17557,7 @@
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1487">
         <v>0</v>
@@ -17097,7 +17565,7 @@
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1488">
         <v>0</v>
@@ -17105,7 +17573,7 @@
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1489">
         <v>0</v>
@@ -17113,7 +17581,7 @@
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1490">
         <v>0</v>
@@ -17121,7 +17589,7 @@
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1491">
         <v>0</v>
@@ -17129,7 +17597,7 @@
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1492">
         <v>0</v>
@@ -17137,7 +17605,7 @@
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1493">
         <v>0</v>
@@ -17145,7 +17613,7 @@
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1494">
         <v>0</v>
@@ -17153,7 +17621,7 @@
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1495">
         <v>0</v>
@@ -17161,7 +17629,7 @@
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1496">
         <v>0</v>
@@ -17169,7 +17637,7 @@
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1497">
         <v>0</v>
@@ -17177,7 +17645,7 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1498">
         <v>0</v>
@@ -17185,7 +17653,7 @@
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1499">
         <v>0</v>
@@ -17193,7 +17661,7 @@
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1500">
         <v>0</v>
@@ -17201,7 +17669,7 @@
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1501">
         <v>0</v>
@@ -17209,7 +17677,7 @@
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1502">
         <v>0</v>
@@ -17217,7 +17685,7 @@
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1503">
         <v>0</v>
@@ -17225,7 +17693,7 @@
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1504">
         <v>0</v>
@@ -17233,7 +17701,7 @@
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1505">
         <v>0</v>
@@ -17241,7 +17709,7 @@
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1506">
         <v>0</v>
@@ -17249,7 +17717,7 @@
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1507">
         <v>0</v>
@@ -17257,7 +17725,7 @@
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1508">
         <v>0</v>
@@ -17265,7 +17733,7 @@
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1509">
         <v>0</v>
@@ -17273,7 +17741,7 @@
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1510">
         <v>0</v>
@@ -17281,7 +17749,7 @@
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1511">
         <v>0</v>
@@ -17289,7 +17757,7 @@
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1512">
         <v>0</v>
@@ -17297,7 +17765,7 @@
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1513">
         <v>0</v>
@@ -17305,7 +17773,7 @@
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1514">
         <v>0</v>
@@ -17313,7 +17781,7 @@
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1515">
         <v>0</v>
@@ -17321,7 +17789,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1516">
         <v>0</v>
@@ -17329,7 +17797,7 @@
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1517">
         <v>0</v>
@@ -17337,7 +17805,7 @@
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1518">
         <v>0</v>
@@ -17345,7 +17813,7 @@
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1519">
         <v>0</v>
@@ -17353,7 +17821,7 @@
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1520">
         <v>0</v>
@@ -17361,7 +17829,7 @@
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1521">
         <v>0</v>
@@ -17369,7 +17837,7 @@
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1522">
         <v>0</v>
@@ -17377,7 +17845,7 @@
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1523">
         <v>0</v>
@@ -17385,7 +17853,7 @@
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1524">
         <v>0</v>
@@ -17393,7 +17861,7 @@
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1525">
         <v>0</v>
@@ -17401,7 +17869,7 @@
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1526">
         <v>0</v>
@@ -17409,7 +17877,7 @@
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1527">
         <v>0</v>
@@ -17417,7 +17885,7 @@
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1528">
         <v>0</v>
@@ -17425,7 +17893,7 @@
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1529">
         <v>0</v>
@@ -17433,7 +17901,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1530">
         <v>0</v>
@@ -17441,7 +17909,7 @@
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B1531">
         <v>0</v>
@@ -17449,7 +17917,7 @@
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1532">
         <v>0</v>
@@ -17457,7 +17925,7 @@
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B1533">
         <v>0</v>
@@ -17465,7 +17933,7 @@
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1534">
         <v>0</v>
@@ -17473,7 +17941,7 @@
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B1535">
         <v>0</v>
@@ -17481,7 +17949,7 @@
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1536">
         <v>0</v>
@@ -17489,7 +17957,7 @@
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1537">
         <v>0</v>
@@ -17497,7 +17965,7 @@
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1538">
         <v>0</v>
@@ -17505,7 +17973,7 @@
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1539">
         <v>0</v>
@@ -17513,7 +17981,7 @@
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1540">
         <v>0</v>
@@ -17521,7 +17989,7 @@
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1541">
         <v>0</v>
@@ -17529,7 +17997,7 @@
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1542">
         <v>0</v>
@@ -17537,7 +18005,7 @@
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1543">
         <v>0</v>
@@ -17545,7 +18013,7 @@
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B1544">
         <v>0</v>
@@ -17553,7 +18021,7 @@
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B1545">
         <v>0</v>
@@ -17561,7 +18029,7 @@
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1546">
         <v>0</v>
@@ -17569,7 +18037,7 @@
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B1547">
         <v>0</v>
@@ -17577,7 +18045,7 @@
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B1548">
         <v>0</v>
@@ -17585,7 +18053,7 @@
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1549">
         <v>0</v>
@@ -17593,7 +18061,7 @@
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1550">
         <v>0</v>
@@ -17601,7 +18069,7 @@
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B1551">
         <v>0</v>
@@ -17609,7 +18077,7 @@
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B1552">
         <v>0</v>
@@ -17617,7 +18085,7 @@
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B1553">
         <v>0</v>
@@ -17625,7 +18093,7 @@
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B1554">
         <v>0</v>
@@ -17633,7 +18101,7 @@
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B1555">
         <v>0</v>
@@ -17641,7 +18109,7 @@
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1556">
         <v>0</v>
@@ -17649,7 +18117,7 @@
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B1557">
         <v>0</v>
@@ -17657,7 +18125,7 @@
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1558">
         <v>0</v>
@@ -17665,7 +18133,7 @@
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1559">
         <v>0</v>
@@ -17673,7 +18141,7 @@
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B1560">
         <v>0</v>
@@ -17681,7 +18149,7 @@
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1561">
         <v>0</v>
@@ -17689,7 +18157,7 @@
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1562">
         <v>0</v>
@@ -17697,7 +18165,7 @@
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1563">
         <v>0</v>
@@ -17705,7 +18173,7 @@
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1564">
         <v>0</v>
@@ -17713,7 +18181,7 @@
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1565">
         <v>0</v>
@@ -17721,7 +18189,7 @@
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1566">
         <v>0</v>
@@ -17729,7 +18197,7 @@
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1567">
         <v>0</v>
@@ -17737,7 +18205,7 @@
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1568">
         <v>0</v>
@@ -17745,7 +18213,7 @@
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1569">
         <v>0</v>
@@ -17753,7 +18221,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B1570">
         <v>0</v>
@@ -17761,7 +18229,7 @@
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B1571">
         <v>0</v>
@@ -17769,7 +18237,7 @@
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1572">
         <v>0</v>
@@ -17777,7 +18245,7 @@
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B1573">
         <v>0</v>
@@ -17785,7 +18253,7 @@
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1574">
         <v>0</v>
@@ -17793,7 +18261,7 @@
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1575">
         <v>0</v>
@@ -17801,7 +18269,7 @@
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B1576">
         <v>0</v>
@@ -17809,7 +18277,7 @@
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1577">
         <v>0</v>
@@ -17817,7 +18285,7 @@
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1578">
         <v>0</v>
@@ -17825,7 +18293,7 @@
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1579">
         <v>0</v>
@@ -17833,7 +18301,7 @@
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1580">
         <v>0</v>
@@ -17841,7 +18309,7 @@
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1581">
         <v>0</v>
@@ -17849,7 +18317,7 @@
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B1582">
         <v>0</v>
@@ -17857,7 +18325,7 @@
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1583">
         <v>0</v>
@@ -17865,7 +18333,7 @@
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1584">
         <v>0</v>
@@ -17873,7 +18341,7 @@
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1585">
         <v>0</v>
@@ -17881,7 +18349,7 @@
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B1586">
         <v>0</v>
@@ -17889,7 +18357,7 @@
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B1587">
         <v>0</v>
@@ -17897,7 +18365,7 @@
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B1588">
         <v>0</v>
@@ -17905,7 +18373,7 @@
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1589">
         <v>0</v>
@@ -17913,7 +18381,7 @@
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1590" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B1590">
         <v>0</v>
@@ -17921,7 +18389,7 @@
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1591">
         <v>0</v>
@@ -17929,7 +18397,7 @@
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1592">
         <v>0</v>
@@ -17937,7 +18405,7 @@
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1593">
         <v>0</v>
@@ -17945,7 +18413,7 @@
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1594">
         <v>0</v>
@@ -17953,7 +18421,7 @@
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1595">
         <v>0</v>
@@ -17961,7 +18429,7 @@
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B1596">
         <v>0</v>
@@ -17969,7 +18437,7 @@
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B1597">
         <v>0</v>
@@ -17977,7 +18445,7 @@
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1598">
         <v>0</v>
@@ -17985,7 +18453,7 @@
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1599" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1599">
         <v>0</v>
@@ -17993,7 +18461,7 @@
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1600">
         <v>0</v>
@@ -18001,7 +18469,7 @@
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1601">
         <v>0</v>
@@ -18009,7 +18477,7 @@
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1602">
         <v>0</v>
@@ -18017,7 +18485,7 @@
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1603">
         <v>0</v>
@@ -18025,7 +18493,7 @@
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1604">
         <v>0</v>
@@ -18033,7 +18501,7 @@
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1605">
         <v>0</v>
@@ -18041,7 +18509,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1606">
         <v>0</v>
@@ -18049,7 +18517,7 @@
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1607">
         <v>0</v>
@@ -18057,7 +18525,7 @@
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1608">
         <v>0</v>
@@ -18065,7 +18533,7 @@
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1609">
         <v>0</v>
@@ -18073,7 +18541,7 @@
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B1610">
         <v>0</v>
@@ -18081,7 +18549,7 @@
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1611">
         <v>0</v>
@@ -18089,7 +18557,7 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1612">
         <v>0</v>
@@ -18097,7 +18565,7 @@
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1613">
         <v>0</v>
@@ -18105,7 +18573,7 @@
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1614">
         <v>0</v>
@@ -18113,7 +18581,7 @@
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B1615">
         <v>0</v>
@@ -18121,7 +18589,7 @@
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1616">
         <v>0</v>
@@ -18129,7 +18597,7 @@
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1617">
         <v>0</v>
@@ -18137,7 +18605,7 @@
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1618">
         <v>0</v>
@@ -18145,7 +18613,7 @@
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1619" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1619">
         <v>0</v>
@@ -18153,7 +18621,7 @@
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1620">
         <v>0</v>
@@ -18161,7 +18629,7 @@
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1621">
         <v>0</v>
@@ -18169,7 +18637,7 @@
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1622">
         <v>0</v>
@@ -18177,7 +18645,7 @@
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1623">
         <v>0</v>
@@ -18185,7 +18653,7 @@
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1624" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1624">
         <v>0</v>
@@ -18193,7 +18661,7 @@
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1625" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1625">
         <v>0</v>
@@ -18201,7 +18669,7 @@
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1626" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B1626">
         <v>0</v>
@@ -18209,7 +18677,7 @@
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1627" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B1627">
         <v>0</v>
@@ -18217,7 +18685,7 @@
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1628" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B1628">
         <v>0</v>
@@ -18225,7 +18693,7 @@
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1629" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B1629">
         <v>0</v>
@@ -18233,7 +18701,7 @@
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1630" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B1630">
         <v>0</v>
@@ -18241,7 +18709,7 @@
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1631" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B1631">
         <v>0</v>
@@ -18249,7 +18717,7 @@
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1632" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1632">
         <v>0</v>
@@ -18257,7 +18725,7 @@
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1633" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1633">
         <v>0</v>
@@ -18265,7 +18733,7 @@
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1634" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1634">
         <v>0</v>
@@ -18273,7 +18741,7 @@
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1635" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1635">
         <v>0</v>
@@ -18281,7 +18749,7 @@
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1636" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B1636">
         <v>0</v>
@@ -18289,7 +18757,7 @@
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1637" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1637">
         <v>0</v>
@@ -18297,7 +18765,7 @@
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1638" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B1638">
         <v>0</v>
@@ -18305,7 +18773,7 @@
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1639" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B1639">
         <v>0</v>
@@ -18313,7 +18781,7 @@
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B1640">
         <v>0</v>
@@ -18321,7 +18789,7 @@
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1641" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1641">
         <v>0</v>
@@ -18329,7 +18797,7 @@
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1642">
         <v>0</v>
@@ -18337,7 +18805,7 @@
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1643">
         <v>0</v>
@@ -18345,7 +18813,7 @@
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1644">
         <v>0</v>
@@ -18353,7 +18821,7 @@
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B1645">
         <v>0</v>
@@ -18361,7 +18829,7 @@
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1646">
         <v>0</v>
@@ -18369,7 +18837,7 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1647" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B1647">
         <v>0</v>
@@ -18377,7 +18845,7 @@
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B1648">
         <v>0</v>
@@ -18385,7 +18853,7 @@
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1649" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B1649">
         <v>0</v>
@@ -18393,7 +18861,7 @@
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1650" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1650">
         <v>0</v>
@@ -18401,7 +18869,7 @@
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1651" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1651">
         <v>0</v>
@@ -18409,7 +18877,7 @@
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B1652">
         <v>0</v>
@@ -18417,7 +18885,7 @@
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1653" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B1653">
         <v>0</v>
@@ -18425,7 +18893,7 @@
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1654" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1654">
         <v>0</v>
@@ -18433,7 +18901,7 @@
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B1655">
         <v>0</v>
@@ -18441,7 +18909,7 @@
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B1656">
         <v>0</v>
@@ -18449,7 +18917,7 @@
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B1657">
         <v>0</v>
@@ -18457,7 +18925,7 @@
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B1658">
         <v>0</v>
@@ -18465,7 +18933,7 @@
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B1659">
         <v>0</v>
@@ -18473,7 +18941,7 @@
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B1660">
         <v>0</v>
@@ -18481,7 +18949,7 @@
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B1661">
         <v>0</v>
@@ -18489,7 +18957,7 @@
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B1662">
         <v>0</v>
@@ -18497,7 +18965,7 @@
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1663">
         <v>0</v>
@@ -18505,14 +18973,1374 @@
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1664">
         <v>0</v>
       </c>
     </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1665" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1666" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1667" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1668" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1669" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1670" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1671" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1672" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1673" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1674" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1675" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1676" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1677" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1678" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1679" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1680" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1681" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1682" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1683" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1684" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1685" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1686" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1687" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1688" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1689" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1690" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1691" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1692" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1693" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1694" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1695" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1696" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1697" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1698" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1699" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1700" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1701" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1702" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1703" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1704" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1705" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1706" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1707" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1708" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1709" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1710" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1711" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1712" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1713" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1714" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1715" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1716" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1717" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1718" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1719" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1720" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1721" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1722" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1723" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1724" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1725" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1726" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1727" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1728" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1729" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1730" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1731" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1732" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1733" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1734" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1735" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1736" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1737" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1738" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1739" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1740" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1741" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1742" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1743" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1744" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1745" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1746" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1747" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1748" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1749" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1750" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1751" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1752" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1753" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1754" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1755" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1756" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1757" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1758" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1759" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1760" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1761" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1762" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1763" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1764" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1765" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1766" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1767" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1768" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1769" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1770" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1771" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1772" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1773" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1774" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1775" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1776" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1777" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1778" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1779" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1780" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1781" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1782" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1783" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1784" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1785" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1786" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1787" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1788" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1789" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1790" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1791" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1792" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1793" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1794" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1795" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1796" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1797" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1798" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1799" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1800" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1801" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1802" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1803" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1804" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1805" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1806" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1807" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1808" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1809" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1810" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1811" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1812" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1813" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1814" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1815" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1816" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1817" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1818" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1819" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1820" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1821" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1822" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1823" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1824" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1825" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1826" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1827" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1828" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1829" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1830" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1831" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1832" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1833" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1834" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1834">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1366" xr:uid="{9CDE5043-C137-4C10-B4EC-BE138981EE17}"/>
+  <autoFilter ref="A1:B1834" xr:uid="{9CDE5043-C137-4C10-B4EC-BE138981EE17}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEB6E75-13B0-44FB-9361-E4899CA7B433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B30D73-EA03-44CF-8E1C-E95952337BEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="2010">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -6126,6 +6126,99 @@
   </si>
   <si>
     <t>ZA5711A总线式火警电话盘</t>
+  </si>
+  <si>
+    <t>编码：WATER-GB50015-2019</t>
+  </si>
+  <si>
+    <t>编码：WATER-CJT158-2015</t>
+  </si>
+  <si>
+    <t>编码：WATER-ASMEB31.1-2018</t>
+  </si>
+  <si>
+    <t>编码：WATER-EN12056-1-2001</t>
+  </si>
+  <si>
+    <t>编码：WATER-ISO14097-2008</t>
+  </si>
+  <si>
+    <t>编码：WATER-CECS158-2004</t>
+  </si>
+  <si>
+    <t>编码：WATER-GBT18742-2002</t>
+  </si>
+  <si>
+    <t>编码：WATER-AWWAC200-17</t>
+  </si>
+  <si>
+    <t>编码：WATER-CSAB66-19</t>
+  </si>
+  <si>
+    <t>编码：WATER-DINEN12846-2014</t>
+  </si>
+  <si>
+    <t>编码：WATER-ASTMF679-19</t>
+  </si>
+  <si>
+    <t>编码：WATER-AS3500.1-2018</t>
+  </si>
+  <si>
+    <t>编码：WATER-JISB8303-2016</t>
+  </si>
+  <si>
+    <t>编码：WATER-SS620-2016</t>
+  </si>
+  <si>
+    <t>编码：WATER-CSAB181.1-16</t>
+  </si>
+  <si>
+    <t>编码：WATER-ISO2281-2011</t>
+  </si>
+  <si>
+    <t>编码：WATER-BSEN1451-1-2010</t>
+  </si>
+  <si>
+    <t>编码：WATER-NFP13-100-2016</t>
+  </si>
+  <si>
+    <t>编码：WATER-GBT19228.2-2011</t>
+  </si>
+  <si>
+    <t>PVC卷材楼面施工方法及技术措施</t>
+  </si>
+  <si>
+    <t>COSФ——电动机平均功率因数，一般施工现场为取0.7；</t>
+  </si>
+  <si>
+    <t>BIM全专业综合模型建立与设计协调</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ECOTECT软件操作界面  软件调用radiance软件计算的操作界面</t>
+  </si>
+  <si>
+    <t>IBMS实现对供配系统安全管理（事件记录、报警）。</t>
+  </si>
+  <si>
+    <t>INK\l"_Toc300305107"6.1施工管理组织机构-29-</t>
+  </si>
+  <si>
+    <t>NK\l"_Toc300305110"6.2.2各部门岗位职责-29-</t>
+  </si>
+  <si>
+    <t>PERLINK\l"_Toc300305136"10.3.1施工准备-73-</t>
+  </si>
+  <si>
+    <t>ERLINK\l"_Toc300305140"10.5技术保证措施-83-</t>
+  </si>
+  <si>
+    <t>CATALINA_HOME_BASE=/opt/tomcat/apache-tomcat-7.0.59</t>
+  </si>
+  <si>
+    <t>HTTPS配置（可选）</t>
+  </si>
+  <si>
+    <t>SELinux目录安全上下文调整</t>
   </si>
 </sst>
 </file>
@@ -6187,7 +6280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6200,6 +6293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6515,10 +6609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B2126"/>
+  <dimension ref="A1:B2157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2041" workbookViewId="0">
-      <selection activeCell="B2127" sqref="B2127"/>
+    <sheetView tabSelected="1" topLeftCell="A2120" workbookViewId="0">
+      <selection activeCell="A2145" sqref="A2145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23532,6 +23626,254 @@
         <v>1978</v>
       </c>
       <c r="B2126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2127" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B2127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2128" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B2128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2129" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B2129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2130" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B2130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2131" s="4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B2131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2132" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B2132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2133" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B2133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2134" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B2134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2135" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B2135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2136" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B2136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2137" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B2137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2138" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B2138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2139" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B2139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2140" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B2140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2141" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B2141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2142" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B2142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2143" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B2143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2144" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B2144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2145" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B2145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2146" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B2146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2147" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B2147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2148" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2149" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B2149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2150" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B2150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2151" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B2151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2152" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B2152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2153" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B2153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2154" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B2154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2155" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B2155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2156" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B2156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2157" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B2157">
         <v>0</v>
       </c>
     </row>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B30D73-EA03-44CF-8E1C-E95952337BEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD13830D-7F2F-4035-BDEC-95DAE82C48AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="2017">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -6219,6 +6219,27 @@
   </si>
   <si>
     <t>SELinux目录安全上下文调整</t>
+  </si>
+  <si>
+    <t>建设项目环境保护管理条例 -国务院令第682号</t>
+  </si>
+  <si>
+    <t>生活垃圾分类制度实施方案 -国办发〔2017〕26号</t>
+  </si>
+  <si>
+    <t>水污染防治行动计划 -国发〔2015〕17号（水十条）</t>
+  </si>
+  <si>
+    <t>大气污染防治行动计划 -国发〔2013〕37号（气十条）</t>
+  </si>
+  <si>
+    <t>土壤污染防治行动计划 -国发〔2016〕31号（土十条）</t>
+  </si>
+  <si>
+    <t>排污许可管理条例 -国务院令第736号</t>
+  </si>
+  <si>
+    <t>MOWW201/11IP-2037111?</t>
   </si>
 </sst>
 </file>
@@ -6609,10 +6630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B2157"/>
+  <dimension ref="A1:B2164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2120" workbookViewId="0">
-      <selection activeCell="A2145" sqref="A2145"/>
+    <sheetView tabSelected="1" topLeftCell="A2132" workbookViewId="0">
+      <selection activeCell="A2164" sqref="A2164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23874,6 +23895,62 @@
         <v>2009</v>
       </c>
       <c r="B2157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2158" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B2158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2159" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B2159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2160" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2161" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B2161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2162" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B2162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2163" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B2163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2164" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B2164">
         <v>0</v>
       </c>
     </row>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD13830D-7F2F-4035-BDEC-95DAE82C48AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A1198-BB09-4DC3-AF07-5ECF7F3AC7D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="2017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="2042">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -6240,6 +6240,81 @@
   </si>
   <si>
     <t>MOWW201/11IP-2037111?</t>
+  </si>
+  <si>
+    <t>《建筑设计防火规范》（GB50016-2018）</t>
+  </si>
+  <si>
+    <t>《民用建筑设计统一标准》（GB50352-2019）</t>
+  </si>
+  <si>
+    <t>《建筑抗震设计规范》（GB50011-2024年版）</t>
+  </si>
+  <si>
+    <t>《高层建筑混凝土结构技术规程》（JGJ3-2010）</t>
+  </si>
+  <si>
+    <t>《住宅设计规范》（GB50096-2011）</t>
+  </si>
+  <si>
+    <t>《建筑施工安全检查标准》（JGJ59-2011）</t>
+  </si>
+  <si>
+    <t>《混凝土结构工程施工质量验收规范》（GB50204-2015）</t>
+  </si>
+  <si>
+    <t>《建筑地基基础工程施工质量验收标准》（GB50202-2018）</t>
+  </si>
+  <si>
+    <t>《建筑装饰装修工程质量验收规范》（GB50210-2018）</t>
+  </si>
+  <si>
+    <t>《绿色建筑评价标准》（GB/T50378-2019）</t>
+  </si>
+  <si>
+    <t>《混凝土结构设计规范》（GB50010-2024年版）</t>
+  </si>
+  <si>
+    <t>《钢结构设计规范》（GB50017-2017）</t>
+  </si>
+  <si>
+    <t>《建筑用砂》（GB/T14684-2023）</t>
+  </si>
+  <si>
+    <t>《建筑用卵石、碎石》（GB/T14685-2023）</t>
+  </si>
+  <si>
+    <t>《建筑用金属与石材幕墙工程技术规范》（JGJ133-2001）</t>
+  </si>
+  <si>
+    <t>《建筑节能设计标准》（各地可能有所不同，如DBJ/T15-151-2019）</t>
+  </si>
+  <si>
+    <t>《民用建筑能耗标准》（部分地方标准，如DB11/T1576-2018）</t>
+  </si>
+  <si>
+    <t>《太阳能热水系统应用技术规范》（GB50364-2018）</t>
+  </si>
+  <si>
+    <t>《建筑环境通用规范》（GB55016-2021）</t>
+  </si>
+  <si>
+    <t>《建筑防雷设计规范》（GB50057-2010）</t>
+  </si>
+  <si>
+    <t>《建设工程勘察设计管理条例》（国务院令第662号）</t>
+  </si>
+  <si>
+    <t>《建筑给水排水设计规范》（GB50015-2019）</t>
+  </si>
+  <si>
+    <t>《建筑灭火器配置设计规范》（GB50140-2005）</t>
+  </si>
+  <si>
+    <t>HYPERLINK\l"_Toc406837484"第七章主要分部分项工程施工方案86</t>
+  </si>
+  <si>
+    <t>T——每台混凝土搅拌运输车总计停歇时间（20min）。</t>
   </si>
 </sst>
 </file>
@@ -6630,10 +6705,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B2164"/>
+  <dimension ref="A1:B2193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2132" workbookViewId="0">
-      <selection activeCell="A2164" sqref="A2164"/>
+    <sheetView tabSelected="1" topLeftCell="A2168" workbookViewId="0">
+      <selection activeCell="B2193" sqref="A2189:B2193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23951,6 +24026,238 @@
         <v>2016</v>
       </c>
       <c r="B2164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2165" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B2165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2166" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B2166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2167" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B2167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2168" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2169" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B2169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2170" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B2170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2171" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B2171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2172" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B2172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2173" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B2173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2174" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2175" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B2175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2176" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B2176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2177" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B2177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2178" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B2178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2179" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B2179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2180" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B2180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2181" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2182" s="4" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B2182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2183" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B2183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2184" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B2184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2185" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B2185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2186" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B2186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2187" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B2187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2188" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B2188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2189" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2190" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B2190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2191" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B2191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2192" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B2192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2193" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B2193">
         <v>0</v>
       </c>
     </row>

--- a/training/data/tech_standard_data.xlsx
+++ b/training/data/tech_standard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WDEV\nlp\tech_bid_ex\training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C4CD0C-A280-45D0-9B13-256BE605BDBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8794EB3-1D39-4FAE-B14D-9FAA8E8D2F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{86469D93-7625-4096-AA05-50A8AAF0ABF3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="2042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="2042">
   <si>
     <t>《中华人民共和国建筑法》</t>
   </si>
@@ -6706,10 +6706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB18F3DD-1626-4CF0-9449-E0B0FE96509A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B2193"/>
+  <dimension ref="A1:B2195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A2169" workbookViewId="0">
+      <selection activeCell="B2200" sqref="B2200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24260,6 +24260,22 @@
       </c>
       <c r="B2193">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2194" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B2194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2195" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B2195">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
